--- a/Problems/Final450/FINAL450.xlsx
+++ b/Problems/Final450/FINAL450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\vdcodes\Programming\DSA\Problems\Final450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9660C004-43F3-44D5-99A1-DDDDD0145599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B589BC-3B31-4CF4-B1EE-1BE1700039DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1528,7 +1528,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1556,6 +1556,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1875,14 +1878,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView showFormulas="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="28.5" customWidth="1"/>
-    <col min="2" max="2" width="123" customWidth="1"/>
+    <col min="2" max="2" width="80.25" customWidth="1"/>
     <col min="3" max="3" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1908,7 +1911,7 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="13" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1947,7 +1950,7 @@
       <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>4</v>
       </c>
       <c r="D8">
@@ -1961,7 +1964,7 @@
       <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>4</v>
       </c>
       <c r="D9">
@@ -1975,7 +1978,7 @@
       <c r="B10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>4</v>
       </c>
       <c r="D10">
@@ -2439,6 +2442,9 @@
       <c r="C44" s="12" t="s">
         <v>4</v>
       </c>
+      <c r="D44">
+        <v>37</v>
+      </c>
     </row>
     <row r="45" spans="1:4" ht="21">
       <c r="A45" s="8" t="s">
@@ -2450,6 +2456,9 @@
       <c r="C45" s="12" t="s">
         <v>4</v>
       </c>
+      <c r="D45">
+        <v>38</v>
+      </c>
     </row>
     <row r="46" spans="1:4" ht="21">
       <c r="A46" s="8" t="s">
@@ -2461,6 +2470,9 @@
       <c r="C46" s="12" t="s">
         <v>4</v>
       </c>
+      <c r="D46">
+        <v>39</v>
+      </c>
     </row>
     <row r="47" spans="1:4" ht="21">
       <c r="A47" s="8" t="s">
@@ -2472,6 +2484,9 @@
       <c r="C47" s="12" t="s">
         <v>4</v>
       </c>
+      <c r="D47">
+        <v>40</v>
+      </c>
     </row>
     <row r="48" spans="1:4" ht="21">
       <c r="A48" s="8" t="s">
@@ -2483,8 +2498,11 @@
       <c r="C48" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" ht="21">
+      <c r="D48">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="21">
       <c r="A49" s="8" t="s">
         <v>42</v>
       </c>
@@ -2494,8 +2512,11 @@
       <c r="C49" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" ht="21">
+      <c r="D49">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="21">
       <c r="A50" s="8" t="s">
         <v>42</v>
       </c>
@@ -2505,8 +2526,11 @@
       <c r="C50" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" ht="21">
+      <c r="D50">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="21">
       <c r="A51" s="8" t="s">
         <v>42</v>
       </c>
@@ -2516,8 +2540,11 @@
       <c r="C51" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" ht="21">
+      <c r="D51">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="21">
       <c r="A52" s="8" t="s">
         <v>42</v>
       </c>
@@ -2527,8 +2554,11 @@
       <c r="C52" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" ht="21">
+      <c r="D52">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="21">
       <c r="A53" s="8" t="s">
         <v>42</v>
       </c>
@@ -2538,13 +2568,16 @@
       <c r="C53" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" ht="21">
+      <c r="D53">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="21">
       <c r="A55" s="5"/>
       <c r="B55" s="7"/>
       <c r="C55" s="4"/>
     </row>
-    <row r="56" spans="1:3" ht="21">
+    <row r="56" spans="1:4" ht="21">
       <c r="A56" s="5" t="s">
         <v>53</v>
       </c>
@@ -2554,8 +2587,11 @@
       <c r="C56" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" ht="21">
+      <c r="D56">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="21">
       <c r="A57" s="5" t="s">
         <v>53</v>
       </c>
@@ -2565,8 +2601,11 @@
       <c r="C57" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" ht="21">
+      <c r="D57">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="21">
       <c r="A58" s="5" t="s">
         <v>53</v>
       </c>
@@ -2576,8 +2615,11 @@
       <c r="C58" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" ht="21">
+      <c r="D58">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="21">
       <c r="A59" s="5" t="s">
         <v>53</v>
       </c>
@@ -2587,8 +2629,11 @@
       <c r="C59" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" ht="21">
+      <c r="D59">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="21">
       <c r="A60" s="5" t="s">
         <v>53</v>
       </c>
@@ -2598,8 +2643,11 @@
       <c r="C60" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" ht="21">
+      <c r="D60">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="21">
       <c r="A61" s="5" t="s">
         <v>53</v>
       </c>
@@ -2609,8 +2657,11 @@
       <c r="C61" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" ht="21">
+      <c r="D61">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="21">
       <c r="A62" s="5" t="s">
         <v>53</v>
       </c>
@@ -2620,8 +2671,11 @@
       <c r="C62" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" ht="21">
+      <c r="D62">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="21">
       <c r="A63" s="5" t="s">
         <v>53</v>
       </c>
@@ -2631,8 +2685,11 @@
       <c r="C63" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" ht="21">
+      <c r="D63">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="21">
       <c r="A64" s="5" t="s">
         <v>53</v>
       </c>
@@ -2642,8 +2699,11 @@
       <c r="C64" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" ht="21">
+      <c r="D64">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="21">
       <c r="A65" s="5" t="s">
         <v>53</v>
       </c>
@@ -2653,8 +2713,11 @@
       <c r="C65" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" ht="21">
+      <c r="D65">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="21">
       <c r="A66" s="5" t="s">
         <v>53</v>
       </c>
@@ -2664,8 +2727,11 @@
       <c r="C66" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" ht="21">
+      <c r="D66">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="21">
       <c r="A67" s="5" t="s">
         <v>53</v>
       </c>
@@ -2675,8 +2741,11 @@
       <c r="C67" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" ht="21">
+      <c r="D67">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="21">
       <c r="A68" s="5" t="s">
         <v>53</v>
       </c>
@@ -2686,8 +2755,11 @@
       <c r="C68" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" ht="21">
+      <c r="D68">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="21">
       <c r="A69" s="5" t="s">
         <v>53</v>
       </c>
@@ -2697,8 +2769,11 @@
       <c r="C69" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" ht="21">
+      <c r="D69">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="21">
       <c r="A70" s="5" t="s">
         <v>53</v>
       </c>
@@ -2708,8 +2783,11 @@
       <c r="C70" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" ht="21">
+      <c r="D70">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="21">
       <c r="A71" s="5" t="s">
         <v>53</v>
       </c>
@@ -2719,8 +2797,11 @@
       <c r="C71" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" ht="21">
+      <c r="D71">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="21">
       <c r="A72" s="5" t="s">
         <v>53</v>
       </c>
@@ -2730,8 +2811,11 @@
       <c r="C72" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" ht="21">
+      <c r="D72">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="21">
       <c r="A73" s="5" t="s">
         <v>53</v>
       </c>
@@ -2741,8 +2825,11 @@
       <c r="C73" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" ht="21">
+      <c r="D73">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="21">
       <c r="A74" s="5" t="s">
         <v>53</v>
       </c>
@@ -2752,8 +2839,11 @@
       <c r="C74" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" ht="21">
+      <c r="D74">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="21">
       <c r="A75" s="5" t="s">
         <v>53</v>
       </c>
@@ -2763,8 +2853,11 @@
       <c r="C75" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" ht="21">
+      <c r="D75">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="21">
       <c r="A76" s="5" t="s">
         <v>53</v>
       </c>
@@ -2774,8 +2867,11 @@
       <c r="C76" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" ht="21">
+      <c r="D76">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="21">
       <c r="A77" s="5" t="s">
         <v>53</v>
       </c>
@@ -2785,8 +2881,11 @@
       <c r="C77" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" ht="21">
+      <c r="D77">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="21">
       <c r="A78" s="5" t="s">
         <v>53</v>
       </c>
@@ -2796,8 +2895,11 @@
       <c r="C78" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" ht="21">
+      <c r="D78">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="21">
       <c r="A79" s="5" t="s">
         <v>53</v>
       </c>
@@ -2807,8 +2909,11 @@
       <c r="C79" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" ht="21">
+      <c r="D79">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="21">
       <c r="A80" s="5" t="s">
         <v>53</v>
       </c>
@@ -2818,8 +2923,11 @@
       <c r="C80" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" ht="21">
+      <c r="D80">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="21">
       <c r="A81" s="5" t="s">
         <v>53</v>
       </c>
@@ -2829,8 +2937,11 @@
       <c r="C81" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" ht="21">
+      <c r="D81">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="21">
       <c r="A82" s="5" t="s">
         <v>53</v>
       </c>
@@ -2840,8 +2951,11 @@
       <c r="C82" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" ht="21">
+      <c r="D82">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="21">
       <c r="A83" s="5" t="s">
         <v>53</v>
       </c>
@@ -2851,8 +2965,11 @@
       <c r="C83" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" ht="21">
+      <c r="D83">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="21">
       <c r="A84" s="5" t="s">
         <v>53</v>
       </c>
@@ -2862,8 +2979,11 @@
       <c r="C84" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" ht="21">
+      <c r="D84">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="21">
       <c r="A85" s="5" t="s">
         <v>53</v>
       </c>
@@ -2873,8 +2993,11 @@
       <c r="C85" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" ht="21">
+      <c r="D85">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="21">
       <c r="A86" s="5" t="s">
         <v>53</v>
       </c>
@@ -2884,8 +3007,11 @@
       <c r="C86" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" ht="21">
+      <c r="D86">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="21">
       <c r="A87" s="5" t="s">
         <v>53</v>
       </c>
@@ -2895,8 +3021,11 @@
       <c r="C87" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" ht="21">
+      <c r="D87">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="21">
       <c r="A88" s="5" t="s">
         <v>53</v>
       </c>
@@ -2906,8 +3035,11 @@
       <c r="C88" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" ht="21">
+      <c r="D88">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="21">
       <c r="A89" s="5" t="s">
         <v>53</v>
       </c>
@@ -2917,8 +3049,11 @@
       <c r="C89" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" ht="21">
+      <c r="D89">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="21">
       <c r="A90" s="5" t="s">
         <v>53</v>
       </c>
@@ -2928,8 +3063,11 @@
       <c r="C90" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" ht="21">
+      <c r="D90">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="21">
       <c r="A91" s="5" t="s">
         <v>53</v>
       </c>
@@ -2939,8 +3077,11 @@
       <c r="C91" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" ht="21">
+      <c r="D91">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="21">
       <c r="A92" s="5" t="s">
         <v>53</v>
       </c>
@@ -2950,8 +3091,11 @@
       <c r="C92" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" ht="21">
+      <c r="D92">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="21">
       <c r="A93" s="5" t="s">
         <v>53</v>
       </c>
@@ -2961,8 +3105,11 @@
       <c r="C93" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" ht="21">
+      <c r="D93">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="21">
       <c r="A94" s="5" t="s">
         <v>53</v>
       </c>
@@ -2972,8 +3119,11 @@
       <c r="C94" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" ht="21">
+      <c r="D94">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="21">
       <c r="A95" s="5" t="s">
         <v>53</v>
       </c>
@@ -2983,8 +3133,11 @@
       <c r="C95" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" ht="21">
+      <c r="D95">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="21">
       <c r="A96" s="5" t="s">
         <v>53</v>
       </c>
@@ -2994,8 +3147,11 @@
       <c r="C96" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" ht="21">
+      <c r="D96">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="21">
       <c r="A97" s="5" t="s">
         <v>53</v>
       </c>
@@ -3005,8 +3161,11 @@
       <c r="C97" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" ht="21">
+      <c r="D97">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="21">
       <c r="A98" s="5" t="s">
         <v>53</v>
       </c>
@@ -3016,13 +3175,16 @@
       <c r="C98" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" ht="21">
+      <c r="D98">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="21">
       <c r="A100" s="8"/>
       <c r="B100" s="7"/>
       <c r="C100" s="4"/>
     </row>
-    <row r="101" spans="1:3" ht="21">
+    <row r="101" spans="1:4" ht="21">
       <c r="A101" s="5" t="s">
         <v>97</v>
       </c>
@@ -3032,8 +3194,11 @@
       <c r="C101" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" ht="21">
+      <c r="D101">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="21">
       <c r="A102" s="5" t="s">
         <v>97</v>
       </c>
@@ -3043,8 +3208,11 @@
       <c r="C102" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" ht="21">
+      <c r="D102">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="21">
       <c r="A103" s="5" t="s">
         <v>97</v>
       </c>
@@ -3054,8 +3222,11 @@
       <c r="C103" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" ht="21">
+      <c r="D103">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="21">
       <c r="A104" s="5" t="s">
         <v>97</v>
       </c>
@@ -3065,8 +3236,11 @@
       <c r="C104" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" ht="21">
+      <c r="D104">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="21">
       <c r="A105" s="5" t="s">
         <v>97</v>
       </c>
@@ -3076,8 +3250,11 @@
       <c r="C105" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" ht="21">
+      <c r="D105">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="21">
       <c r="A106" s="5" t="s">
         <v>97</v>
       </c>
@@ -3087,8 +3264,11 @@
       <c r="C106" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" ht="21">
+      <c r="D106">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="21">
       <c r="A107" s="5" t="s">
         <v>97</v>
       </c>
@@ -3098,8 +3278,11 @@
       <c r="C107" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" ht="21">
+      <c r="D107">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="21">
       <c r="A108" s="5" t="s">
         <v>97</v>
       </c>
@@ -3109,8 +3292,11 @@
       <c r="C108" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" ht="21">
+      <c r="D108">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="21">
       <c r="A109" s="5" t="s">
         <v>97</v>
       </c>
@@ -3120,8 +3306,11 @@
       <c r="C109" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" ht="21">
+      <c r="D109">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="21">
       <c r="A110" s="5" t="s">
         <v>97</v>
       </c>
@@ -3131,8 +3320,11 @@
       <c r="C110" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" ht="21">
+      <c r="D110">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="21">
       <c r="A111" s="5" t="s">
         <v>97</v>
       </c>
@@ -3142,8 +3334,11 @@
       <c r="C111" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" ht="21">
+      <c r="D111">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="21">
       <c r="A112" s="5" t="s">
         <v>97</v>
       </c>
@@ -3153,8 +3348,11 @@
       <c r="C112" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" ht="21">
+      <c r="D112">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="21">
       <c r="A113" s="5" t="s">
         <v>97</v>
       </c>
@@ -3164,8 +3362,11 @@
       <c r="C113" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" ht="21">
+      <c r="D113">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="21">
       <c r="A114" s="5" t="s">
         <v>97</v>
       </c>
@@ -3175,8 +3376,11 @@
       <c r="C114" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" ht="21">
+      <c r="D114">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="21">
       <c r="A115" s="5" t="s">
         <v>97</v>
       </c>
@@ -3186,8 +3390,11 @@
       <c r="C115" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" ht="21">
+      <c r="D115">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="21">
       <c r="A116" s="5" t="s">
         <v>97</v>
       </c>
@@ -3197,8 +3404,11 @@
       <c r="C116" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" ht="21">
+      <c r="D116">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="21">
       <c r="A117" s="5" t="s">
         <v>97</v>
       </c>
@@ -3208,8 +3418,11 @@
       <c r="C117" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" ht="21">
+      <c r="D117">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="21">
       <c r="A118" s="5" t="s">
         <v>97</v>
       </c>
@@ -3219,8 +3432,11 @@
       <c r="C118" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" ht="21">
+      <c r="D118">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="21">
       <c r="A119" s="5" t="s">
         <v>97</v>
       </c>
@@ -3230,8 +3446,11 @@
       <c r="C119" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" ht="21">
+      <c r="D119">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="21">
       <c r="A120" s="5" t="s">
         <v>97</v>
       </c>
@@ -3241,8 +3460,11 @@
       <c r="C120" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" ht="21">
+      <c r="D120">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="21">
       <c r="A121" s="5" t="s">
         <v>97</v>
       </c>
@@ -3252,8 +3474,11 @@
       <c r="C121" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" ht="21">
+      <c r="D121">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="21">
       <c r="A122" s="5" t="s">
         <v>97</v>
       </c>
@@ -3263,8 +3488,11 @@
       <c r="C122" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" ht="21">
+      <c r="D122">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="21">
       <c r="A123" s="5" t="s">
         <v>97</v>
       </c>
@@ -3274,8 +3502,11 @@
       <c r="C123" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" ht="21">
+      <c r="D123">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="21">
       <c r="A124" s="5" t="s">
         <v>97</v>
       </c>
@@ -3285,8 +3516,11 @@
       <c r="C124" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" ht="21">
+      <c r="D124">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="21">
       <c r="A125" s="5" t="s">
         <v>97</v>
       </c>
@@ -3296,8 +3530,11 @@
       <c r="C125" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" ht="21">
+      <c r="D125">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="21">
       <c r="A126" s="5" t="s">
         <v>97</v>
       </c>
@@ -3307,8 +3544,11 @@
       <c r="C126" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" ht="21">
+      <c r="D126">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="21">
       <c r="A127" s="5" t="s">
         <v>97</v>
       </c>
@@ -3318,8 +3558,11 @@
       <c r="C127" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" ht="21">
+      <c r="D127">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="21">
       <c r="A128" s="5" t="s">
         <v>97</v>
       </c>
@@ -3329,8 +3572,11 @@
       <c r="C128" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" ht="21">
+      <c r="D128">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="21">
       <c r="A129" s="5" t="s">
         <v>97</v>
       </c>
@@ -3340,8 +3586,11 @@
       <c r="C129" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" ht="21">
+      <c r="D129">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="21">
       <c r="A130" s="5" t="s">
         <v>97</v>
       </c>
@@ -3351,8 +3600,11 @@
       <c r="C130" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" ht="21">
+      <c r="D130">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="21">
       <c r="A131" s="5" t="s">
         <v>97</v>
       </c>
@@ -3362,8 +3614,11 @@
       <c r="C131" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" ht="21">
+      <c r="D131">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="21">
       <c r="A132" s="5" t="s">
         <v>97</v>
       </c>
@@ -3373,8 +3628,11 @@
       <c r="C132" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" ht="21">
+      <c r="D132">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="21">
       <c r="A133" s="5" t="s">
         <v>97</v>
       </c>
@@ -3384,8 +3642,11 @@
       <c r="C133" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" ht="21">
+      <c r="D133">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="21">
       <c r="A134" s="5" t="s">
         <v>97</v>
       </c>
@@ -3395,8 +3656,11 @@
       <c r="C134" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" ht="21">
+      <c r="D134">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="21">
       <c r="A135" s="5" t="s">
         <v>97</v>
       </c>
@@ -3406,8 +3670,11 @@
       <c r="C135" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" ht="21">
+      <c r="D135">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="21">
       <c r="A136" s="5" t="s">
         <v>97</v>
       </c>
@@ -3417,12 +3684,15 @@
       <c r="C136" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" ht="21">
+      <c r="D136">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="21">
       <c r="B138" s="7"/>
       <c r="C138" s="4"/>
     </row>
-    <row r="139" spans="1:3" ht="21">
+    <row r="139" spans="1:4" ht="21">
       <c r="A139" s="8" t="s">
         <v>134</v>
       </c>
@@ -3432,8 +3702,11 @@
       <c r="C139" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" ht="21">
+      <c r="D139">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="21">
       <c r="A140" s="8" t="s">
         <v>134</v>
       </c>
@@ -3443,8 +3716,11 @@
       <c r="C140" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" ht="21">
+      <c r="D140">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="21">
       <c r="A141" s="8" t="s">
         <v>134</v>
       </c>
@@ -3454,8 +3730,11 @@
       <c r="C141" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" ht="21">
+      <c r="D141">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="21">
       <c r="A142" s="8" t="s">
         <v>134</v>
       </c>
@@ -3465,8 +3744,11 @@
       <c r="C142" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" ht="21">
+      <c r="D142">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="21">
       <c r="A143" s="8" t="s">
         <v>134</v>
       </c>
@@ -3476,8 +3758,11 @@
       <c r="C143" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" ht="21">
+      <c r="D143">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="21">
       <c r="A144" s="8" t="s">
         <v>134</v>
       </c>
@@ -3487,8 +3772,11 @@
       <c r="C144" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" ht="21">
+      <c r="D144">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="21">
       <c r="A145" s="8" t="s">
         <v>134</v>
       </c>
@@ -3498,8 +3786,11 @@
       <c r="C145" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" ht="21">
+      <c r="D145">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="21">
       <c r="A146" s="8" t="s">
         <v>134</v>
       </c>
@@ -3509,8 +3800,11 @@
       <c r="C146" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" ht="21">
+      <c r="D146">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="21">
       <c r="A147" s="8" t="s">
         <v>134</v>
       </c>
@@ -3520,8 +3814,11 @@
       <c r="C147" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" ht="21">
+      <c r="D147">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="21">
       <c r="A148" s="8" t="s">
         <v>134</v>
       </c>
@@ -3531,8 +3828,11 @@
       <c r="C148" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" ht="21">
+      <c r="D148">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="21">
       <c r="A149" s="8" t="s">
         <v>134</v>
       </c>
@@ -3542,8 +3842,11 @@
       <c r="C149" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" ht="21">
+      <c r="D149">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="21">
       <c r="A150" s="8" t="s">
         <v>134</v>
       </c>
@@ -3553,8 +3856,11 @@
       <c r="C150" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" ht="21">
+      <c r="D150">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="21">
       <c r="A151" s="8" t="s">
         <v>134</v>
       </c>
@@ -3564,8 +3870,11 @@
       <c r="C151" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" ht="21">
+      <c r="D151">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="21">
       <c r="A152" s="8" t="s">
         <v>134</v>
       </c>
@@ -3575,8 +3884,11 @@
       <c r="C152" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" ht="21">
+      <c r="D152">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="21">
       <c r="A153" s="8" t="s">
         <v>134</v>
       </c>
@@ -3586,8 +3898,11 @@
       <c r="C153" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" ht="21">
+      <c r="D153">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="21">
       <c r="A154" s="8" t="s">
         <v>134</v>
       </c>
@@ -3597,8 +3912,11 @@
       <c r="C154" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" ht="21">
+      <c r="D154">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="21">
       <c r="A155" s="8" t="s">
         <v>134</v>
       </c>
@@ -3608,8 +3926,11 @@
       <c r="C155" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" ht="21">
+      <c r="D155">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="21">
       <c r="A156" s="8" t="s">
         <v>134</v>
       </c>
@@ -3619,8 +3940,11 @@
       <c r="C156" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" ht="21">
+      <c r="D156">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="21">
       <c r="A157" s="8" t="s">
         <v>134</v>
       </c>
@@ -3630,8 +3954,11 @@
       <c r="C157" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" ht="21">
+      <c r="D157">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="21">
       <c r="A158" s="8" t="s">
         <v>134</v>
       </c>
@@ -3641,8 +3968,11 @@
       <c r="C158" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" ht="21">
+      <c r="D158">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="21">
       <c r="A159" s="8" t="s">
         <v>134</v>
       </c>
@@ -3652,8 +3982,11 @@
       <c r="C159" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" ht="21">
+      <c r="D159">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="21">
       <c r="A160" s="8" t="s">
         <v>134</v>
       </c>
@@ -3663,8 +3996,11 @@
       <c r="C160" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" ht="21">
+      <c r="D160">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="21">
       <c r="A161" s="8" t="s">
         <v>134</v>
       </c>
@@ -3674,8 +4010,11 @@
       <c r="C161" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" ht="21">
+      <c r="D161">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="21">
       <c r="A162" s="8" t="s">
         <v>134</v>
       </c>
@@ -3685,8 +4024,11 @@
       <c r="C162" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" ht="21">
+      <c r="D162">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="21">
       <c r="A163" s="8" t="s">
         <v>134</v>
       </c>
@@ -3696,8 +4038,11 @@
       <c r="C163" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" ht="21">
+      <c r="D163">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="21">
       <c r="A164" s="8" t="s">
         <v>134</v>
       </c>
@@ -3707,8 +4052,11 @@
       <c r="C164" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" ht="21">
+      <c r="D164">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="21">
       <c r="A165" s="8" t="s">
         <v>134</v>
       </c>
@@ -3718,8 +4066,11 @@
       <c r="C165" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" ht="21">
+      <c r="D165">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="21">
       <c r="A166" s="8" t="s">
         <v>134</v>
       </c>
@@ -3729,8 +4080,11 @@
       <c r="C166" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" ht="21">
+      <c r="D166">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="21">
       <c r="A167" s="8" t="s">
         <v>134</v>
       </c>
@@ -3740,8 +4094,11 @@
       <c r="C167" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" ht="21">
+      <c r="D167">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="21">
       <c r="A168" s="8" t="s">
         <v>134</v>
       </c>
@@ -3751,8 +4108,11 @@
       <c r="C168" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" ht="21">
+      <c r="D168">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="21">
       <c r="A169" s="8" t="s">
         <v>134</v>
       </c>
@@ -3762,8 +4122,11 @@
       <c r="C169" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" ht="21">
+      <c r="D169">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="21">
       <c r="A170" s="8" t="s">
         <v>134</v>
       </c>
@@ -3773,8 +4136,11 @@
       <c r="C170" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" ht="21">
+      <c r="D170">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="21">
       <c r="A171" s="8" t="s">
         <v>134</v>
       </c>
@@ -3784,8 +4150,11 @@
       <c r="C171" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" ht="21">
+      <c r="D171">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="21">
       <c r="A172" s="8" t="s">
         <v>134</v>
       </c>
@@ -3795,8 +4164,11 @@
       <c r="C172" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" ht="21">
+      <c r="D172">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="21">
       <c r="A173" s="8" t="s">
         <v>134</v>
       </c>
@@ -3806,8 +4178,11 @@
       <c r="C173" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" ht="21">
+      <c r="D173">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="21">
       <c r="A174" s="8" t="s">
         <v>134</v>
       </c>
@@ -3817,12 +4192,15 @@
       <c r="C174" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" ht="21">
+      <c r="D174">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="21">
       <c r="B176" s="7"/>
       <c r="C176" s="4"/>
     </row>
-    <row r="177" spans="1:3" ht="21">
+    <row r="177" spans="1:4" ht="21">
       <c r="A177" s="5" t="s">
         <v>171</v>
       </c>
@@ -3832,8 +4210,11 @@
       <c r="C177" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" ht="21">
+      <c r="D177">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="21">
       <c r="A178" s="5" t="s">
         <v>171</v>
       </c>
@@ -3843,8 +4224,11 @@
       <c r="C178" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" ht="21">
+      <c r="D178">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="21">
       <c r="A179" s="5" t="s">
         <v>171</v>
       </c>
@@ -3854,8 +4238,11 @@
       <c r="C179" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" ht="21">
+      <c r="D179">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="21">
       <c r="A180" s="5" t="s">
         <v>171</v>
       </c>
@@ -3865,8 +4252,11 @@
       <c r="C180" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" ht="21">
+      <c r="D180">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="21">
       <c r="A181" s="5" t="s">
         <v>171</v>
       </c>
@@ -3876,8 +4266,11 @@
       <c r="C181" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" ht="21">
+      <c r="D181">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="21">
       <c r="A182" s="5" t="s">
         <v>171</v>
       </c>
@@ -3887,8 +4280,11 @@
       <c r="C182" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" ht="21">
+      <c r="D182">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="21">
       <c r="A183" s="5" t="s">
         <v>171</v>
       </c>
@@ -3898,8 +4294,11 @@
       <c r="C183" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" ht="21">
+      <c r="D183">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="21">
       <c r="A184" s="5" t="s">
         <v>171</v>
       </c>
@@ -3909,8 +4308,11 @@
       <c r="C184" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" ht="21">
+      <c r="D184">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="21">
       <c r="A185" s="5" t="s">
         <v>171</v>
       </c>
@@ -3920,8 +4322,11 @@
       <c r="C185" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" ht="21">
+      <c r="D185">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="21">
       <c r="A186" s="5" t="s">
         <v>171</v>
       </c>
@@ -3931,8 +4336,11 @@
       <c r="C186" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" ht="21">
+      <c r="D186">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="21">
       <c r="A187" s="5" t="s">
         <v>171</v>
       </c>
@@ -3942,8 +4350,11 @@
       <c r="C187" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" ht="21">
+      <c r="D187">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="21">
       <c r="A188" s="5" t="s">
         <v>171</v>
       </c>
@@ -3953,8 +4364,11 @@
       <c r="C188" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" ht="21">
+      <c r="D188">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="21">
       <c r="A189" s="5" t="s">
         <v>171</v>
       </c>
@@ -3964,8 +4378,11 @@
       <c r="C189" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" ht="21">
+      <c r="D189">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="21">
       <c r="A190" s="5" t="s">
         <v>171</v>
       </c>
@@ -3975,8 +4392,11 @@
       <c r="C190" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" ht="21">
+      <c r="D190">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="21">
       <c r="A191" s="5" t="s">
         <v>171</v>
       </c>
@@ -3986,8 +4406,11 @@
       <c r="C191" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" ht="21">
+      <c r="D191">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="21">
       <c r="A192" s="5" t="s">
         <v>171</v>
       </c>
@@ -3997,8 +4420,11 @@
       <c r="C192" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" ht="21">
+      <c r="D192">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="21">
       <c r="A193" s="5" t="s">
         <v>171</v>
       </c>
@@ -4008,8 +4434,11 @@
       <c r="C193" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" ht="21">
+      <c r="D193">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="21">
       <c r="A194" s="5" t="s">
         <v>171</v>
       </c>
@@ -4019,8 +4448,11 @@
       <c r="C194" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" ht="21">
+      <c r="D194">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="21">
       <c r="A195" s="5" t="s">
         <v>171</v>
       </c>
@@ -4030,8 +4462,11 @@
       <c r="C195" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" ht="21">
+      <c r="D195">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="21">
       <c r="A196" s="5" t="s">
         <v>171</v>
       </c>
@@ -4041,8 +4476,11 @@
       <c r="C196" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" ht="21">
+      <c r="D196">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="21">
       <c r="A197" s="5" t="s">
         <v>171</v>
       </c>
@@ -4052,8 +4490,11 @@
       <c r="C197" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" ht="21">
+      <c r="D197">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="21">
       <c r="A198" s="5" t="s">
         <v>171</v>
       </c>
@@ -4063,8 +4504,11 @@
       <c r="C198" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" ht="21">
+      <c r="D198">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="21">
       <c r="A199" s="5" t="s">
         <v>171</v>
       </c>
@@ -4074,8 +4518,11 @@
       <c r="C199" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" ht="21">
+      <c r="D199">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="21">
       <c r="A200" s="5" t="s">
         <v>171</v>
       </c>
@@ -4085,8 +4532,11 @@
       <c r="C200" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" ht="21">
+      <c r="D200">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="21">
       <c r="A201" s="5" t="s">
         <v>171</v>
       </c>
@@ -4096,8 +4546,11 @@
       <c r="C201" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" ht="21">
+      <c r="D201">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="21">
       <c r="A202" s="5" t="s">
         <v>171</v>
       </c>
@@ -4107,8 +4560,11 @@
       <c r="C202" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" ht="21">
+      <c r="D202">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="21">
       <c r="A203" s="5" t="s">
         <v>171</v>
       </c>
@@ -4118,8 +4574,11 @@
       <c r="C203" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" ht="21">
+      <c r="D203">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="21">
       <c r="A204" s="5" t="s">
         <v>171</v>
       </c>
@@ -4129,8 +4588,11 @@
       <c r="C204" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" ht="21">
+      <c r="D204">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="21">
       <c r="A205" s="5" t="s">
         <v>171</v>
       </c>
@@ -4140,8 +4602,11 @@
       <c r="C205" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" ht="21">
+      <c r="D205">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="21">
       <c r="A206" s="5" t="s">
         <v>171</v>
       </c>
@@ -4151,8 +4616,11 @@
       <c r="C206" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" ht="21">
+      <c r="D206">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="21">
       <c r="A207" s="5" t="s">
         <v>171</v>
       </c>
@@ -4162,8 +4630,11 @@
       <c r="C207" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" ht="21">
+      <c r="D207">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" ht="21">
       <c r="A208" s="5" t="s">
         <v>171</v>
       </c>
@@ -4173,8 +4644,11 @@
       <c r="C208" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" ht="21">
+      <c r="D208">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="21">
       <c r="A209" s="5" t="s">
         <v>171</v>
       </c>
@@ -4184,8 +4658,11 @@
       <c r="C209" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" ht="21">
+      <c r="D209">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" ht="21">
       <c r="A210" s="5" t="s">
         <v>171</v>
       </c>
@@ -4195,8 +4672,11 @@
       <c r="C210" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" ht="21">
+      <c r="D210">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="21">
       <c r="A211" s="5" t="s">
         <v>171</v>
       </c>
@@ -4206,18 +4686,21 @@
       <c r="C211" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" ht="21">
+      <c r="D211">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="21">
       <c r="A212" s="8"/>
       <c r="B212" s="7"/>
       <c r="C212" s="4"/>
     </row>
-    <row r="213" spans="1:3" ht="21">
+    <row r="213" spans="1:4" ht="21">
       <c r="A213" s="8"/>
       <c r="B213" s="7"/>
       <c r="C213" s="4"/>
     </row>
-    <row r="214" spans="1:3" ht="21">
+    <row r="214" spans="1:4" ht="21">
       <c r="A214" s="5" t="s">
         <v>207</v>
       </c>
@@ -4227,8 +4710,11 @@
       <c r="C214" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" ht="21">
+      <c r="D214">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="21">
       <c r="A215" s="5" t="s">
         <v>207</v>
       </c>
@@ -4238,8 +4724,11 @@
       <c r="C215" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" ht="21">
+      <c r="D215">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="21">
       <c r="A216" s="5" t="s">
         <v>207</v>
       </c>
@@ -4249,8 +4738,11 @@
       <c r="C216" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" ht="21">
+      <c r="D216">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" ht="21">
       <c r="A217" s="5" t="s">
         <v>207</v>
       </c>
@@ -4260,8 +4752,11 @@
       <c r="C217" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" ht="21">
+      <c r="D217">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" ht="21">
       <c r="A218" s="5" t="s">
         <v>207</v>
       </c>
@@ -4271,8 +4766,11 @@
       <c r="C218" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" ht="21">
+      <c r="D218">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" ht="21">
       <c r="A219" s="5" t="s">
         <v>207</v>
       </c>
@@ -4282,8 +4780,11 @@
       <c r="C219" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" ht="21">
+      <c r="D219">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="21">
       <c r="A220" s="5" t="s">
         <v>207</v>
       </c>
@@ -4293,8 +4794,11 @@
       <c r="C220" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" ht="21">
+      <c r="D220">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" ht="21">
       <c r="A221" s="5" t="s">
         <v>207</v>
       </c>
@@ -4304,8 +4808,11 @@
       <c r="C221" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" ht="21">
+      <c r="D221">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" ht="21">
       <c r="A222" s="5" t="s">
         <v>207</v>
       </c>
@@ -4315,8 +4822,11 @@
       <c r="C222" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" ht="21">
+      <c r="D222">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" ht="21">
       <c r="A223" s="5" t="s">
         <v>207</v>
       </c>
@@ -4326,8 +4836,11 @@
       <c r="C223" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" ht="21">
+      <c r="D223">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" ht="21">
       <c r="A224" s="5" t="s">
         <v>207</v>
       </c>
@@ -4337,8 +4850,11 @@
       <c r="C224" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" ht="21">
+      <c r="D224">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" ht="21">
       <c r="A225" s="5" t="s">
         <v>207</v>
       </c>
@@ -4348,8 +4864,11 @@
       <c r="C225" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" ht="21">
+      <c r="D225">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" ht="21">
       <c r="A226" s="5" t="s">
         <v>207</v>
       </c>
@@ -4359,8 +4878,11 @@
       <c r="C226" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" ht="21">
+      <c r="D226">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" ht="21">
       <c r="A227" s="5" t="s">
         <v>207</v>
       </c>
@@ -4370,8 +4892,11 @@
       <c r="C227" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" ht="21">
+      <c r="D227">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" ht="21">
       <c r="A228" s="5" t="s">
         <v>207</v>
       </c>
@@ -4381,8 +4906,11 @@
       <c r="C228" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" ht="21">
+      <c r="D228">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" ht="21">
       <c r="A229" s="5" t="s">
         <v>207</v>
       </c>
@@ -4392,8 +4920,11 @@
       <c r="C229" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" ht="21">
+      <c r="D229">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" ht="21">
       <c r="A230" s="5" t="s">
         <v>207</v>
       </c>
@@ -4403,8 +4934,11 @@
       <c r="C230" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" ht="21">
+      <c r="D230">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" ht="21">
       <c r="A231" s="5" t="s">
         <v>207</v>
       </c>
@@ -4414,8 +4948,11 @@
       <c r="C231" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" ht="21">
+      <c r="D231">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" ht="21">
       <c r="A232" s="5" t="s">
         <v>207</v>
       </c>
@@ -4425,8 +4962,11 @@
       <c r="C232" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" ht="21">
+      <c r="D232">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" ht="21">
       <c r="A233" s="5" t="s">
         <v>207</v>
       </c>
@@ -4436,8 +4976,11 @@
       <c r="C233" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" ht="21">
+      <c r="D233">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" ht="21">
       <c r="A234" s="5" t="s">
         <v>207</v>
       </c>
@@ -4447,8 +4990,11 @@
       <c r="C234" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" ht="21">
+      <c r="D234">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" ht="21">
       <c r="A235" s="5" t="s">
         <v>207</v>
       </c>
@@ -4458,16 +5004,19 @@
       <c r="C235" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" ht="21">
+      <c r="D235">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" ht="21">
       <c r="B236" s="7"/>
       <c r="C236" s="4"/>
     </row>
-    <row r="237" spans="1:3" ht="21">
+    <row r="237" spans="1:4" ht="21">
       <c r="B237" s="7"/>
       <c r="C237" s="4"/>
     </row>
-    <row r="238" spans="1:3" ht="21">
+    <row r="238" spans="1:4" ht="21">
       <c r="A238" s="5" t="s">
         <v>230</v>
       </c>
@@ -4477,8 +5026,11 @@
       <c r="C238" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" ht="21">
+      <c r="D238">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" ht="21">
       <c r="A239" s="5" t="s">
         <v>230</v>
       </c>
@@ -4488,8 +5040,11 @@
       <c r="C239" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" ht="21">
+      <c r="D239">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" ht="21">
       <c r="A240" s="5" t="s">
         <v>230</v>
       </c>
@@ -4499,8 +5054,11 @@
       <c r="C240" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" ht="21">
+      <c r="D240">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" ht="21">
       <c r="A241" s="5" t="s">
         <v>230</v>
       </c>
@@ -4510,8 +5068,11 @@
       <c r="C241" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" ht="21">
+      <c r="D241">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" ht="21">
       <c r="A242" s="5" t="s">
         <v>230</v>
       </c>
@@ -4521,8 +5082,11 @@
       <c r="C242" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" ht="21">
+      <c r="D242">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" ht="21">
       <c r="A243" s="5" t="s">
         <v>230</v>
       </c>
@@ -4532,8 +5096,11 @@
       <c r="C243" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" ht="21">
+      <c r="D243">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" ht="21">
       <c r="A244" s="5" t="s">
         <v>230</v>
       </c>
@@ -4543,8 +5110,11 @@
       <c r="C244" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" ht="21">
+      <c r="D244">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" ht="21">
       <c r="A245" s="5" t="s">
         <v>230</v>
       </c>
@@ -4554,8 +5124,11 @@
       <c r="C245" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" ht="21">
+      <c r="D245">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" ht="21">
       <c r="A246" s="5" t="s">
         <v>230</v>
       </c>
@@ -4565,8 +5138,11 @@
       <c r="C246" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" ht="21">
+      <c r="D246">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" ht="21">
       <c r="A247" s="5" t="s">
         <v>230</v>
       </c>
@@ -4576,8 +5152,11 @@
       <c r="C247" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" ht="21">
+      <c r="D247">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" ht="21">
       <c r="A248" s="5" t="s">
         <v>230</v>
       </c>
@@ -4587,8 +5166,11 @@
       <c r="C248" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="249" spans="1:3" ht="21">
+      <c r="D248">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" ht="21">
       <c r="A249" s="5" t="s">
         <v>230</v>
       </c>
@@ -4598,8 +5180,11 @@
       <c r="C249" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" ht="21">
+      <c r="D249">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" ht="21">
       <c r="A250" s="5" t="s">
         <v>230</v>
       </c>
@@ -4609,8 +5194,11 @@
       <c r="C250" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" ht="21">
+      <c r="D250">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" ht="21">
       <c r="A251" s="5" t="s">
         <v>230</v>
       </c>
@@ -4620,8 +5208,11 @@
       <c r="C251" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="252" spans="1:3" ht="21">
+      <c r="D251">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" ht="21">
       <c r="A252" s="5" t="s">
         <v>230</v>
       </c>
@@ -4631,8 +5222,11 @@
       <c r="C252" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="253" spans="1:3" ht="21">
+      <c r="D252">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" ht="21">
       <c r="A253" s="5" t="s">
         <v>230</v>
       </c>
@@ -4642,8 +5236,11 @@
       <c r="C253" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="254" spans="1:3" ht="21">
+      <c r="D253">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" ht="21">
       <c r="A254" s="5" t="s">
         <v>230</v>
       </c>
@@ -4653,8 +5250,11 @@
       <c r="C254" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="255" spans="1:3" ht="21">
+      <c r="D254">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" ht="21">
       <c r="A255" s="5" t="s">
         <v>230</v>
       </c>
@@ -4664,8 +5264,11 @@
       <c r="C255" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" ht="21">
+      <c r="D255">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" ht="21">
       <c r="A256" s="5" t="s">
         <v>230</v>
       </c>
@@ -4675,8 +5278,11 @@
       <c r="C256" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="257" spans="1:3" ht="21">
+      <c r="D256">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" ht="21">
       <c r="A257" s="5" t="s">
         <v>230</v>
       </c>
@@ -4686,8 +5292,11 @@
       <c r="C257" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="258" spans="1:3" ht="21">
+      <c r="D257">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" ht="21">
       <c r="A258" s="5" t="s">
         <v>230</v>
       </c>
@@ -4697,8 +5306,11 @@
       <c r="C258" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="259" spans="1:3" ht="21">
+      <c r="D258">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" ht="21">
       <c r="A259" s="5" t="s">
         <v>230</v>
       </c>
@@ -4708,8 +5320,11 @@
       <c r="C259" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="260" spans="1:3" ht="21">
+      <c r="D259">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" ht="21">
       <c r="A260" s="5" t="s">
         <v>230</v>
       </c>
@@ -4719,8 +5334,11 @@
       <c r="C260" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="261" spans="1:3" ht="21">
+      <c r="D260">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" ht="21">
       <c r="A261" s="5" t="s">
         <v>230</v>
       </c>
@@ -4730,8 +5348,11 @@
       <c r="C261" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="262" spans="1:3" ht="21">
+      <c r="D261">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" ht="21">
       <c r="A262" s="5" t="s">
         <v>230</v>
       </c>
@@ -4741,8 +5362,11 @@
       <c r="C262" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="263" spans="1:3" ht="21">
+      <c r="D262">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" ht="21">
       <c r="A263" s="5" t="s">
         <v>230</v>
       </c>
@@ -4752,8 +5376,11 @@
       <c r="C263" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="264" spans="1:3" ht="21">
+      <c r="D263">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" ht="21">
       <c r="A264" s="5" t="s">
         <v>230</v>
       </c>
@@ -4763,8 +5390,11 @@
       <c r="C264" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="265" spans="1:3" ht="21">
+      <c r="D264">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" ht="21">
       <c r="A265" s="5" t="s">
         <v>230</v>
       </c>
@@ -4774,8 +5404,11 @@
       <c r="C265" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="266" spans="1:3" ht="21">
+      <c r="D265">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" ht="21">
       <c r="A266" s="5" t="s">
         <v>230</v>
       </c>
@@ -4785,8 +5418,11 @@
       <c r="C266" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="267" spans="1:3" ht="21">
+      <c r="D266">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" ht="21">
       <c r="A267" s="5" t="s">
         <v>230</v>
       </c>
@@ -4796,8 +5432,11 @@
       <c r="C267" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="268" spans="1:3" ht="21">
+      <c r="D267">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" ht="21">
       <c r="A268" s="5" t="s">
         <v>230</v>
       </c>
@@ -4807,8 +5446,11 @@
       <c r="C268" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="269" spans="1:3" ht="21">
+      <c r="D268">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" ht="21">
       <c r="A269" s="5" t="s">
         <v>230</v>
       </c>
@@ -4818,8 +5460,11 @@
       <c r="C269" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="270" spans="1:3" ht="21">
+      <c r="D269">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" ht="21">
       <c r="A270" s="5" t="s">
         <v>230</v>
       </c>
@@ -4829,8 +5474,11 @@
       <c r="C270" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="271" spans="1:3" ht="21">
+      <c r="D270">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" ht="21">
       <c r="A271" s="5" t="s">
         <v>230</v>
       </c>
@@ -4840,8 +5488,11 @@
       <c r="C271" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="272" spans="1:3" ht="21">
+      <c r="D271">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" ht="21">
       <c r="A272" s="5" t="s">
         <v>230</v>
       </c>
@@ -4851,16 +5502,19 @@
       <c r="C272" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="273" spans="1:3" ht="21">
+      <c r="D272">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" ht="21">
       <c r="B273" s="7"/>
       <c r="C273" s="4"/>
     </row>
-    <row r="274" spans="1:3" ht="21">
+    <row r="274" spans="1:4" ht="21">
       <c r="B274" s="7"/>
       <c r="C274" s="4"/>
     </row>
-    <row r="275" spans="1:3" ht="21">
+    <row r="275" spans="1:4" ht="21">
       <c r="A275" s="5" t="s">
         <v>265</v>
       </c>
@@ -4870,8 +5524,11 @@
       <c r="C275" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="276" spans="1:3" ht="21">
+      <c r="D275">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" ht="21">
       <c r="A276" s="5" t="s">
         <v>265</v>
       </c>
@@ -4881,8 +5538,11 @@
       <c r="C276" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="277" spans="1:3" ht="21">
+      <c r="D276">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" ht="21">
       <c r="A277" s="5" t="s">
         <v>265</v>
       </c>
@@ -4892,8 +5552,11 @@
       <c r="C277" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="278" spans="1:3" ht="21">
+      <c r="D277">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" ht="21">
       <c r="A278" s="5" t="s">
         <v>265</v>
       </c>
@@ -4903,8 +5566,11 @@
       <c r="C278" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="279" spans="1:3" ht="21">
+      <c r="D278">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" ht="21">
       <c r="A279" s="5" t="s">
         <v>265</v>
       </c>
@@ -4914,8 +5580,11 @@
       <c r="C279" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="280" spans="1:3" ht="21">
+      <c r="D279">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" ht="21">
       <c r="A280" s="5" t="s">
         <v>265</v>
       </c>
@@ -4925,8 +5594,11 @@
       <c r="C280" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="281" spans="1:3" ht="21">
+      <c r="D280">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" ht="21">
       <c r="A281" s="5" t="s">
         <v>265</v>
       </c>
@@ -4936,8 +5608,11 @@
       <c r="C281" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="282" spans="1:3" ht="21">
+      <c r="D281">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" ht="21">
       <c r="A282" s="5" t="s">
         <v>265</v>
       </c>
@@ -4947,8 +5622,11 @@
       <c r="C282" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="283" spans="1:3" ht="21">
+      <c r="D282">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" ht="21">
       <c r="A283" s="5" t="s">
         <v>265</v>
       </c>
@@ -4958,8 +5636,11 @@
       <c r="C283" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="284" spans="1:3" ht="21">
+      <c r="D283">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" ht="21">
       <c r="A284" s="5" t="s">
         <v>265</v>
       </c>
@@ -4969,8 +5650,11 @@
       <c r="C284" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="285" spans="1:3" ht="21">
+      <c r="D284">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" ht="21">
       <c r="A285" s="5" t="s">
         <v>265</v>
       </c>
@@ -4980,8 +5664,11 @@
       <c r="C285" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="286" spans="1:3" ht="21">
+      <c r="D285">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" ht="21">
       <c r="A286" s="5" t="s">
         <v>265</v>
       </c>
@@ -4991,8 +5678,11 @@
       <c r="C286" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="287" spans="1:3" ht="21">
+      <c r="D286">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" ht="21">
       <c r="A287" s="5" t="s">
         <v>265</v>
       </c>
@@ -5002,8 +5692,11 @@
       <c r="C287" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="288" spans="1:3" ht="21">
+      <c r="D287">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" ht="21">
       <c r="A288" s="5" t="s">
         <v>265</v>
       </c>
@@ -5013,8 +5706,11 @@
       <c r="C288" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="289" spans="1:3" ht="21">
+      <c r="D288">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" ht="21">
       <c r="A289" s="5" t="s">
         <v>265</v>
       </c>
@@ -5024,8 +5720,11 @@
       <c r="C289" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="290" spans="1:3" ht="21">
+      <c r="D289">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" ht="21">
       <c r="A290" s="5" t="s">
         <v>265</v>
       </c>
@@ -5035,8 +5734,11 @@
       <c r="C290" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="291" spans="1:3" ht="21">
+      <c r="D290">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" ht="21">
       <c r="A291" s="5" t="s">
         <v>265</v>
       </c>
@@ -5046,8 +5748,11 @@
       <c r="C291" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="292" spans="1:3" ht="21">
+      <c r="D291">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" ht="21">
       <c r="A292" s="5" t="s">
         <v>265</v>
       </c>
@@ -5057,8 +5762,11 @@
       <c r="C292" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="293" spans="1:3" ht="21">
+      <c r="D292">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" ht="21">
       <c r="A293" s="5" t="s">
         <v>265</v>
       </c>
@@ -5068,16 +5776,19 @@
       <c r="C293" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="294" spans="1:3" ht="21">
+      <c r="D293">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" ht="21">
       <c r="B294" s="7"/>
       <c r="C294" s="4"/>
     </row>
-    <row r="295" spans="1:3" ht="21">
+    <row r="295" spans="1:4" ht="21">
       <c r="B295" s="7"/>
       <c r="C295" s="4"/>
     </row>
-    <row r="296" spans="1:3" ht="21">
+    <row r="296" spans="1:4" ht="21">
       <c r="A296" s="5" t="s">
         <v>285</v>
       </c>
@@ -5087,8 +5798,11 @@
       <c r="C296" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="297" spans="1:3" ht="21">
+      <c r="D296">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" ht="21">
       <c r="A297" s="5" t="s">
         <v>285</v>
       </c>
@@ -5098,8 +5812,11 @@
       <c r="C297" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="298" spans="1:3" ht="21">
+      <c r="D297">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" ht="21">
       <c r="A298" s="5" t="s">
         <v>285</v>
       </c>
@@ -5109,8 +5826,11 @@
       <c r="C298" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="299" spans="1:3" ht="21">
+      <c r="D298">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" ht="21">
       <c r="A299" s="5" t="s">
         <v>285</v>
       </c>
@@ -5120,8 +5840,11 @@
       <c r="C299" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="300" spans="1:3" ht="21">
+      <c r="D299">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" ht="21">
       <c r="A300" s="5" t="s">
         <v>285</v>
       </c>
@@ -5131,8 +5854,11 @@
       <c r="C300" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="301" spans="1:3" ht="21">
+      <c r="D300">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" ht="21">
       <c r="A301" s="5" t="s">
         <v>285</v>
       </c>
@@ -5142,8 +5868,11 @@
       <c r="C301" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="302" spans="1:3" ht="21">
+      <c r="D301">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" ht="21">
       <c r="A302" s="5" t="s">
         <v>285</v>
       </c>
@@ -5153,8 +5882,11 @@
       <c r="C302" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="303" spans="1:3" ht="21">
+      <c r="D302">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" ht="21">
       <c r="A303" s="5" t="s">
         <v>285</v>
       </c>
@@ -5164,8 +5896,11 @@
       <c r="C303" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="304" spans="1:3" ht="21">
+      <c r="D303">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" ht="21">
       <c r="A304" s="5" t="s">
         <v>285</v>
       </c>
@@ -5175,8 +5910,11 @@
       <c r="C304" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="305" spans="1:3" ht="21">
+      <c r="D304">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" ht="21">
       <c r="A305" s="5" t="s">
         <v>285</v>
       </c>
@@ -5186,8 +5924,11 @@
       <c r="C305" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="306" spans="1:3" ht="21">
+      <c r="D305">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" ht="21">
       <c r="A306" s="5" t="s">
         <v>285</v>
       </c>
@@ -5197,8 +5938,11 @@
       <c r="C306" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="307" spans="1:3" ht="21">
+      <c r="D306">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" ht="21">
       <c r="A307" s="5" t="s">
         <v>285</v>
       </c>
@@ -5208,8 +5952,11 @@
       <c r="C307" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="308" spans="1:3" ht="21">
+      <c r="D307">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" ht="21">
       <c r="A308" s="5" t="s">
         <v>285</v>
       </c>
@@ -5219,8 +5966,11 @@
       <c r="C308" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="309" spans="1:3" ht="21">
+      <c r="D308">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" ht="21">
       <c r="A309" s="5" t="s">
         <v>285</v>
       </c>
@@ -5230,8 +5980,11 @@
       <c r="C309" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="310" spans="1:3" ht="21">
+      <c r="D309">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" ht="21">
       <c r="A310" s="5" t="s">
         <v>285</v>
       </c>
@@ -5241,8 +5994,11 @@
       <c r="C310" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="311" spans="1:3" ht="21">
+      <c r="D310">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" ht="21">
       <c r="A311" s="5" t="s">
         <v>285</v>
       </c>
@@ -5252,8 +6008,11 @@
       <c r="C311" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="312" spans="1:3" ht="21">
+      <c r="D311">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" ht="21">
       <c r="A312" s="5" t="s">
         <v>285</v>
       </c>
@@ -5263,8 +6022,11 @@
       <c r="C312" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="313" spans="1:3" ht="21">
+      <c r="D312">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" ht="21">
       <c r="A313" s="5" t="s">
         <v>285</v>
       </c>
@@ -5274,8 +6036,11 @@
       <c r="C313" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="314" spans="1:3" ht="21">
+      <c r="D313">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" ht="21">
       <c r="A314" s="5" t="s">
         <v>285</v>
       </c>
@@ -5285,8 +6050,11 @@
       <c r="C314" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="315" spans="1:3" ht="21">
+      <c r="D314">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" ht="21">
       <c r="A315" s="5" t="s">
         <v>285</v>
       </c>
@@ -5296,8 +6064,11 @@
       <c r="C315" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="316" spans="1:3" ht="21">
+      <c r="D315">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" ht="21">
       <c r="A316" s="5" t="s">
         <v>285</v>
       </c>
@@ -5307,8 +6078,11 @@
       <c r="C316" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="317" spans="1:3" ht="21">
+      <c r="D316">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" ht="21">
       <c r="A317" s="5" t="s">
         <v>285</v>
       </c>
@@ -5318,8 +6092,11 @@
       <c r="C317" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="318" spans="1:3" ht="21">
+      <c r="D317">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" ht="21">
       <c r="A318" s="5" t="s">
         <v>285</v>
       </c>
@@ -5329,8 +6106,11 @@
       <c r="C318" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="319" spans="1:3" ht="21">
+      <c r="D318">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" ht="21">
       <c r="A319" s="5" t="s">
         <v>285</v>
       </c>
@@ -5340,8 +6120,11 @@
       <c r="C319" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="320" spans="1:3" ht="21">
+      <c r="D319">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" ht="21">
       <c r="A320" s="5" t="s">
         <v>285</v>
       </c>
@@ -5351,8 +6134,11 @@
       <c r="C320" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="321" spans="1:3" ht="21">
+      <c r="D320">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" ht="21">
       <c r="A321" s="5" t="s">
         <v>285</v>
       </c>
@@ -5362,8 +6148,11 @@
       <c r="C321" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="322" spans="1:3" ht="21">
+      <c r="D321">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" ht="21">
       <c r="A322" s="5" t="s">
         <v>285</v>
       </c>
@@ -5373,8 +6162,11 @@
       <c r="C322" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="323" spans="1:3" ht="21">
+      <c r="D322">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" ht="21">
       <c r="A323" s="5" t="s">
         <v>285</v>
       </c>
@@ -5384,8 +6176,11 @@
       <c r="C323" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="324" spans="1:3" ht="21">
+      <c r="D323">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" ht="21">
       <c r="A324" s="5" t="s">
         <v>285</v>
       </c>
@@ -5395,8 +6190,11 @@
       <c r="C324" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="325" spans="1:3" ht="21">
+      <c r="D324">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" ht="21">
       <c r="A325" s="5" t="s">
         <v>285</v>
       </c>
@@ -5406,8 +6204,11 @@
       <c r="C325" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="326" spans="1:3" ht="21">
+      <c r="D325">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" ht="21">
       <c r="A326" s="5" t="s">
         <v>285</v>
       </c>
@@ -5417,8 +6218,11 @@
       <c r="C326" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="327" spans="1:3" ht="21">
+      <c r="D326">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" ht="21">
       <c r="A327" s="5" t="s">
         <v>285</v>
       </c>
@@ -5428,8 +6232,11 @@
       <c r="C327" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="328" spans="1:3" ht="21">
+      <c r="D327">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" ht="21">
       <c r="A328" s="5" t="s">
         <v>285</v>
       </c>
@@ -5439,8 +6246,11 @@
       <c r="C328" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="329" spans="1:3" ht="21">
+      <c r="D328">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" ht="21">
       <c r="A329" s="5" t="s">
         <v>285</v>
       </c>
@@ -5450,8 +6260,11 @@
       <c r="C329" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="330" spans="1:3" ht="21">
+      <c r="D329">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" ht="21">
       <c r="A330" s="5" t="s">
         <v>285</v>
       </c>
@@ -5461,8 +6274,11 @@
       <c r="C330" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="331" spans="1:3" ht="21">
+      <c r="D330">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" ht="21">
       <c r="A331" s="5" t="s">
         <v>285</v>
       </c>
@@ -5472,8 +6288,11 @@
       <c r="C331" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="332" spans="1:3" ht="21">
+      <c r="D331">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" ht="21">
       <c r="A332" s="5" t="s">
         <v>285</v>
       </c>
@@ -5483,8 +6302,11 @@
       <c r="C332" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="333" spans="1:3" ht="21">
+      <c r="D332">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" ht="21">
       <c r="A333" s="5" t="s">
         <v>285</v>
       </c>
@@ -5494,16 +6316,19 @@
       <c r="C333" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="334" spans="1:3" ht="21">
+      <c r="D333">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" ht="21">
       <c r="B334" s="7"/>
       <c r="C334" s="4"/>
     </row>
-    <row r="335" spans="1:3" ht="21">
+    <row r="335" spans="1:4" ht="21">
       <c r="B335" s="7"/>
       <c r="C335" s="4"/>
     </row>
-    <row r="336" spans="1:3" ht="21">
+    <row r="336" spans="1:4" ht="21">
       <c r="A336" s="8" t="s">
         <v>324</v>
       </c>
@@ -5513,8 +6338,11 @@
       <c r="C336" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="337" spans="1:3" ht="21">
+      <c r="D336">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" ht="21">
       <c r="A337" s="8" t="s">
         <v>324</v>
       </c>
@@ -5524,8 +6352,11 @@
       <c r="C337" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="338" spans="1:3" ht="21">
+      <c r="D337">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" ht="21">
       <c r="A338" s="8" t="s">
         <v>324</v>
       </c>
@@ -5535,8 +6366,11 @@
       <c r="C338" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="339" spans="1:3" ht="21">
+      <c r="D338">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" ht="21">
       <c r="A339" s="8" t="s">
         <v>324</v>
       </c>
@@ -5546,8 +6380,11 @@
       <c r="C339" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="340" spans="1:3" ht="21">
+      <c r="D339">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" ht="21">
       <c r="A340" s="8" t="s">
         <v>324</v>
       </c>
@@ -5557,8 +6394,11 @@
       <c r="C340" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="341" spans="1:3" ht="21">
+      <c r="D340">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" ht="21">
       <c r="A341" s="8" t="s">
         <v>324</v>
       </c>
@@ -5568,8 +6408,11 @@
       <c r="C341" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="342" spans="1:3" ht="21">
+      <c r="D341">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" ht="21">
       <c r="A342" s="8" t="s">
         <v>324</v>
       </c>
@@ -5579,8 +6422,11 @@
       <c r="C342" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="343" spans="1:3" ht="21">
+      <c r="D342">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" ht="21">
       <c r="A343" s="8" t="s">
         <v>324</v>
       </c>
@@ -5590,8 +6436,11 @@
       <c r="C343" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="344" spans="1:3" ht="21">
+      <c r="D343">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" ht="21">
       <c r="A344" s="8" t="s">
         <v>324</v>
       </c>
@@ -5601,8 +6450,11 @@
       <c r="C344" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="345" spans="1:3" ht="21">
+      <c r="D344">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" ht="21">
       <c r="A345" s="8" t="s">
         <v>324</v>
       </c>
@@ -5612,8 +6464,11 @@
       <c r="C345" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="346" spans="1:3" ht="21">
+      <c r="D345">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" ht="21">
       <c r="A346" s="8" t="s">
         <v>324</v>
       </c>
@@ -5623,8 +6478,11 @@
       <c r="C346" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="347" spans="1:3" ht="21">
+      <c r="D346">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" ht="21">
       <c r="A347" s="8" t="s">
         <v>324</v>
       </c>
@@ -5634,8 +6492,11 @@
       <c r="C347" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="348" spans="1:3" ht="21">
+      <c r="D347">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" ht="21">
       <c r="A348" s="8" t="s">
         <v>324</v>
       </c>
@@ -5645,8 +6506,11 @@
       <c r="C348" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="349" spans="1:3" ht="21">
+      <c r="D348">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" ht="21">
       <c r="A349" s="8" t="s">
         <v>324</v>
       </c>
@@ -5656,8 +6520,11 @@
       <c r="C349" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="350" spans="1:3" ht="21">
+      <c r="D349">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" ht="21">
       <c r="A350" s="8" t="s">
         <v>324</v>
       </c>
@@ -5667,8 +6534,11 @@
       <c r="C350" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="351" spans="1:3" ht="21">
+      <c r="D350">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" ht="21">
       <c r="A351" s="8" t="s">
         <v>324</v>
       </c>
@@ -5678,8 +6548,11 @@
       <c r="C351" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="352" spans="1:3" ht="21">
+      <c r="D351">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" ht="21">
       <c r="A352" s="8" t="s">
         <v>324</v>
       </c>
@@ -5689,8 +6562,11 @@
       <c r="C352" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="353" spans="1:3" ht="21">
+      <c r="D352">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" ht="21">
       <c r="A353" s="8" t="s">
         <v>324</v>
       </c>
@@ -5700,16 +6576,19 @@
       <c r="C353" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="354" spans="1:3" ht="21">
+      <c r="D353">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" ht="21">
       <c r="B354" s="7"/>
       <c r="C354" s="4"/>
     </row>
-    <row r="355" spans="1:3" ht="21">
+    <row r="355" spans="1:4" ht="21">
       <c r="B355" s="7"/>
       <c r="C355" s="4"/>
     </row>
-    <row r="356" spans="1:3" ht="21">
+    <row r="356" spans="1:4" ht="21">
       <c r="A356" s="8" t="s">
         <v>343</v>
       </c>
@@ -5719,8 +6598,11 @@
       <c r="C356" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="357" spans="1:3" ht="21">
+      <c r="D356">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" ht="21">
       <c r="A357" s="8" t="s">
         <v>343</v>
       </c>
@@ -5730,8 +6612,11 @@
       <c r="C357" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="358" spans="1:3" ht="21">
+      <c r="D357">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" ht="21">
       <c r="A358" s="8" t="s">
         <v>343</v>
       </c>
@@ -5741,8 +6626,11 @@
       <c r="C358" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="359" spans="1:3" ht="21">
+      <c r="D358">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" ht="21">
       <c r="A359" s="8" t="s">
         <v>343</v>
       </c>
@@ -5752,8 +6640,11 @@
       <c r="C359" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="360" spans="1:3" ht="21">
+      <c r="D359">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" ht="21">
       <c r="A360" s="8" t="s">
         <v>343</v>
       </c>
@@ -5763,8 +6654,11 @@
       <c r="C360" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="361" spans="1:3" ht="21">
+      <c r="D360">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" ht="21">
       <c r="A361" s="8" t="s">
         <v>343</v>
       </c>
@@ -5774,8 +6668,11 @@
       <c r="C361" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="362" spans="1:3" ht="21">
+      <c r="D361">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" ht="21">
       <c r="A362" s="8" t="s">
         <v>343</v>
       </c>
@@ -5785,8 +6682,11 @@
       <c r="C362" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="363" spans="1:3" ht="21">
+      <c r="D362">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" ht="21">
       <c r="A363" s="8" t="s">
         <v>343</v>
       </c>
@@ -5796,8 +6696,11 @@
       <c r="C363" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="364" spans="1:3" ht="21">
+      <c r="D363">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" ht="21">
       <c r="A364" s="8" t="s">
         <v>343</v>
       </c>
@@ -5807,8 +6710,11 @@
       <c r="C364" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="365" spans="1:3" ht="21">
+      <c r="D364">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" ht="21">
       <c r="A365" s="8" t="s">
         <v>343</v>
       </c>
@@ -5818,8 +6724,11 @@
       <c r="C365" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="366" spans="1:3" ht="21">
+      <c r="D365">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" ht="21">
       <c r="A366" s="8" t="s">
         <v>343</v>
       </c>
@@ -5829,8 +6738,11 @@
       <c r="C366" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="367" spans="1:3" ht="21">
+      <c r="D366">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" ht="21">
       <c r="A367" s="8" t="s">
         <v>343</v>
       </c>
@@ -5840,8 +6752,11 @@
       <c r="C367" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="368" spans="1:3" ht="21">
+      <c r="D367">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" ht="21">
       <c r="A368" s="8" t="s">
         <v>343</v>
       </c>
@@ -5851,8 +6766,11 @@
       <c r="C368" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="369" spans="1:3" ht="21">
+      <c r="D368">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" ht="21">
       <c r="A369" s="8" t="s">
         <v>343</v>
       </c>
@@ -5862,8 +6780,11 @@
       <c r="C369" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="370" spans="1:3" ht="21">
+      <c r="D369">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" ht="21">
       <c r="A370" s="8" t="s">
         <v>343</v>
       </c>
@@ -5873,8 +6794,11 @@
       <c r="C370" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="371" spans="1:3" ht="21">
+      <c r="D370">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" ht="21">
       <c r="A371" s="8" t="s">
         <v>343</v>
       </c>
@@ -5884,8 +6808,11 @@
       <c r="C371" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="372" spans="1:3" ht="21">
+      <c r="D371">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" ht="21">
       <c r="A372" s="8" t="s">
         <v>343</v>
       </c>
@@ -5895,8 +6822,11 @@
       <c r="C372" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="373" spans="1:3" ht="21">
+      <c r="D372">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" ht="21">
       <c r="A373" s="8" t="s">
         <v>343</v>
       </c>
@@ -5906,8 +6836,11 @@
       <c r="C373" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="374" spans="1:3" ht="21">
+      <c r="D373">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" ht="21">
       <c r="A374" s="8" t="s">
         <v>343</v>
       </c>
@@ -5917,8 +6850,11 @@
       <c r="C374" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="375" spans="1:3" ht="21">
+      <c r="D374">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" ht="21">
       <c r="A375" s="8" t="s">
         <v>343</v>
       </c>
@@ -5928,8 +6864,11 @@
       <c r="C375" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="376" spans="1:3" ht="21">
+      <c r="D375">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" ht="21">
       <c r="A376" s="8" t="s">
         <v>343</v>
       </c>
@@ -5939,8 +6878,11 @@
       <c r="C376" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="377" spans="1:3" ht="21">
+      <c r="D376">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" ht="21">
       <c r="A377" s="8" t="s">
         <v>343</v>
       </c>
@@ -5950,8 +6892,11 @@
       <c r="C377" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="378" spans="1:3" ht="21">
+      <c r="D377">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" ht="21">
       <c r="A378" s="8" t="s">
         <v>343</v>
       </c>
@@ -5961,8 +6906,11 @@
       <c r="C378" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="379" spans="1:3" ht="21">
+      <c r="D378">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" ht="21">
       <c r="A379" s="8" t="s">
         <v>343</v>
       </c>
@@ -5972,8 +6920,11 @@
       <c r="C379" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="380" spans="1:3" ht="21">
+      <c r="D379">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" ht="21">
       <c r="A380" s="8" t="s">
         <v>343</v>
       </c>
@@ -5983,8 +6934,11 @@
       <c r="C380" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="381" spans="1:3" ht="21">
+      <c r="D380">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" ht="21">
       <c r="A381" s="8" t="s">
         <v>343</v>
       </c>
@@ -5994,8 +6948,11 @@
       <c r="C381" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="382" spans="1:3" ht="21">
+      <c r="D381">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" ht="21">
       <c r="A382" s="8" t="s">
         <v>343</v>
       </c>
@@ -6005,8 +6962,11 @@
       <c r="C382" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="383" spans="1:3" ht="21">
+      <c r="D382">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" ht="21">
       <c r="A383" s="8" t="s">
         <v>343</v>
       </c>
@@ -6016,8 +6976,11 @@
       <c r="C383" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="384" spans="1:3" ht="21">
+      <c r="D383">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" ht="21">
       <c r="A384" s="8" t="s">
         <v>343</v>
       </c>
@@ -6027,8 +6990,11 @@
       <c r="C384" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="385" spans="1:3" ht="21">
+      <c r="D384">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" ht="21">
       <c r="A385" s="8" t="s">
         <v>343</v>
       </c>
@@ -6038,8 +7004,11 @@
       <c r="C385" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="386" spans="1:3" ht="21">
+      <c r="D385">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" ht="21">
       <c r="A386" s="8" t="s">
         <v>343</v>
       </c>
@@ -6049,8 +7018,11 @@
       <c r="C386" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="387" spans="1:3" ht="21">
+      <c r="D386">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" ht="21">
       <c r="A387" s="8" t="s">
         <v>343</v>
       </c>
@@ -6060,8 +7032,11 @@
       <c r="C387" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="388" spans="1:3" ht="21">
+      <c r="D387">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" ht="21">
       <c r="A388" s="8" t="s">
         <v>343</v>
       </c>
@@ -6071,8 +7046,11 @@
       <c r="C388" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="389" spans="1:3" ht="21">
+      <c r="D388">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" ht="21">
       <c r="A389" s="8" t="s">
         <v>343</v>
       </c>
@@ -6082,8 +7060,11 @@
       <c r="C389" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="390" spans="1:3" ht="21">
+      <c r="D389">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" ht="21">
       <c r="A390" s="8" t="s">
         <v>343</v>
       </c>
@@ -6093,8 +7074,11 @@
       <c r="C390" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="391" spans="1:3" ht="21">
+      <c r="D390">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" ht="21">
       <c r="A391" s="8" t="s">
         <v>343</v>
       </c>
@@ -6104,8 +7088,11 @@
       <c r="C391" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="392" spans="1:3" ht="21">
+      <c r="D391">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" ht="21">
       <c r="A392" s="8" t="s">
         <v>343</v>
       </c>
@@ -6115,8 +7102,11 @@
       <c r="C392" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="393" spans="1:3" ht="21">
+      <c r="D392">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" ht="21">
       <c r="A393" s="8" t="s">
         <v>343</v>
       </c>
@@ -6126,8 +7116,11 @@
       <c r="C393" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="394" spans="1:3" ht="21">
+      <c r="D393">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" ht="21">
       <c r="A394" s="8" t="s">
         <v>343</v>
       </c>
@@ -6137,8 +7130,11 @@
       <c r="C394" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="395" spans="1:3" ht="21">
+      <c r="D394">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" ht="21">
       <c r="A395" s="8" t="s">
         <v>343</v>
       </c>
@@ -6148,8 +7144,11 @@
       <c r="C395" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="396" spans="1:3" ht="21">
+      <c r="D395">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" ht="21">
       <c r="A396" s="8" t="s">
         <v>343</v>
       </c>
@@ -6159,8 +7158,11 @@
       <c r="C396" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="397" spans="1:3" ht="21">
+      <c r="D396">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" ht="21">
       <c r="A397" s="8" t="s">
         <v>343</v>
       </c>
@@ -6170,8 +7172,11 @@
       <c r="C397" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="398" spans="1:3" ht="21">
+      <c r="D397">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" ht="21">
       <c r="A398" s="8" t="s">
         <v>343</v>
       </c>
@@ -6181,8 +7186,11 @@
       <c r="C398" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="399" spans="1:3" ht="21">
+      <c r="D398">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" ht="21">
       <c r="A399" s="8" t="s">
         <v>343</v>
       </c>
@@ -6192,16 +7200,19 @@
       <c r="C399" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="400" spans="1:3" ht="21">
+      <c r="D399">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" ht="21">
       <c r="B400" s="7"/>
       <c r="C400" s="4"/>
     </row>
-    <row r="401" spans="1:3" ht="21">
+    <row r="401" spans="1:4" ht="21">
       <c r="B401" s="7"/>
       <c r="C401" s="4"/>
     </row>
-    <row r="402" spans="1:3" ht="21">
+    <row r="402" spans="1:4" ht="21">
       <c r="A402" s="8" t="s">
         <v>387</v>
       </c>
@@ -6211,8 +7222,11 @@
       <c r="C402" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="403" spans="1:3" ht="21">
+      <c r="D402">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" ht="21">
       <c r="A403" s="8" t="s">
         <v>387</v>
       </c>
@@ -6222,8 +7236,11 @@
       <c r="C403" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="404" spans="1:3" ht="21">
+      <c r="D403">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" ht="21">
       <c r="A404" s="8" t="s">
         <v>387</v>
       </c>
@@ -6233,8 +7250,11 @@
       <c r="C404" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="405" spans="1:3" ht="21">
+      <c r="D404">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" ht="21">
       <c r="A405" s="8" t="s">
         <v>387</v>
       </c>
@@ -6244,8 +7264,11 @@
       <c r="C405" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="406" spans="1:3" ht="21">
+      <c r="D405">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" ht="21">
       <c r="A406" s="8" t="s">
         <v>387</v>
       </c>
@@ -6255,8 +7278,11 @@
       <c r="C406" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="407" spans="1:3" ht="21">
+      <c r="D406">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" ht="21">
       <c r="A407" s="8" t="s">
         <v>387</v>
       </c>
@@ -6266,16 +7292,19 @@
       <c r="C407" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="408" spans="1:3" ht="21">
+      <c r="D407">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" ht="21">
       <c r="B408" s="7"/>
       <c r="C408" s="4"/>
     </row>
-    <row r="409" spans="1:3" ht="21">
+    <row r="409" spans="1:4" ht="21">
       <c r="B409" s="7"/>
       <c r="C409" s="4"/>
     </row>
-    <row r="410" spans="1:3" ht="21">
+    <row r="410" spans="1:4" ht="21">
       <c r="A410" s="5" t="s">
         <v>393</v>
       </c>
@@ -6285,8 +7314,11 @@
       <c r="C410" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="411" spans="1:3" ht="21">
+      <c r="D410">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" ht="21">
       <c r="A411" s="5" t="s">
         <v>393</v>
       </c>
@@ -6296,8 +7328,11 @@
       <c r="C411" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="412" spans="1:3" ht="21">
+      <c r="D411">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" ht="21">
       <c r="A412" s="5" t="s">
         <v>393</v>
       </c>
@@ -6307,8 +7342,11 @@
       <c r="C412" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="413" spans="1:3" ht="21">
+      <c r="D412">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" ht="21">
       <c r="A413" s="5" t="s">
         <v>393</v>
       </c>
@@ -6318,8 +7356,11 @@
       <c r="C413" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="414" spans="1:3" ht="21">
+      <c r="D413">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" ht="21">
       <c r="A414" s="5" t="s">
         <v>393</v>
       </c>
@@ -6329,8 +7370,11 @@
       <c r="C414" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="415" spans="1:3" ht="21">
+      <c r="D414">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" ht="21">
       <c r="A415" s="5" t="s">
         <v>393</v>
       </c>
@@ -6340,8 +7384,11 @@
       <c r="C415" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="416" spans="1:3" ht="21">
+      <c r="D415">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" ht="21">
       <c r="A416" s="5" t="s">
         <v>393</v>
       </c>
@@ -6351,8 +7398,11 @@
       <c r="C416" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="417" spans="1:3" ht="21">
+      <c r="D416">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" ht="21">
       <c r="A417" s="5" t="s">
         <v>393</v>
       </c>
@@ -6362,8 +7412,11 @@
       <c r="C417" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="418" spans="1:3" ht="21">
+      <c r="D417">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" ht="21">
       <c r="A418" s="5" t="s">
         <v>393</v>
       </c>
@@ -6373,8 +7426,11 @@
       <c r="C418" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="419" spans="1:3" ht="21">
+      <c r="D418">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" ht="21">
       <c r="A419" s="5" t="s">
         <v>393</v>
       </c>
@@ -6384,8 +7440,11 @@
       <c r="C419" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="420" spans="1:3" ht="21">
+      <c r="D419">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" ht="21">
       <c r="A420" s="5" t="s">
         <v>393</v>
       </c>
@@ -6395,8 +7454,11 @@
       <c r="C420" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="421" spans="1:3" ht="21">
+      <c r="D420">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" ht="21">
       <c r="A421" s="5" t="s">
         <v>393</v>
       </c>
@@ -6406,8 +7468,11 @@
       <c r="C421" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="422" spans="1:3" ht="21">
+      <c r="D421">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" ht="21">
       <c r="A422" s="5" t="s">
         <v>393</v>
       </c>
@@ -6417,8 +7482,11 @@
       <c r="C422" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="423" spans="1:3" ht="21">
+      <c r="D422">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" ht="21">
       <c r="A423" s="5" t="s">
         <v>393</v>
       </c>
@@ -6428,8 +7496,11 @@
       <c r="C423" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="424" spans="1:3" ht="21">
+      <c r="D423">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" ht="21">
       <c r="A424" s="5" t="s">
         <v>393</v>
       </c>
@@ -6439,8 +7510,11 @@
       <c r="C424" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="425" spans="1:3" ht="21">
+      <c r="D424">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" ht="21">
       <c r="A425" s="5" t="s">
         <v>393</v>
       </c>
@@ -6450,8 +7524,11 @@
       <c r="C425" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="426" spans="1:3" ht="21">
+      <c r="D425">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" ht="21">
       <c r="A426" s="5" t="s">
         <v>393</v>
       </c>
@@ -6461,8 +7538,11 @@
       <c r="C426" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="427" spans="1:3" ht="21">
+      <c r="D426">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" ht="21">
       <c r="A427" s="5" t="s">
         <v>393</v>
       </c>
@@ -6472,8 +7552,11 @@
       <c r="C427" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="428" spans="1:3" ht="21">
+      <c r="D427">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" ht="21">
       <c r="A428" s="5" t="s">
         <v>393</v>
       </c>
@@ -6483,8 +7566,11 @@
       <c r="C428" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="429" spans="1:3" ht="21">
+      <c r="D428">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" ht="21">
       <c r="A429" s="5" t="s">
         <v>393</v>
       </c>
@@ -6494,8 +7580,11 @@
       <c r="C429" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="430" spans="1:3" ht="21">
+      <c r="D429">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" ht="21">
       <c r="A430" s="5" t="s">
         <v>393</v>
       </c>
@@ -6505,8 +7594,11 @@
       <c r="C430" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="431" spans="1:3" ht="21">
+      <c r="D430">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" ht="21">
       <c r="A431" s="5" t="s">
         <v>393</v>
       </c>
@@ -6516,8 +7608,11 @@
       <c r="C431" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="432" spans="1:3" ht="21">
+      <c r="D431">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" ht="21">
       <c r="A432" s="5" t="s">
         <v>393</v>
       </c>
@@ -6527,8 +7622,11 @@
       <c r="C432" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="433" spans="1:3" ht="21">
+      <c r="D432">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" ht="21">
       <c r="A433" s="5" t="s">
         <v>393</v>
       </c>
@@ -6538,8 +7636,11 @@
       <c r="C433" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="434" spans="1:3" ht="21">
+      <c r="D433">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" ht="21">
       <c r="A434" s="5" t="s">
         <v>393</v>
       </c>
@@ -6549,8 +7650,11 @@
       <c r="C434" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="435" spans="1:3" ht="21">
+      <c r="D434">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" ht="21">
       <c r="A435" s="5" t="s">
         <v>393</v>
       </c>
@@ -6560,8 +7664,11 @@
       <c r="C435" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="436" spans="1:3" ht="21">
+      <c r="D435">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" ht="21">
       <c r="A436" s="5" t="s">
         <v>393</v>
       </c>
@@ -6571,8 +7678,11 @@
       <c r="C436" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="437" spans="1:3" ht="21">
+      <c r="D436">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" ht="21">
       <c r="A437" s="5" t="s">
         <v>393</v>
       </c>
@@ -6582,8 +7692,11 @@
       <c r="C437" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="438" spans="1:3" ht="21">
+      <c r="D437">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" ht="21">
       <c r="A438" s="5" t="s">
         <v>393</v>
       </c>
@@ -6593,8 +7706,11 @@
       <c r="C438" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="439" spans="1:3" ht="21">
+      <c r="D438">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" ht="21">
       <c r="A439" s="5" t="s">
         <v>393</v>
       </c>
@@ -6604,8 +7720,11 @@
       <c r="C439" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="440" spans="1:3" ht="21">
+      <c r="D439">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" ht="21">
       <c r="A440" s="5" t="s">
         <v>393</v>
       </c>
@@ -6615,8 +7734,11 @@
       <c r="C440" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="441" spans="1:3" ht="21">
+      <c r="D440">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" ht="21">
       <c r="A441" s="5" t="s">
         <v>393</v>
       </c>
@@ -6626,8 +7748,11 @@
       <c r="C441" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="442" spans="1:3" ht="21">
+      <c r="D441">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" ht="21">
       <c r="A442" s="5" t="s">
         <v>393</v>
       </c>
@@ -6637,8 +7762,11 @@
       <c r="C442" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="443" spans="1:3" ht="21">
+      <c r="D442">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" ht="21">
       <c r="A443" s="5" t="s">
         <v>393</v>
       </c>
@@ -6648,8 +7776,11 @@
       <c r="C443" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="444" spans="1:3" ht="21">
+      <c r="D443">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" ht="21">
       <c r="A444" s="5" t="s">
         <v>393</v>
       </c>
@@ -6659,8 +7790,11 @@
       <c r="C444" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="445" spans="1:3" ht="21">
+      <c r="D444">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" ht="21">
       <c r="A445" s="5" t="s">
         <v>393</v>
       </c>
@@ -6670,8 +7804,11 @@
       <c r="C445" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="446" spans="1:3" ht="21">
+      <c r="D445">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" ht="21">
       <c r="A446" s="5" t="s">
         <v>393</v>
       </c>
@@ -6681,8 +7818,11 @@
       <c r="C446" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="447" spans="1:3" ht="21">
+      <c r="D446">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" ht="21">
       <c r="A447" s="5" t="s">
         <v>393</v>
       </c>
@@ -6692,8 +7832,11 @@
       <c r="C447" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="448" spans="1:3" ht="21">
+      <c r="D447">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" ht="21">
       <c r="A448" s="5" t="s">
         <v>393</v>
       </c>
@@ -6703,8 +7846,11 @@
       <c r="C448" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="449" spans="1:3" ht="21">
+      <c r="D448">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" ht="21">
       <c r="A449" s="5" t="s">
         <v>393</v>
       </c>
@@ -6714,8 +7860,11 @@
       <c r="C449" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="450" spans="1:3" ht="21">
+      <c r="D449">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" ht="21">
       <c r="A450" s="5" t="s">
         <v>393</v>
       </c>
@@ -6725,8 +7874,11 @@
       <c r="C450" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="451" spans="1:3" ht="21">
+      <c r="D450">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" ht="21">
       <c r="A451" s="5" t="s">
         <v>393</v>
       </c>
@@ -6736,8 +7888,11 @@
       <c r="C451" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="452" spans="1:3" ht="21">
+      <c r="D451">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" ht="21">
       <c r="A452" s="5" t="s">
         <v>393</v>
       </c>
@@ -6747,8 +7902,11 @@
       <c r="C452" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="453" spans="1:3" ht="21">
+      <c r="D452">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" ht="21">
       <c r="A453" s="5" t="s">
         <v>393</v>
       </c>
@@ -6758,8 +7916,11 @@
       <c r="C453" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="454" spans="1:3" ht="21">
+      <c r="D453">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" ht="21">
       <c r="A454" s="5" t="s">
         <v>393</v>
       </c>
@@ -6769,8 +7930,11 @@
       <c r="C454" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="455" spans="1:3" ht="21">
+      <c r="D454">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" ht="21">
       <c r="A455" s="5" t="s">
         <v>393</v>
       </c>
@@ -6780,8 +7944,11 @@
       <c r="C455" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="456" spans="1:3" ht="21">
+      <c r="D455">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" ht="21">
       <c r="A456" s="5" t="s">
         <v>393</v>
       </c>
@@ -6791,8 +7958,11 @@
       <c r="C456" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="457" spans="1:3" ht="21">
+      <c r="D456">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" ht="21">
       <c r="A457" s="5" t="s">
         <v>393</v>
       </c>
@@ -6802,8 +7972,11 @@
       <c r="C457" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="458" spans="1:3" ht="21">
+      <c r="D457">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" ht="21">
       <c r="A458" s="5" t="s">
         <v>393</v>
       </c>
@@ -6813,8 +7986,11 @@
       <c r="C458" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="459" spans="1:3" ht="21">
+      <c r="D458">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" ht="21">
       <c r="A459" s="5" t="s">
         <v>393</v>
       </c>
@@ -6824,8 +8000,11 @@
       <c r="C459" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="460" spans="1:3" ht="21">
+      <c r="D459">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" ht="21">
       <c r="A460" s="5" t="s">
         <v>393</v>
       </c>
@@ -6835,8 +8014,11 @@
       <c r="C460" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="461" spans="1:3" ht="21">
+      <c r="D460">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" ht="21">
       <c r="A461" s="5" t="s">
         <v>393</v>
       </c>
@@ -6846,8 +8028,11 @@
       <c r="C461" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="462" spans="1:3" ht="21">
+      <c r="D461">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" ht="21">
       <c r="A462" s="5" t="s">
         <v>393</v>
       </c>
@@ -6857,8 +8042,11 @@
       <c r="C462" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="463" spans="1:3" ht="21">
+      <c r="D462">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" ht="21">
       <c r="A463" s="5" t="s">
         <v>393</v>
       </c>
@@ -6868,8 +8056,11 @@
       <c r="C463" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="464" spans="1:3" ht="21">
+      <c r="D463">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" ht="21">
       <c r="A464" s="5" t="s">
         <v>393</v>
       </c>
@@ -6879,8 +8070,11 @@
       <c r="C464" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="465" spans="1:3" ht="21">
+      <c r="D464">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" ht="21">
       <c r="A465" s="5" t="s">
         <v>393</v>
       </c>
@@ -6890,8 +8084,11 @@
       <c r="C465" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="466" spans="1:3" ht="21">
+      <c r="D465">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" ht="21">
       <c r="A466" s="5" t="s">
         <v>393</v>
       </c>
@@ -6901,8 +8098,11 @@
       <c r="C466" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="467" spans="1:3" ht="21">
+      <c r="D466">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" ht="21">
       <c r="A467" s="5" t="s">
         <v>393</v>
       </c>
@@ -6912,8 +8112,11 @@
       <c r="C467" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="468" spans="1:3" ht="21">
+      <c r="D467">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" ht="21">
       <c r="A468" s="5" t="s">
         <v>393</v>
       </c>
@@ -6923,8 +8126,11 @@
       <c r="C468" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="469" spans="1:3" ht="21">
+      <c r="D468">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" ht="21">
       <c r="A469" s="5" t="s">
         <v>393</v>
       </c>
@@ -6934,17 +8140,20 @@
       <c r="C469" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="470" spans="1:3" ht="21">
+      <c r="D469">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" ht="21">
       <c r="B470" s="7"/>
       <c r="C470" s="4"/>
     </row>
-    <row r="471" spans="1:3" ht="21">
+    <row r="471" spans="1:4" ht="21">
       <c r="A471" s="8"/>
       <c r="B471" s="7"/>
       <c r="C471" s="4"/>
     </row>
-    <row r="472" spans="1:3" ht="21">
+    <row r="472" spans="1:4" ht="21">
       <c r="A472" s="5" t="s">
         <v>453</v>
       </c>
@@ -6954,8 +8163,11 @@
       <c r="C472" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="473" spans="1:3" ht="21">
+      <c r="D472">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" ht="21">
       <c r="A473" s="5" t="s">
         <v>453</v>
       </c>
@@ -6965,8 +8177,11 @@
       <c r="C473" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="474" spans="1:3" ht="21">
+      <c r="D473">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" ht="21">
       <c r="A474" s="5" t="s">
         <v>453</v>
       </c>
@@ -6976,8 +8191,11 @@
       <c r="C474" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="475" spans="1:3" ht="21">
+      <c r="D474">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" ht="21">
       <c r="A475" s="5" t="s">
         <v>453</v>
       </c>
@@ -6987,8 +8205,11 @@
       <c r="C475" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="476" spans="1:3" ht="21">
+      <c r="D475">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" ht="21">
       <c r="A476" s="5" t="s">
         <v>453</v>
       </c>
@@ -6998,8 +8219,11 @@
       <c r="C476" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="477" spans="1:3" ht="21">
+      <c r="D476">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" ht="21">
       <c r="A477" s="5" t="s">
         <v>453</v>
       </c>
@@ -7009,8 +8233,11 @@
       <c r="C477" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="478" spans="1:3" ht="21">
+      <c r="D477">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" ht="21">
       <c r="A478" s="5" t="s">
         <v>453</v>
       </c>
@@ -7020,8 +8247,11 @@
       <c r="C478" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="479" spans="1:3" ht="21">
+      <c r="D478">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" ht="21">
       <c r="A479" s="5" t="s">
         <v>453</v>
       </c>
@@ -7031,8 +8261,11 @@
       <c r="C479" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="480" spans="1:3" ht="21">
+      <c r="D479">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" ht="21">
       <c r="A480" s="5" t="s">
         <v>453</v>
       </c>
@@ -7042,8 +8275,11 @@
       <c r="C480" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="481" spans="1:3" ht="21">
+      <c r="D480">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" ht="21">
       <c r="A481" s="5" t="s">
         <v>453</v>
       </c>
@@ -7052,6 +8288,9 @@
       </c>
       <c r="C481" s="4" t="s">
         <v>4</v>
+      </c>
+      <c r="D481">
+        <v>447</v>
       </c>
     </row>
   </sheetData>
@@ -7504,5 +8743,6 @@
     <hyperlink ref="B2" r:id="rId446" xr:uid="{E07D4FE5-46C7-AC4D-9E01-2300AA43B58A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId447"/>
 </worksheet>
 </file>
--- a/Problems/Final450/FINAL450.xlsx
+++ b/Problems/Final450/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\vdcodes\Programming\DSA\Problems\Final450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B589BC-3B31-4CF4-B1EE-1BE1700039DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58266A5D-46BD-410B-A37F-83002A0F3970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1879,7 +1879,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView showFormulas="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1992,7 +1992,7 @@
       <c r="B11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>4</v>
       </c>
       <c r="D11">

--- a/Problems/Final450/FINAL450.xlsx
+++ b/Problems/Final450/FINAL450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\vdcodes\Programming\DSA\Problems\Final450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58266A5D-46BD-410B-A37F-83002A0F3970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB09D41-D281-4716-AE87-F62EFF288663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1432,7 +1432,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1494,6 +1494,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1528,7 +1534,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1559,6 +1565,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1878,8 +1887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="A124" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B139" sqref="B139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3699,7 +3708,7 @@
       <c r="B139" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C139" s="4" t="s">
+      <c r="C139" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D139">
@@ -3727,7 +3736,7 @@
       <c r="B141" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="C141" s="4" t="s">
+      <c r="C141" s="11" t="s">
         <v>4</v>
       </c>
       <c r="D141">
@@ -3741,7 +3750,7 @@
       <c r="B142" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C142" s="4" t="s">
+      <c r="C142" s="14" t="s">
         <v>4</v>
       </c>
       <c r="D142">
@@ -3769,7 +3778,7 @@
       <c r="B144" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C144" s="4" t="s">
+      <c r="C144" s="11" t="s">
         <v>4</v>
       </c>
       <c r="D144">

--- a/Problems/Final450/FINAL450.xlsx
+++ b/Problems/Final450/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\vdcodes\Programming\DSA\Problems\Final450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB09D41-D281-4716-AE87-F62EFF288663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E5FFC7-0374-4BE4-8BB4-564396960480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1888,7 +1888,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView showFormulas="1" tabSelected="1" topLeftCell="A124" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B139" sqref="B139"/>
+      <selection activeCell="C146" sqref="C146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3806,7 +3806,7 @@
       <c r="B146" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C146" s="4" t="s">
+      <c r="C146" s="11" t="s">
         <v>4</v>
       </c>
       <c r="D146">

--- a/Problems/Final450/FINAL450.xlsx
+++ b/Problems/Final450/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\vdcodes\Programming\DSA\Problems\Final450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E5FFC7-0374-4BE4-8BB4-564396960480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7BAB137-F747-4389-94DC-A66BE6DECCF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1887,8 +1887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" topLeftCell="A124" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C146" sqref="C146"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="A132" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B147" sqref="B147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3848,7 +3848,7 @@
       <c r="B149" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C149" s="4" t="s">
+      <c r="C149" s="11" t="s">
         <v>4</v>
       </c>
       <c r="D149">

--- a/Problems/Final450/FINAL450.xlsx
+++ b/Problems/Final450/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\vdcodes\Programming\DSA\Problems\Final450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7BAB137-F747-4389-94DC-A66BE6DECCF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C1AF188-D68F-4104-BC0E-4A4775751AA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="465">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1534,7 +1534,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1570,6 +1570,7 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1887,8 +1888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" topLeftCell="A132" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B147" sqref="B147"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="A174" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E179" sqref="E179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2015,7 +2016,7 @@
       <c r="B12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>4</v>
       </c>
       <c r="D12">
@@ -2169,7 +2170,7 @@
       <c r="B23" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="11" t="s">
         <v>4</v>
       </c>
       <c r="D23">
@@ -2430,16 +2431,12 @@
     </row>
     <row r="42" spans="1:4" ht="21">
       <c r="B42" s="7"/>
-      <c r="C42" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="C42" s="4"/>
     </row>
     <row r="43" spans="1:4" ht="21">
       <c r="A43" s="5"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="C43" s="4"/>
     </row>
     <row r="44" spans="1:4" ht="21">
       <c r="A44" s="8" t="s">
@@ -3200,7 +3197,7 @@
       <c r="B101" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="C101" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D101">
@@ -3214,7 +3211,7 @@
       <c r="B102" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C102" s="4" t="s">
+      <c r="C102" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D102">
@@ -3228,7 +3225,7 @@
       <c r="B103" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C103" s="4" t="s">
+      <c r="C103" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D103">
@@ -3242,7 +3239,7 @@
       <c r="B104" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C104" s="4" t="s">
+      <c r="C104" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D104">
@@ -3256,7 +3253,7 @@
       <c r="B105" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C105" s="4" t="s">
+      <c r="C105" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D105">
@@ -3270,7 +3267,7 @@
       <c r="B106" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C106" s="4" t="s">
+      <c r="C106" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D106">
@@ -3284,7 +3281,7 @@
       <c r="B107" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C107" s="4" t="s">
+      <c r="C107" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D107">
@@ -3298,7 +3295,7 @@
       <c r="B108" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C108" s="4" t="s">
+      <c r="C108" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D108">
@@ -3312,7 +3309,7 @@
       <c r="B109" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C109" s="4" t="s">
+      <c r="C109" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D109">
@@ -3326,7 +3323,7 @@
       <c r="B110" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C110" s="4" t="s">
+      <c r="C110" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D110">
@@ -3340,7 +3337,7 @@
       <c r="B111" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C111" s="4" t="s">
+      <c r="C111" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D111">
@@ -3354,7 +3351,7 @@
       <c r="B112" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C112" s="4" t="s">
+      <c r="C112" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D112">
@@ -3368,7 +3365,7 @@
       <c r="B113" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C113" s="4" t="s">
+      <c r="C113" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D113">
@@ -3382,7 +3379,7 @@
       <c r="B114" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C114" s="4" t="s">
+      <c r="C114" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D114">
@@ -3396,7 +3393,7 @@
       <c r="B115" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C115" s="4" t="s">
+      <c r="C115" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D115">
@@ -3410,7 +3407,7 @@
       <c r="B116" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C116" s="4" t="s">
+      <c r="C116" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D116">
@@ -3424,7 +3421,7 @@
       <c r="B117" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C117" s="4" t="s">
+      <c r="C117" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D117">
@@ -3438,7 +3435,7 @@
       <c r="B118" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C118" s="4" t="s">
+      <c r="C118" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D118">
@@ -3452,7 +3449,7 @@
       <c r="B119" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C119" s="4" t="s">
+      <c r="C119" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D119">
@@ -3466,7 +3463,7 @@
       <c r="B120" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C120" s="4" t="s">
+      <c r="C120" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D120">
@@ -3480,7 +3477,7 @@
       <c r="B121" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C121" s="4" t="s">
+      <c r="C121" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D121">
@@ -3494,7 +3491,7 @@
       <c r="B122" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C122" s="4" t="s">
+      <c r="C122" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D122">
@@ -3508,7 +3505,7 @@
       <c r="B123" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C123" s="4" t="s">
+      <c r="C123" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D123">
@@ -3522,7 +3519,7 @@
       <c r="B124" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C124" s="4" t="s">
+      <c r="C124" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D124">
@@ -3536,7 +3533,7 @@
       <c r="B125" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C125" s="4" t="s">
+      <c r="C125" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D125">
@@ -3550,7 +3547,7 @@
       <c r="B126" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C126" s="4" t="s">
+      <c r="C126" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D126">
@@ -3564,7 +3561,7 @@
       <c r="B127" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C127" s="4" t="s">
+      <c r="C127" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D127">
@@ -3578,7 +3575,7 @@
       <c r="B128" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C128" s="4" t="s">
+      <c r="C128" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D128">
@@ -3592,7 +3589,7 @@
       <c r="B129" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C129" s="4" t="s">
+      <c r="C129" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D129">
@@ -3606,7 +3603,7 @@
       <c r="B130" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C130" s="4" t="s">
+      <c r="C130" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D130">
@@ -3620,7 +3617,7 @@
       <c r="B131" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C131" s="4" t="s">
+      <c r="C131" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D131">
@@ -3634,7 +3631,7 @@
       <c r="B132" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C132" s="4" t="s">
+      <c r="C132" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D132">
@@ -3648,7 +3645,7 @@
       <c r="B133" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C133" s="4" t="s">
+      <c r="C133" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D133">
@@ -3662,7 +3659,7 @@
       <c r="B134" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C134" s="4" t="s">
+      <c r="C134" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D134">
@@ -3676,7 +3673,7 @@
       <c r="B135" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C135" s="4" t="s">
+      <c r="C135" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D135">
@@ -3690,12 +3687,15 @@
       <c r="B136" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C136" s="4" t="s">
+      <c r="C136" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D136">
         <v>125</v>
       </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="C137" s="15"/>
     </row>
     <row r="138" spans="1:4" ht="21">
       <c r="B138" s="7"/>
@@ -3708,7 +3708,7 @@
       <c r="B139" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C139" s="13" t="s">
+      <c r="C139" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D139">
@@ -3722,7 +3722,7 @@
       <c r="B140" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C140" s="4" t="s">
+      <c r="C140" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D140">
@@ -3764,7 +3764,7 @@
       <c r="B143" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="C143" s="4" t="s">
+      <c r="C143" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D143">
@@ -3792,7 +3792,7 @@
       <c r="B145" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C145" s="4" t="s">
+      <c r="C145" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D145">
@@ -3820,7 +3820,7 @@
       <c r="B147" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C147" s="4" t="s">
+      <c r="C147" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D147">
@@ -3834,7 +3834,7 @@
       <c r="B148" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C148" s="4" t="s">
+      <c r="C148" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D148">
@@ -3862,7 +3862,7 @@
       <c r="B150" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C150" s="4" t="s">
+      <c r="C150" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D150">
@@ -3876,7 +3876,7 @@
       <c r="B151" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C151" s="4" t="s">
+      <c r="C151" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D151">
@@ -3890,7 +3890,7 @@
       <c r="B152" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C152" s="4" t="s">
+      <c r="C152" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D152">
@@ -3904,7 +3904,7 @@
       <c r="B153" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C153" s="4" t="s">
+      <c r="C153" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D153">
@@ -3918,7 +3918,7 @@
       <c r="B154" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="C154" s="4" t="s">
+      <c r="C154" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D154">
@@ -3932,7 +3932,7 @@
       <c r="B155" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C155" s="4" t="s">
+      <c r="C155" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D155">
@@ -3946,7 +3946,7 @@
       <c r="B156" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="C156" s="4" t="s">
+      <c r="C156" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D156">
@@ -3960,7 +3960,7 @@
       <c r="B157" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C157" s="4" t="s">
+      <c r="C157" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D157">
@@ -3974,7 +3974,7 @@
       <c r="B158" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C158" s="4" t="s">
+      <c r="C158" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D158">
@@ -3988,7 +3988,7 @@
       <c r="B159" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="C159" s="4" t="s">
+      <c r="C159" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D159">
@@ -4002,7 +4002,7 @@
       <c r="B160" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C160" s="4" t="s">
+      <c r="C160" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D160">
@@ -4016,7 +4016,7 @@
       <c r="B161" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C161" s="4" t="s">
+      <c r="C161" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D161">
@@ -4030,7 +4030,7 @@
       <c r="B162" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C162" s="4" t="s">
+      <c r="C162" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D162">
@@ -4044,7 +4044,7 @@
       <c r="B163" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C163" s="4" t="s">
+      <c r="C163" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D163">
@@ -4058,7 +4058,7 @@
       <c r="B164" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="C164" s="4" t="s">
+      <c r="C164" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D164">
@@ -4072,7 +4072,7 @@
       <c r="B165" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="C165" s="4" t="s">
+      <c r="C165" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D165">
@@ -4086,7 +4086,7 @@
       <c r="B166" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C166" s="4" t="s">
+      <c r="C166" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D166">
@@ -4100,7 +4100,7 @@
       <c r="B167" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="C167" s="4" t="s">
+      <c r="C167" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D167">
@@ -4114,7 +4114,7 @@
       <c r="B168" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="C168" s="4" t="s">
+      <c r="C168" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D168">
@@ -4128,7 +4128,7 @@
       <c r="B169" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C169" s="4" t="s">
+      <c r="C169" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D169">
@@ -4142,7 +4142,7 @@
       <c r="B170" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C170" s="4" t="s">
+      <c r="C170" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D170">
@@ -4156,7 +4156,7 @@
       <c r="B171" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C171" s="4" t="s">
+      <c r="C171" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D171">
@@ -4170,7 +4170,7 @@
       <c r="B172" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C172" s="4" t="s">
+      <c r="C172" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D172">
@@ -4184,7 +4184,7 @@
       <c r="B173" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C173" s="4" t="s">
+      <c r="C173" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D173">
@@ -4198,7 +4198,7 @@
       <c r="B174" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="C174" s="4" t="s">
+      <c r="C174" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D174">
@@ -4216,7 +4216,7 @@
       <c r="B177" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="C177" s="4" t="s">
+      <c r="C177" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D177">
@@ -4230,7 +4230,7 @@
       <c r="B178" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C178" s="4" t="s">
+      <c r="C178" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D178">
@@ -4244,7 +4244,7 @@
       <c r="B179" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C179" s="4" t="s">
+      <c r="C179" s="11" t="s">
         <v>4</v>
       </c>
       <c r="D179">
@@ -4258,7 +4258,7 @@
       <c r="B180" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C180" s="4" t="s">
+      <c r="C180" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D180">
@@ -4272,7 +4272,7 @@
       <c r="B181" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C181" s="4" t="s">
+      <c r="C181" s="11" t="s">
         <v>4</v>
       </c>
       <c r="D181">
@@ -4286,7 +4286,7 @@
       <c r="B182" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C182" s="4" t="s">
+      <c r="C182" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D182">
@@ -4300,7 +4300,7 @@
       <c r="B183" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="C183" s="4" t="s">
+      <c r="C183" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D183">
@@ -4314,7 +4314,7 @@
       <c r="B184" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="C184" s="4" t="s">
+      <c r="C184" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D184">
@@ -4328,7 +4328,7 @@
       <c r="B185" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="C185" s="4" t="s">
+      <c r="C185" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D185">
@@ -4342,7 +4342,7 @@
       <c r="B186" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C186" s="4" t="s">
+      <c r="C186" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D186">
@@ -4356,7 +4356,7 @@
       <c r="B187" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="C187" s="4" t="s">
+      <c r="C187" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D187">
@@ -4370,7 +4370,7 @@
       <c r="B188" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="C188" s="4" t="s">
+      <c r="C188" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D188">
@@ -4384,7 +4384,7 @@
       <c r="B189" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="C189" s="4" t="s">
+      <c r="C189" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D189">
@@ -4398,7 +4398,7 @@
       <c r="B190" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C190" s="4" t="s">
+      <c r="C190" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D190">
@@ -4412,7 +4412,7 @@
       <c r="B191" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="C191" s="4" t="s">
+      <c r="C191" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D191">
@@ -4426,7 +4426,7 @@
       <c r="B192" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="C192" s="4" t="s">
+      <c r="C192" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D192">
@@ -4440,7 +4440,7 @@
       <c r="B193" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C193" s="4" t="s">
+      <c r="C193" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D193">
@@ -4454,7 +4454,7 @@
       <c r="B194" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="C194" s="4" t="s">
+      <c r="C194" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D194">
@@ -4468,7 +4468,7 @@
       <c r="B195" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="C195" s="4" t="s">
+      <c r="C195" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D195">
@@ -4482,7 +4482,7 @@
       <c r="B196" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="C196" s="4" t="s">
+      <c r="C196" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D196">
@@ -4496,7 +4496,7 @@
       <c r="B197" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C197" s="4" t="s">
+      <c r="C197" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D197">
@@ -4510,7 +4510,7 @@
       <c r="B198" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="C198" s="4" t="s">
+      <c r="C198" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D198">
@@ -4524,7 +4524,7 @@
       <c r="B199" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C199" s="4" t="s">
+      <c r="C199" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D199">
@@ -4538,7 +4538,7 @@
       <c r="B200" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="C200" s="4" t="s">
+      <c r="C200" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D200">
@@ -4552,7 +4552,7 @@
       <c r="B201" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="C201" s="4" t="s">
+      <c r="C201" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D201">
@@ -4566,7 +4566,7 @@
       <c r="B202" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="C202" s="4" t="s">
+      <c r="C202" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D202">
@@ -4580,7 +4580,7 @@
       <c r="B203" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C203" s="4" t="s">
+      <c r="C203" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D203">
@@ -4594,7 +4594,7 @@
       <c r="B204" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="C204" s="4" t="s">
+      <c r="C204" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D204">
@@ -4608,7 +4608,7 @@
       <c r="B205" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C205" s="4" t="s">
+      <c r="C205" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D205">
@@ -4622,7 +4622,7 @@
       <c r="B206" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="C206" s="4" t="s">
+      <c r="C206" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D206">
@@ -4636,7 +4636,7 @@
       <c r="B207" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C207" s="4" t="s">
+      <c r="C207" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D207">
@@ -4650,7 +4650,7 @@
       <c r="B208" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="C208" s="4" t="s">
+      <c r="C208" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D208">
@@ -4664,7 +4664,7 @@
       <c r="B209" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="C209" s="4" t="s">
+      <c r="C209" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D209">
@@ -4678,7 +4678,7 @@
       <c r="B210" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C210" s="4" t="s">
+      <c r="C210" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D210">
@@ -4692,7 +4692,7 @@
       <c r="B211" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="C211" s="4" t="s">
+      <c r="C211" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D211">
@@ -4702,12 +4702,11 @@
     <row r="212" spans="1:4" ht="21">
       <c r="A212" s="8"/>
       <c r="B212" s="7"/>
-      <c r="C212" s="4"/>
     </row>
     <row r="213" spans="1:4" ht="21">
       <c r="A213" s="8"/>
       <c r="B213" s="7"/>
-      <c r="C213" s="4"/>
+      <c r="C213" s="13"/>
     </row>
     <row r="214" spans="1:4" ht="21">
       <c r="A214" s="5" t="s">
@@ -4716,7 +4715,7 @@
       <c r="B214" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="C214" s="4" t="s">
+      <c r="C214" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D214">
@@ -4730,7 +4729,7 @@
       <c r="B215" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="C215" s="4" t="s">
+      <c r="C215" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D215">
@@ -4744,7 +4743,7 @@
       <c r="B216" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="C216" s="4" t="s">
+      <c r="C216" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D216">
@@ -4758,7 +4757,7 @@
       <c r="B217" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C217" s="4" t="s">
+      <c r="C217" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D217">
@@ -4772,7 +4771,7 @@
       <c r="B218" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="C218" s="4" t="s">
+      <c r="C218" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D218">
@@ -4786,7 +4785,7 @@
       <c r="B219" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="C219" s="4" t="s">
+      <c r="C219" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D219">
@@ -4800,7 +4799,7 @@
       <c r="B220" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="C220" s="4" t="s">
+      <c r="C220" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D220">
@@ -4814,7 +4813,7 @@
       <c r="B221" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="C221" s="4" t="s">
+      <c r="C221" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D221">
@@ -4828,7 +4827,7 @@
       <c r="B222" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="C222" s="4" t="s">
+      <c r="C222" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D222">
@@ -4842,7 +4841,7 @@
       <c r="B223" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="C223" s="4" t="s">
+      <c r="C223" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D223">
@@ -4856,7 +4855,7 @@
       <c r="B224" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="C224" s="4" t="s">
+      <c r="C224" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D224">
@@ -4870,7 +4869,7 @@
       <c r="B225" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="C225" s="4" t="s">
+      <c r="C225" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D225">
@@ -4884,7 +4883,7 @@
       <c r="B226" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="C226" s="4" t="s">
+      <c r="C226" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D226">
@@ -4898,7 +4897,7 @@
       <c r="B227" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="C227" s="4" t="s">
+      <c r="C227" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D227">
@@ -4912,7 +4911,7 @@
       <c r="B228" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="C228" s="4" t="s">
+      <c r="C228" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D228">
@@ -4926,7 +4925,7 @@
       <c r="B229" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="C229" s="4" t="s">
+      <c r="C229" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D229">
@@ -4940,7 +4939,7 @@
       <c r="B230" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="C230" s="4" t="s">
+      <c r="C230" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D230">
@@ -4954,7 +4953,7 @@
       <c r="B231" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="C231" s="4" t="s">
+      <c r="C231" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D231">
@@ -4968,7 +4967,7 @@
       <c r="B232" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="C232" s="4" t="s">
+      <c r="C232" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D232">
@@ -4982,7 +4981,7 @@
       <c r="B233" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="C233" s="4" t="s">
+      <c r="C233" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D233">
@@ -4996,7 +4995,7 @@
       <c r="B234" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C234" s="4" t="s">
+      <c r="C234" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D234">
@@ -5010,7 +5009,7 @@
       <c r="B235" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="C235" s="4" t="s">
+      <c r="C235" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D235">

--- a/Problems/Final450/FINAL450.xlsx
+++ b/Problems/Final450/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\vdcodes\Programming\DSA\Problems\Final450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C1AF188-D68F-4104-BC0E-4A4775751AA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4297897-40E5-41B6-8E20-5DCCECFB6EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1888,8 +1888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" topLeftCell="A174" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E179" sqref="E179"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="A162" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C185" sqref="C185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -4328,7 +4328,7 @@
       <c r="B185" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="C185" s="12" t="s">
+      <c r="C185" s="11" t="s">
         <v>4</v>
       </c>
       <c r="D185">

--- a/Problems/Final450/FINAL450.xlsx
+++ b/Problems/Final450/FINAL450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\vdcodes\Programming\DSA\Problems\Final450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4297897-40E5-41B6-8E20-5DCCECFB6EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB05B16A-4CE1-4972-A746-073C214C301C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1432,7 +1432,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1888,28 +1888,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" topLeftCell="A162" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C185" sqref="C185"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="A142" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C273" sqref="C273"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.5" customWidth="1"/>
     <col min="2" max="2" width="80.25" customWidth="1"/>
     <col min="3" max="3" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="21">
+    <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1920,12 +1920,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C5" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="21">
+    <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
@@ -1939,7 +1939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="21">
+    <row r="7" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="21">
+    <row r="8" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="21">
+    <row r="9" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
@@ -1981,7 +1981,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="21">
+    <row r="10" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="21">
+    <row r="11" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>5</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="21">
+    <row r="12" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>5</v>
       </c>
@@ -2023,7 +2023,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="21">
+    <row r="13" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="21">
+    <row r="14" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>5</v>
       </c>
@@ -2051,7 +2051,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="21">
+    <row r="15" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>5</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="21">
+    <row r="16" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>5</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="21">
+    <row r="17" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>5</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="21">
+    <row r="18" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>5</v>
       </c>
@@ -2107,7 +2107,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="21">
+    <row r="19" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>5</v>
       </c>
@@ -2121,7 +2121,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="21">
+    <row r="20" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>5</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="21">
+    <row r="21" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>5</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="21">
+    <row r="22" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>5</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="21">
+    <row r="23" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>5</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="21">
+    <row r="24" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>5</v>
       </c>
@@ -2191,7 +2191,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="21">
+    <row r="25" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>5</v>
       </c>
@@ -2205,7 +2205,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="21">
+    <row r="26" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>5</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="21">
+    <row r="27" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>5</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="21">
+    <row r="28" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>5</v>
       </c>
@@ -2247,7 +2247,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="21">
+    <row r="29" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>5</v>
       </c>
@@ -2261,7 +2261,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="21">
+    <row r="30" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>5</v>
       </c>
@@ -2275,7 +2275,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="21">
+    <row r="31" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>5</v>
       </c>
@@ -2289,7 +2289,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="21">
+    <row r="32" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>5</v>
       </c>
@@ -2303,7 +2303,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="21">
+    <row r="33" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>5</v>
       </c>
@@ -2317,7 +2317,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="21">
+    <row r="34" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>5</v>
       </c>
@@ -2331,7 +2331,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="21">
+    <row r="35" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>5</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="21">
+    <row r="36" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>5</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="21">
+    <row r="37" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>5</v>
       </c>
@@ -2373,7 +2373,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="21">
+    <row r="38" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
         <v>5</v>
       </c>
@@ -2387,7 +2387,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="21">
+    <row r="39" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>5</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="21">
+    <row r="40" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>5</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="21">
+    <row r="41" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
         <v>5</v>
       </c>
@@ -2429,16 +2429,16 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="21">
+    <row r="42" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="B42" s="7"/>
       <c r="C42" s="4"/>
     </row>
-    <row r="43" spans="1:4" ht="21">
+    <row r="43" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A43" s="5"/>
       <c r="B43" s="7"/>
       <c r="C43" s="4"/>
     </row>
-    <row r="44" spans="1:4" ht="21">
+    <row r="44" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A44" s="8" t="s">
         <v>42</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="21">
+    <row r="45" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A45" s="8" t="s">
         <v>42</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="21">
+    <row r="46" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A46" s="8" t="s">
         <v>42</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="21">
+    <row r="47" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A47" s="8" t="s">
         <v>42</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="21">
+    <row r="48" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A48" s="8" t="s">
         <v>42</v>
       </c>
@@ -2508,7 +2508,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="21">
+    <row r="49" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A49" s="8" t="s">
         <v>42</v>
       </c>
@@ -2522,7 +2522,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="21">
+    <row r="50" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A50" s="8" t="s">
         <v>42</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="21">
+    <row r="51" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A51" s="8" t="s">
         <v>42</v>
       </c>
@@ -2550,7 +2550,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="21">
+    <row r="52" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A52" s="8" t="s">
         <v>42</v>
       </c>
@@ -2564,7 +2564,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="21">
+    <row r="53" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A53" s="8" t="s">
         <v>42</v>
       </c>
@@ -2578,12 +2578,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="21">
+    <row r="55" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A55" s="5"/>
       <c r="B55" s="7"/>
       <c r="C55" s="4"/>
     </row>
-    <row r="56" spans="1:4" ht="21">
+    <row r="56" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
         <v>53</v>
       </c>
@@ -2597,7 +2597,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="21">
+    <row r="57" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
         <v>53</v>
       </c>
@@ -2611,7 +2611,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="21">
+    <row r="58" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
         <v>53</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="21">
+    <row r="59" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
         <v>53</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="21">
+    <row r="60" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
         <v>53</v>
       </c>
@@ -2653,7 +2653,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="21">
+    <row r="61" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
         <v>53</v>
       </c>
@@ -2667,7 +2667,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="21">
+    <row r="62" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
         <v>53</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="21">
+    <row r="63" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
         <v>53</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="21">
+    <row r="64" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
         <v>53</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="21">
+    <row r="65" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
         <v>53</v>
       </c>
@@ -2723,7 +2723,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="21">
+    <row r="66" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
         <v>53</v>
       </c>
@@ -2737,7 +2737,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="21">
+    <row r="67" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
         <v>53</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="21">
+    <row r="68" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
         <v>53</v>
       </c>
@@ -2765,7 +2765,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="21">
+    <row r="69" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
         <v>53</v>
       </c>
@@ -2779,7 +2779,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="21">
+    <row r="70" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
         <v>53</v>
       </c>
@@ -2793,7 +2793,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="21">
+    <row r="71" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
         <v>53</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="21">
+    <row r="72" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
         <v>53</v>
       </c>
@@ -2821,7 +2821,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="21">
+    <row r="73" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
         <v>53</v>
       </c>
@@ -2835,7 +2835,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="21">
+    <row r="74" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
         <v>53</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="21">
+    <row r="75" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
         <v>53</v>
       </c>
@@ -2863,7 +2863,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="21">
+    <row r="76" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
         <v>53</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="21">
+    <row r="77" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
         <v>53</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="21">
+    <row r="78" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
         <v>53</v>
       </c>
@@ -2905,7 +2905,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="21">
+    <row r="79" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
         <v>53</v>
       </c>
@@ -2919,7 +2919,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="21">
+    <row r="80" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A80" s="5" t="s">
         <v>53</v>
       </c>
@@ -2933,7 +2933,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="21">
+    <row r="81" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
         <v>53</v>
       </c>
@@ -2947,7 +2947,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="21">
+    <row r="82" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
         <v>53</v>
       </c>
@@ -2961,7 +2961,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="21">
+    <row r="83" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
         <v>53</v>
       </c>
@@ -2975,7 +2975,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="21">
+    <row r="84" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
         <v>53</v>
       </c>
@@ -2989,7 +2989,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="21">
+    <row r="85" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
         <v>53</v>
       </c>
@@ -3003,7 +3003,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="21">
+    <row r="86" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
         <v>53</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="21">
+    <row r="87" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
         <v>53</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="21">
+    <row r="88" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
         <v>53</v>
       </c>
@@ -3045,7 +3045,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="21">
+    <row r="89" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
         <v>53</v>
       </c>
@@ -3059,7 +3059,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="21">
+    <row r="90" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A90" s="5" t="s">
         <v>53</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="21">
+    <row r="91" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
         <v>53</v>
       </c>
@@ -3087,7 +3087,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="21">
+    <row r="92" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
         <v>53</v>
       </c>
@@ -3101,7 +3101,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="21">
+    <row r="93" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
         <v>53</v>
       </c>
@@ -3115,7 +3115,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="21">
+    <row r="94" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
         <v>53</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="21">
+    <row r="95" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
         <v>53</v>
       </c>
@@ -3143,7 +3143,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="21">
+    <row r="96" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
         <v>53</v>
       </c>
@@ -3157,7 +3157,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="21">
+    <row r="97" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A97" s="5" t="s">
         <v>53</v>
       </c>
@@ -3171,7 +3171,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="21">
+    <row r="98" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A98" s="5" t="s">
         <v>53</v>
       </c>
@@ -3185,12 +3185,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="21">
+    <row r="100" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A100" s="8"/>
       <c r="B100" s="7"/>
       <c r="C100" s="4"/>
     </row>
-    <row r="101" spans="1:4" ht="21">
+    <row r="101" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A101" s="5" t="s">
         <v>97</v>
       </c>
@@ -3204,7 +3204,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="21">
+    <row r="102" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
         <v>97</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="21">
+    <row r="103" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A103" s="5" t="s">
         <v>97</v>
       </c>
@@ -3232,7 +3232,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="21">
+    <row r="104" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A104" s="5" t="s">
         <v>97</v>
       </c>
@@ -3246,7 +3246,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="21">
+    <row r="105" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A105" s="5" t="s">
         <v>97</v>
       </c>
@@ -3260,7 +3260,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="21">
+    <row r="106" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A106" s="5" t="s">
         <v>97</v>
       </c>
@@ -3274,7 +3274,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="21">
+    <row r="107" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
         <v>97</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="21">
+    <row r="108" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A108" s="5" t="s">
         <v>97</v>
       </c>
@@ -3302,7 +3302,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="21">
+    <row r="109" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A109" s="5" t="s">
         <v>97</v>
       </c>
@@ -3316,7 +3316,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="21">
+    <row r="110" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A110" s="5" t="s">
         <v>97</v>
       </c>
@@ -3330,7 +3330,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="21">
+    <row r="111" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A111" s="5" t="s">
         <v>97</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="21">
+    <row r="112" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A112" s="5" t="s">
         <v>97</v>
       </c>
@@ -3358,7 +3358,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="21">
+    <row r="113" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A113" s="5" t="s">
         <v>97</v>
       </c>
@@ -3372,7 +3372,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="21">
+    <row r="114" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A114" s="5" t="s">
         <v>97</v>
       </c>
@@ -3386,7 +3386,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="21">
+    <row r="115" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A115" s="5" t="s">
         <v>97</v>
       </c>
@@ -3400,7 +3400,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="21">
+    <row r="116" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A116" s="5" t="s">
         <v>97</v>
       </c>
@@ -3414,7 +3414,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="21">
+    <row r="117" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A117" s="5" t="s">
         <v>97</v>
       </c>
@@ -3428,7 +3428,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="21">
+    <row r="118" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A118" s="5" t="s">
         <v>97</v>
       </c>
@@ -3442,7 +3442,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="21">
+    <row r="119" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A119" s="5" t="s">
         <v>97</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="21">
+    <row r="120" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A120" s="5" t="s">
         <v>97</v>
       </c>
@@ -3470,7 +3470,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="21">
+    <row r="121" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A121" s="5" t="s">
         <v>97</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="21">
+    <row r="122" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A122" s="5" t="s">
         <v>97</v>
       </c>
@@ -3498,7 +3498,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="21">
+    <row r="123" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A123" s="5" t="s">
         <v>97</v>
       </c>
@@ -3512,7 +3512,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="21">
+    <row r="124" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A124" s="5" t="s">
         <v>97</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="21">
+    <row r="125" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A125" s="5" t="s">
         <v>97</v>
       </c>
@@ -3540,7 +3540,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="21">
+    <row r="126" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A126" s="5" t="s">
         <v>97</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="21">
+    <row r="127" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A127" s="5" t="s">
         <v>97</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="21">
+    <row r="128" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A128" s="5" t="s">
         <v>97</v>
       </c>
@@ -3582,7 +3582,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="21">
+    <row r="129" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A129" s="5" t="s">
         <v>97</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="21">
+    <row r="130" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A130" s="5" t="s">
         <v>97</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="21">
+    <row r="131" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A131" s="5" t="s">
         <v>97</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="21">
+    <row r="132" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A132" s="5" t="s">
         <v>97</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="21">
+    <row r="133" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A133" s="5" t="s">
         <v>97</v>
       </c>
@@ -3652,7 +3652,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="21">
+    <row r="134" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A134" s="5" t="s">
         <v>97</v>
       </c>
@@ -3666,7 +3666,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="21">
+    <row r="135" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A135" s="5" t="s">
         <v>97</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="21">
+    <row r="136" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A136" s="5" t="s">
         <v>97</v>
       </c>
@@ -3694,14 +3694,14 @@
         <v>125</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C137" s="15"/>
     </row>
-    <row r="138" spans="1:4" ht="21">
+    <row r="138" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="B138" s="7"/>
       <c r="C138" s="4"/>
     </row>
-    <row r="139" spans="1:4" ht="21">
+    <row r="139" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A139" s="8" t="s">
         <v>134</v>
       </c>
@@ -3715,7 +3715,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="21">
+    <row r="140" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A140" s="8" t="s">
         <v>134</v>
       </c>
@@ -3729,7 +3729,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="21">
+    <row r="141" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A141" s="8" t="s">
         <v>134</v>
       </c>
@@ -3743,7 +3743,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="21">
+    <row r="142" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A142" s="8" t="s">
         <v>134</v>
       </c>
@@ -3757,7 +3757,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="21">
+    <row r="143" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A143" s="8" t="s">
         <v>134</v>
       </c>
@@ -3771,7 +3771,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="21">
+    <row r="144" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A144" s="8" t="s">
         <v>134</v>
       </c>
@@ -3785,7 +3785,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="21">
+    <row r="145" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A145" s="8" t="s">
         <v>134</v>
       </c>
@@ -3799,7 +3799,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="21">
+    <row r="146" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A146" s="8" t="s">
         <v>134</v>
       </c>
@@ -3813,7 +3813,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="21">
+    <row r="147" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A147" s="8" t="s">
         <v>134</v>
       </c>
@@ -3827,7 +3827,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="21">
+    <row r="148" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A148" s="8" t="s">
         <v>134</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="21">
+    <row r="149" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A149" s="8" t="s">
         <v>134</v>
       </c>
@@ -3855,7 +3855,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="21">
+    <row r="150" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A150" s="8" t="s">
         <v>134</v>
       </c>
@@ -3869,7 +3869,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="21">
+    <row r="151" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A151" s="8" t="s">
         <v>134</v>
       </c>
@@ -3883,7 +3883,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="21">
+    <row r="152" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A152" s="8" t="s">
         <v>134</v>
       </c>
@@ -3897,7 +3897,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="21">
+    <row r="153" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A153" s="8" t="s">
         <v>134</v>
       </c>
@@ -3911,7 +3911,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="21">
+    <row r="154" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A154" s="8" t="s">
         <v>134</v>
       </c>
@@ -3925,7 +3925,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="21">
+    <row r="155" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A155" s="8" t="s">
         <v>134</v>
       </c>
@@ -3939,7 +3939,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="21">
+    <row r="156" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A156" s="8" t="s">
         <v>134</v>
       </c>
@@ -3953,7 +3953,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="21">
+    <row r="157" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A157" s="8" t="s">
         <v>134</v>
       </c>
@@ -3967,7 +3967,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="21">
+    <row r="158" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A158" s="8" t="s">
         <v>134</v>
       </c>
@@ -3981,7 +3981,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="21">
+    <row r="159" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A159" s="8" t="s">
         <v>134</v>
       </c>
@@ -3995,7 +3995,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="21">
+    <row r="160" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A160" s="8" t="s">
         <v>134</v>
       </c>
@@ -4009,7 +4009,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="21">
+    <row r="161" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A161" s="8" t="s">
         <v>134</v>
       </c>
@@ -4023,7 +4023,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="21">
+    <row r="162" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A162" s="8" t="s">
         <v>134</v>
       </c>
@@ -4037,7 +4037,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="21">
+    <row r="163" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A163" s="8" t="s">
         <v>134</v>
       </c>
@@ -4051,7 +4051,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="21">
+    <row r="164" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A164" s="8" t="s">
         <v>134</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="21">
+    <row r="165" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A165" s="8" t="s">
         <v>134</v>
       </c>
@@ -4079,7 +4079,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="21">
+    <row r="166" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A166" s="8" t="s">
         <v>134</v>
       </c>
@@ -4093,7 +4093,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="21">
+    <row r="167" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A167" s="8" t="s">
         <v>134</v>
       </c>
@@ -4107,7 +4107,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="21">
+    <row r="168" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A168" s="8" t="s">
         <v>134</v>
       </c>
@@ -4121,7 +4121,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="21">
+    <row r="169" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A169" s="8" t="s">
         <v>134</v>
       </c>
@@ -4135,7 +4135,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="21">
+    <row r="170" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A170" s="8" t="s">
         <v>134</v>
       </c>
@@ -4149,7 +4149,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="21">
+    <row r="171" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A171" s="8" t="s">
         <v>134</v>
       </c>
@@ -4163,7 +4163,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="21">
+    <row r="172" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A172" s="8" t="s">
         <v>134</v>
       </c>
@@ -4177,7 +4177,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="21">
+    <row r="173" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A173" s="8" t="s">
         <v>134</v>
       </c>
@@ -4191,7 +4191,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="21">
+    <row r="174" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A174" s="8" t="s">
         <v>134</v>
       </c>
@@ -4205,11 +4205,11 @@
         <v>161</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="21">
+    <row r="176" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="B176" s="7"/>
       <c r="C176" s="4"/>
     </row>
-    <row r="177" spans="1:4" ht="21">
+    <row r="177" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A177" s="5" t="s">
         <v>171</v>
       </c>
@@ -4223,7 +4223,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="21">
+    <row r="178" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A178" s="5" t="s">
         <v>171</v>
       </c>
@@ -4237,7 +4237,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="21">
+    <row r="179" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A179" s="5" t="s">
         <v>171</v>
       </c>
@@ -4251,7 +4251,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="21">
+    <row r="180" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A180" s="5" t="s">
         <v>171</v>
       </c>
@@ -4265,7 +4265,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="21">
+    <row r="181" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A181" s="5" t="s">
         <v>171</v>
       </c>
@@ -4279,7 +4279,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="21">
+    <row r="182" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A182" s="5" t="s">
         <v>171</v>
       </c>
@@ -4293,7 +4293,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="21">
+    <row r="183" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A183" s="5" t="s">
         <v>171</v>
       </c>
@@ -4307,7 +4307,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="21">
+    <row r="184" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A184" s="5" t="s">
         <v>171</v>
       </c>
@@ -4321,7 +4321,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="21">
+    <row r="185" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A185" s="5" t="s">
         <v>171</v>
       </c>
@@ -4335,7 +4335,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="21">
+    <row r="186" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A186" s="5" t="s">
         <v>171</v>
       </c>
@@ -4349,7 +4349,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="21">
+    <row r="187" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A187" s="5" t="s">
         <v>171</v>
       </c>
@@ -4363,7 +4363,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="21">
+    <row r="188" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A188" s="5" t="s">
         <v>171</v>
       </c>
@@ -4377,7 +4377,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="21">
+    <row r="189" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A189" s="5" t="s">
         <v>171</v>
       </c>
@@ -4391,7 +4391,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="21">
+    <row r="190" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A190" s="5" t="s">
         <v>171</v>
       </c>
@@ -4405,7 +4405,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="21">
+    <row r="191" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A191" s="5" t="s">
         <v>171</v>
       </c>
@@ -4419,7 +4419,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="21">
+    <row r="192" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A192" s="5" t="s">
         <v>171</v>
       </c>
@@ -4433,7 +4433,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="21">
+    <row r="193" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A193" s="5" t="s">
         <v>171</v>
       </c>
@@ -4447,7 +4447,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="21">
+    <row r="194" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A194" s="5" t="s">
         <v>171</v>
       </c>
@@ -4461,7 +4461,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="21">
+    <row r="195" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A195" s="5" t="s">
         <v>171</v>
       </c>
@@ -4475,7 +4475,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="21">
+    <row r="196" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A196" s="5" t="s">
         <v>171</v>
       </c>
@@ -4489,7 +4489,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="21">
+    <row r="197" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A197" s="5" t="s">
         <v>171</v>
       </c>
@@ -4503,7 +4503,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="21">
+    <row r="198" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A198" s="5" t="s">
         <v>171</v>
       </c>
@@ -4517,7 +4517,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="21">
+    <row r="199" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A199" s="5" t="s">
         <v>171</v>
       </c>
@@ -4531,7 +4531,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="21">
+    <row r="200" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A200" s="5" t="s">
         <v>171</v>
       </c>
@@ -4545,7 +4545,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="21">
+    <row r="201" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A201" s="5" t="s">
         <v>171</v>
       </c>
@@ -4559,7 +4559,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="21">
+    <row r="202" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A202" s="5" t="s">
         <v>171</v>
       </c>
@@ -4573,7 +4573,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="21">
+    <row r="203" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A203" s="5" t="s">
         <v>171</v>
       </c>
@@ -4587,7 +4587,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="21">
+    <row r="204" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A204" s="5" t="s">
         <v>171</v>
       </c>
@@ -4601,7 +4601,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="21">
+    <row r="205" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A205" s="5" t="s">
         <v>171</v>
       </c>
@@ -4615,7 +4615,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="21">
+    <row r="206" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A206" s="5" t="s">
         <v>171</v>
       </c>
@@ -4629,7 +4629,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="21">
+    <row r="207" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A207" s="5" t="s">
         <v>171</v>
       </c>
@@ -4643,7 +4643,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="21">
+    <row r="208" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A208" s="5" t="s">
         <v>171</v>
       </c>
@@ -4657,7 +4657,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="21">
+    <row r="209" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A209" s="5" t="s">
         <v>171</v>
       </c>
@@ -4671,7 +4671,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="21">
+    <row r="210" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A210" s="5" t="s">
         <v>171</v>
       </c>
@@ -4685,7 +4685,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="21">
+    <row r="211" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A211" s="5" t="s">
         <v>171</v>
       </c>
@@ -4699,16 +4699,16 @@
         <v>196</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="21">
+    <row r="212" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A212" s="8"/>
       <c r="B212" s="7"/>
     </row>
-    <row r="213" spans="1:4" ht="21">
+    <row r="213" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A213" s="8"/>
       <c r="B213" s="7"/>
       <c r="C213" s="13"/>
     </row>
-    <row r="214" spans="1:4" ht="21">
+    <row r="214" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A214" s="5" t="s">
         <v>207</v>
       </c>
@@ -4722,7 +4722,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="21">
+    <row r="215" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A215" s="5" t="s">
         <v>207</v>
       </c>
@@ -4736,7 +4736,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="21">
+    <row r="216" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A216" s="5" t="s">
         <v>207</v>
       </c>
@@ -4750,7 +4750,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="21">
+    <row r="217" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A217" s="5" t="s">
         <v>207</v>
       </c>
@@ -4764,7 +4764,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="21">
+    <row r="218" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A218" s="5" t="s">
         <v>207</v>
       </c>
@@ -4778,7 +4778,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="21">
+    <row r="219" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A219" s="5" t="s">
         <v>207</v>
       </c>
@@ -4792,7 +4792,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="21">
+    <row r="220" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A220" s="5" t="s">
         <v>207</v>
       </c>
@@ -4806,7 +4806,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="21">
+    <row r="221" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A221" s="5" t="s">
         <v>207</v>
       </c>
@@ -4820,7 +4820,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="21">
+    <row r="222" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A222" s="5" t="s">
         <v>207</v>
       </c>
@@ -4834,7 +4834,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="21">
+    <row r="223" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A223" s="5" t="s">
         <v>207</v>
       </c>
@@ -4848,7 +4848,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="21">
+    <row r="224" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A224" s="5" t="s">
         <v>207</v>
       </c>
@@ -4862,7 +4862,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="21">
+    <row r="225" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A225" s="5" t="s">
         <v>207</v>
       </c>
@@ -4876,7 +4876,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="21">
+    <row r="226" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A226" s="5" t="s">
         <v>207</v>
       </c>
@@ -4890,7 +4890,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="21">
+    <row r="227" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A227" s="5" t="s">
         <v>207</v>
       </c>
@@ -4904,7 +4904,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="21">
+    <row r="228" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A228" s="5" t="s">
         <v>207</v>
       </c>
@@ -4918,7 +4918,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="21">
+    <row r="229" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A229" s="5" t="s">
         <v>207</v>
       </c>
@@ -4932,7 +4932,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="21">
+    <row r="230" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A230" s="5" t="s">
         <v>207</v>
       </c>
@@ -4946,7 +4946,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="21">
+    <row r="231" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A231" s="5" t="s">
         <v>207</v>
       </c>
@@ -4960,7 +4960,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="21">
+    <row r="232" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A232" s="5" t="s">
         <v>207</v>
       </c>
@@ -4974,7 +4974,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="21">
+    <row r="233" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A233" s="5" t="s">
         <v>207</v>
       </c>
@@ -4988,7 +4988,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="21">
+    <row r="234" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A234" s="5" t="s">
         <v>207</v>
       </c>
@@ -5002,7 +5002,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="21">
+    <row r="235" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A235" s="5" t="s">
         <v>207</v>
       </c>
@@ -5016,1327 +5016,1327 @@
         <v>218</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="21">
+    <row r="236" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="B236" s="7"/>
       <c r="C236" s="4"/>
     </row>
-    <row r="237" spans="1:4" ht="21">
+    <row r="237" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="B237" s="7"/>
       <c r="C237" s="4"/>
     </row>
-    <row r="238" spans="1:4" ht="21">
+    <row r="238" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A238" s="5" t="s">
         <v>230</v>
       </c>
       <c r="B238" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="C238" s="4" t="s">
+      <c r="C238" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D238">
         <v>219</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="21">
+    <row r="239" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A239" s="5" t="s">
         <v>230</v>
       </c>
       <c r="B239" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="C239" s="4" t="s">
+      <c r="C239" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D239">
         <v>220</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="21">
+    <row r="240" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A240" s="5" t="s">
         <v>230</v>
       </c>
       <c r="B240" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="C240" s="4" t="s">
+      <c r="C240" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D240">
         <v>221</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="21">
+    <row r="241" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A241" s="5" t="s">
         <v>230</v>
       </c>
       <c r="B241" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="C241" s="4" t="s">
+      <c r="C241" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D241">
         <v>222</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="21">
+    <row r="242" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A242" s="5" t="s">
         <v>230</v>
       </c>
       <c r="B242" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="C242" s="4" t="s">
+      <c r="C242" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D242">
         <v>223</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="21">
+    <row r="243" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A243" s="5" t="s">
         <v>230</v>
       </c>
       <c r="B243" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="C243" s="4" t="s">
+      <c r="C243" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D243">
         <v>224</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="21">
+    <row r="244" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A244" s="5" t="s">
         <v>230</v>
       </c>
       <c r="B244" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="C244" s="4" t="s">
+      <c r="C244" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D244">
         <v>225</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="21">
+    <row r="245" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A245" s="5" t="s">
         <v>230</v>
       </c>
       <c r="B245" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="C245" s="4" t="s">
+      <c r="C245" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D245">
         <v>226</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="21">
+    <row r="246" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A246" s="5" t="s">
         <v>230</v>
       </c>
       <c r="B246" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="C246" s="4" t="s">
+      <c r="C246" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D246">
         <v>227</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="21">
+    <row r="247" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A247" s="5" t="s">
         <v>230</v>
       </c>
       <c r="B247" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="C247" s="4" t="s">
+      <c r="C247" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D247">
         <v>228</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="21">
+    <row r="248" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A248" s="5" t="s">
         <v>230</v>
       </c>
       <c r="B248" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="C248" s="4" t="s">
+      <c r="C248" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D248">
         <v>229</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="21">
+    <row r="249" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A249" s="5" t="s">
         <v>230</v>
       </c>
       <c r="B249" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="C249" s="4" t="s">
+      <c r="C249" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D249">
         <v>230</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="21">
+    <row r="250" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A250" s="5" t="s">
         <v>230</v>
       </c>
       <c r="B250" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="C250" s="4" t="s">
+      <c r="C250" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D250">
         <v>231</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="21">
+    <row r="251" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A251" s="5" t="s">
         <v>230</v>
       </c>
       <c r="B251" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="C251" s="4" t="s">
+      <c r="C251" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D251">
         <v>232</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="21">
+    <row r="252" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A252" s="5" t="s">
         <v>230</v>
       </c>
       <c r="B252" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="C252" s="4" t="s">
+      <c r="C252" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D252">
         <v>233</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="21">
+    <row r="253" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A253" s="5" t="s">
         <v>230</v>
       </c>
       <c r="B253" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C253" s="4" t="s">
+      <c r="C253" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D253">
         <v>234</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="21">
+    <row r="254" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A254" s="5" t="s">
         <v>230</v>
       </c>
       <c r="B254" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="C254" s="4" t="s">
+      <c r="C254" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D254">
         <v>235</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="21">
+    <row r="255" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A255" s="5" t="s">
         <v>230</v>
       </c>
       <c r="B255" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="C255" s="4" t="s">
+      <c r="C255" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D255">
         <v>236</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="21">
+    <row r="256" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A256" s="5" t="s">
         <v>230</v>
       </c>
       <c r="B256" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="C256" s="4" t="s">
+      <c r="C256" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D256">
         <v>237</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="21">
+    <row r="257" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A257" s="5" t="s">
         <v>230</v>
       </c>
       <c r="B257" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="C257" s="4" t="s">
+      <c r="C257" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D257">
         <v>238</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="21">
+    <row r="258" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A258" s="5" t="s">
         <v>230</v>
       </c>
       <c r="B258" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="C258" s="4" t="s">
+      <c r="C258" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D258">
         <v>239</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="21">
+    <row r="259" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A259" s="5" t="s">
         <v>230</v>
       </c>
       <c r="B259" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="C259" s="4" t="s">
+      <c r="C259" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D259">
         <v>240</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="21">
+    <row r="260" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A260" s="5" t="s">
         <v>230</v>
       </c>
       <c r="B260" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="C260" s="4" t="s">
+      <c r="C260" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D260">
         <v>241</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="21">
+    <row r="261" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A261" s="5" t="s">
         <v>230</v>
       </c>
       <c r="B261" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="C261" s="4" t="s">
+      <c r="C261" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D261">
         <v>242</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="21">
+    <row r="262" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A262" s="5" t="s">
         <v>230</v>
       </c>
       <c r="B262" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="C262" s="4" t="s">
+      <c r="C262" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D262">
         <v>243</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="21">
+    <row r="263" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A263" s="5" t="s">
         <v>230</v>
       </c>
       <c r="B263" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="C263" s="4" t="s">
+      <c r="C263" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D263">
         <v>244</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="21">
+    <row r="264" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A264" s="5" t="s">
         <v>230</v>
       </c>
       <c r="B264" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="C264" s="4" t="s">
+      <c r="C264" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D264">
         <v>245</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="21">
+    <row r="265" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A265" s="5" t="s">
         <v>230</v>
       </c>
       <c r="B265" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="C265" s="4" t="s">
+      <c r="C265" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D265">
         <v>246</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="21">
+    <row r="266" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A266" s="5" t="s">
         <v>230</v>
       </c>
       <c r="B266" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="C266" s="4" t="s">
+      <c r="C266" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D266">
         <v>247</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="21">
+    <row r="267" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A267" s="5" t="s">
         <v>230</v>
       </c>
       <c r="B267" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="C267" s="4" t="s">
+      <c r="C267" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D267">
         <v>248</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="21">
+    <row r="268" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A268" s="5" t="s">
         <v>230</v>
       </c>
       <c r="B268" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="C268" s="4" t="s">
+      <c r="C268" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D268">
         <v>249</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="21">
+    <row r="269" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A269" s="5" t="s">
         <v>230</v>
       </c>
       <c r="B269" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="C269" s="4" t="s">
+      <c r="C269" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D269">
         <v>250</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="21">
+    <row r="270" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A270" s="5" t="s">
         <v>230</v>
       </c>
       <c r="B270" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="C270" s="4" t="s">
+      <c r="C270" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D270">
         <v>251</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="21">
+    <row r="271" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A271" s="5" t="s">
         <v>230</v>
       </c>
       <c r="B271" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C271" s="4" t="s">
+      <c r="C271" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D271">
         <v>252</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="21">
+    <row r="272" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A272" s="5" t="s">
         <v>230</v>
       </c>
       <c r="B272" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="C272" s="4" t="s">
+      <c r="C272" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D272">
         <v>253</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="21">
+    <row r="273" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="B273" s="7"/>
       <c r="C273" s="4"/>
     </row>
-    <row r="274" spans="1:4" ht="21">
+    <row r="274" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="B274" s="7"/>
       <c r="C274" s="4"/>
     </row>
-    <row r="275" spans="1:4" ht="21">
+    <row r="275" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A275" s="5" t="s">
         <v>265</v>
       </c>
       <c r="B275" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="C275" s="4" t="s">
+      <c r="C275" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D275">
         <v>254</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="21">
+    <row r="276" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A276" s="5" t="s">
         <v>265</v>
       </c>
       <c r="B276" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="C276" s="4" t="s">
+      <c r="C276" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D276">
         <v>255</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="21">
+    <row r="277" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A277" s="5" t="s">
         <v>265</v>
       </c>
       <c r="B277" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="C277" s="4" t="s">
+      <c r="C277" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D277">
         <v>256</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="21">
+    <row r="278" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A278" s="5" t="s">
         <v>265</v>
       </c>
       <c r="B278" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="C278" s="4" t="s">
+      <c r="C278" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D278">
         <v>257</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="21">
+    <row r="279" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A279" s="5" t="s">
         <v>265</v>
       </c>
       <c r="B279" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="C279" s="4" t="s">
+      <c r="C279" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D279">
         <v>258</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="21">
+    <row r="280" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A280" s="5" t="s">
         <v>265</v>
       </c>
       <c r="B280" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="C280" s="4" t="s">
+      <c r="C280" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D280">
         <v>259</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="21">
+    <row r="281" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A281" s="5" t="s">
         <v>265</v>
       </c>
       <c r="B281" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="C281" s="4" t="s">
+      <c r="C281" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D281">
         <v>260</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="21">
+    <row r="282" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A282" s="5" t="s">
         <v>265</v>
       </c>
       <c r="B282" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="C282" s="4" t="s">
+      <c r="C282" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D282">
         <v>261</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="21">
+    <row r="283" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A283" s="5" t="s">
         <v>265</v>
       </c>
       <c r="B283" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="C283" s="4" t="s">
+      <c r="C283" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D283">
         <v>262</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="21">
+    <row r="284" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A284" s="5" t="s">
         <v>265</v>
       </c>
       <c r="B284" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="C284" s="4" t="s">
+      <c r="C284" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D284">
         <v>263</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="21">
+    <row r="285" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A285" s="5" t="s">
         <v>265</v>
       </c>
       <c r="B285" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="C285" s="4" t="s">
+      <c r="C285" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D285">
         <v>264</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="21">
+    <row r="286" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A286" s="5" t="s">
         <v>265</v>
       </c>
       <c r="B286" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="C286" s="4" t="s">
+      <c r="C286" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D286">
         <v>265</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="21">
+    <row r="287" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A287" s="5" t="s">
         <v>265</v>
       </c>
       <c r="B287" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="C287" s="4" t="s">
+      <c r="C287" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D287">
         <v>266</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="21">
+    <row r="288" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A288" s="5" t="s">
         <v>265</v>
       </c>
       <c r="B288" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="C288" s="4" t="s">
+      <c r="C288" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D288">
         <v>267</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="21">
+    <row r="289" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A289" s="5" t="s">
         <v>265</v>
       </c>
       <c r="B289" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="C289" s="4" t="s">
+      <c r="C289" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D289">
         <v>268</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="21">
+    <row r="290" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A290" s="5" t="s">
         <v>265</v>
       </c>
       <c r="B290" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="C290" s="4" t="s">
+      <c r="C290" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D290">
         <v>269</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="21">
+    <row r="291" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A291" s="5" t="s">
         <v>265</v>
       </c>
       <c r="B291" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="C291" s="4" t="s">
+      <c r="C291" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D291">
         <v>270</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="21">
+    <row r="292" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A292" s="5" t="s">
         <v>265</v>
       </c>
       <c r="B292" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="C292" s="4" t="s">
+      <c r="C292" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D292">
         <v>271</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="21">
+    <row r="293" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A293" s="5" t="s">
         <v>265</v>
       </c>
       <c r="B293" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="C293" s="4" t="s">
+      <c r="C293" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D293">
         <v>272</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="21">
+    <row r="294" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="B294" s="7"/>
       <c r="C294" s="4"/>
     </row>
-    <row r="295" spans="1:4" ht="21">
+    <row r="295" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="B295" s="7"/>
       <c r="C295" s="4"/>
     </row>
-    <row r="296" spans="1:4" ht="21">
+    <row r="296" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A296" s="5" t="s">
         <v>285</v>
       </c>
       <c r="B296" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="C296" s="4" t="s">
+      <c r="C296" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D296">
         <v>273</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="21">
+    <row r="297" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A297" s="5" t="s">
         <v>285</v>
       </c>
       <c r="B297" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="C297" s="4" t="s">
+      <c r="C297" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D297">
         <v>274</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="21">
+    <row r="298" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A298" s="5" t="s">
         <v>285</v>
       </c>
       <c r="B298" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="C298" s="4" t="s">
+      <c r="C298" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D298">
         <v>275</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="21">
+    <row r="299" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A299" s="5" t="s">
         <v>285</v>
       </c>
       <c r="B299" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="C299" s="4" t="s">
+      <c r="C299" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D299">
         <v>276</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="21">
+    <row r="300" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A300" s="5" t="s">
         <v>285</v>
       </c>
       <c r="B300" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="C300" s="4" t="s">
+      <c r="C300" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D300">
         <v>277</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="21">
+    <row r="301" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A301" s="5" t="s">
         <v>285</v>
       </c>
       <c r="B301" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="C301" s="4" t="s">
+      <c r="C301" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D301">
         <v>278</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="21">
+    <row r="302" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A302" s="5" t="s">
         <v>285</v>
       </c>
       <c r="B302" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="C302" s="4" t="s">
+      <c r="C302" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D302">
         <v>279</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="21">
+    <row r="303" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A303" s="5" t="s">
         <v>285</v>
       </c>
       <c r="B303" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="C303" s="4" t="s">
+      <c r="C303" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D303">
         <v>280</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="21">
+    <row r="304" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A304" s="5" t="s">
         <v>285</v>
       </c>
       <c r="B304" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="C304" s="4" t="s">
+      <c r="C304" s="11" t="s">
         <v>4</v>
       </c>
       <c r="D304">
         <v>281</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="21">
+    <row r="305" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A305" s="5" t="s">
         <v>285</v>
       </c>
       <c r="B305" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="C305" s="4" t="s">
+      <c r="C305" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D305">
         <v>282</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="21">
+    <row r="306" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A306" s="5" t="s">
         <v>285</v>
       </c>
       <c r="B306" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="C306" s="4" t="s">
+      <c r="C306" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D306">
         <v>283</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="21">
+    <row r="307" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A307" s="5" t="s">
         <v>285</v>
       </c>
       <c r="B307" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="C307" s="4" t="s">
+      <c r="C307" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D307">
         <v>284</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="21">
+    <row r="308" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A308" s="5" t="s">
         <v>285</v>
       </c>
       <c r="B308" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="C308" s="4" t="s">
+      <c r="C308" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D308">
         <v>285</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="21">
+    <row r="309" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A309" s="5" t="s">
         <v>285</v>
       </c>
       <c r="B309" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="C309" s="4" t="s">
+      <c r="C309" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D309">
         <v>286</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="21">
+    <row r="310" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A310" s="5" t="s">
         <v>285</v>
       </c>
       <c r="B310" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="C310" s="4" t="s">
+      <c r="C310" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D310">
         <v>287</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="21">
+    <row r="311" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A311" s="5" t="s">
         <v>285</v>
       </c>
       <c r="B311" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="C311" s="4" t="s">
+      <c r="C311" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D311">
         <v>288</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="21">
+    <row r="312" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A312" s="5" t="s">
         <v>285</v>
       </c>
       <c r="B312" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="C312" s="4" t="s">
+      <c r="C312" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D312">
         <v>289</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="21">
+    <row r="313" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A313" s="5" t="s">
         <v>285</v>
       </c>
       <c r="B313" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="C313" s="4" t="s">
+      <c r="C313" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D313">
         <v>290</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="21">
+    <row r="314" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A314" s="5" t="s">
         <v>285</v>
       </c>
       <c r="B314" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="C314" s="4" t="s">
+      <c r="C314" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D314">
         <v>291</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="21">
+    <row r="315" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A315" s="5" t="s">
         <v>285</v>
       </c>
       <c r="B315" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="C315" s="4" t="s">
+      <c r="C315" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D315">
         <v>292</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="21">
+    <row r="316" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A316" s="5" t="s">
         <v>285</v>
       </c>
       <c r="B316" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="C316" s="4" t="s">
+      <c r="C316" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D316">
         <v>293</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="21">
+    <row r="317" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A317" s="5" t="s">
         <v>285</v>
       </c>
       <c r="B317" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="C317" s="4" t="s">
+      <c r="C317" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D317">
         <v>294</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="21">
+    <row r="318" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A318" s="5" t="s">
         <v>285</v>
       </c>
       <c r="B318" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="C318" s="4" t="s">
+      <c r="C318" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D318">
         <v>295</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="21">
+    <row r="319" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A319" s="5" t="s">
         <v>285</v>
       </c>
       <c r="B319" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="C319" s="4" t="s">
+      <c r="C319" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D319">
         <v>296</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="21">
+    <row r="320" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A320" s="5" t="s">
         <v>285</v>
       </c>
       <c r="B320" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="C320" s="4" t="s">
+      <c r="C320" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D320">
         <v>297</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="21">
+    <row r="321" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A321" s="5" t="s">
         <v>285</v>
       </c>
       <c r="B321" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="C321" s="4" t="s">
+      <c r="C321" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D321">
         <v>298</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="21">
+    <row r="322" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A322" s="5" t="s">
         <v>285</v>
       </c>
       <c r="B322" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="C322" s="4" t="s">
+      <c r="C322" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D322">
         <v>299</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="21">
+    <row r="323" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A323" s="5" t="s">
         <v>285</v>
       </c>
       <c r="B323" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="C323" s="4" t="s">
+      <c r="C323" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D323">
         <v>300</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="21">
+    <row r="324" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A324" s="5" t="s">
         <v>285</v>
       </c>
       <c r="B324" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="C324" s="4" t="s">
+      <c r="C324" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D324">
         <v>301</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="21">
+    <row r="325" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A325" s="5" t="s">
         <v>285</v>
       </c>
       <c r="B325" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="C325" s="4" t="s">
+      <c r="C325" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D325">
         <v>302</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="21">
+    <row r="326" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A326" s="5" t="s">
         <v>285</v>
       </c>
       <c r="B326" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="C326" s="4" t="s">
+      <c r="C326" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D326">
         <v>303</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="21">
+    <row r="327" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A327" s="5" t="s">
         <v>285</v>
       </c>
       <c r="B327" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="C327" s="4" t="s">
+      <c r="C327" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D327">
         <v>304</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="21">
+    <row r="328" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A328" s="5" t="s">
         <v>285</v>
       </c>
       <c r="B328" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="C328" s="4" t="s">
+      <c r="C328" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D328">
         <v>305</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="21">
+    <row r="329" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A329" s="5" t="s">
         <v>285</v>
       </c>
       <c r="B329" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="C329" s="4" t="s">
+      <c r="C329" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D329">
         <v>306</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="21">
+    <row r="330" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A330" s="5" t="s">
         <v>285</v>
       </c>
       <c r="B330" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="C330" s="4" t="s">
+      <c r="C330" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D330">
         <v>307</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="21">
+    <row r="331" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A331" s="5" t="s">
         <v>285</v>
       </c>
       <c r="B331" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="C331" s="4" t="s">
+      <c r="C331" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D331">
         <v>308</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="21">
+    <row r="332" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A332" s="5" t="s">
         <v>285</v>
       </c>
       <c r="B332" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="C332" s="4" t="s">
+      <c r="C332" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D332">
         <v>309</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="21">
+    <row r="333" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A333" s="5" t="s">
         <v>285</v>
       </c>
       <c r="B333" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="C333" s="4" t="s">
+      <c r="C333" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D333">
         <v>310</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="21">
+    <row r="334" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="B334" s="7"/>
       <c r="C334" s="4"/>
     </row>
-    <row r="335" spans="1:4" ht="21">
+    <row r="335" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="B335" s="7"/>
       <c r="C335" s="4"/>
     </row>
-    <row r="336" spans="1:4" ht="21">
+    <row r="336" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A336" s="8" t="s">
         <v>324</v>
       </c>
@@ -6350,7 +6350,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="21">
+    <row r="337" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A337" s="8" t="s">
         <v>324</v>
       </c>
@@ -6364,7 +6364,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="21">
+    <row r="338" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A338" s="8" t="s">
         <v>324</v>
       </c>
@@ -6378,7 +6378,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="21">
+    <row r="339" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A339" s="8" t="s">
         <v>324</v>
       </c>
@@ -6392,7 +6392,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="21">
+    <row r="340" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A340" s="8" t="s">
         <v>324</v>
       </c>
@@ -6406,7 +6406,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="21">
+    <row r="341" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A341" s="8" t="s">
         <v>324</v>
       </c>
@@ -6420,7 +6420,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="21">
+    <row r="342" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A342" s="8" t="s">
         <v>324</v>
       </c>
@@ -6434,7 +6434,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="21">
+    <row r="343" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A343" s="8" t="s">
         <v>324</v>
       </c>
@@ -6448,7 +6448,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="21">
+    <row r="344" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A344" s="8" t="s">
         <v>324</v>
       </c>
@@ -6462,7 +6462,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="21">
+    <row r="345" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A345" s="8" t="s">
         <v>324</v>
       </c>
@@ -6476,7 +6476,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="21">
+    <row r="346" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A346" s="8" t="s">
         <v>324</v>
       </c>
@@ -6490,7 +6490,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="347" spans="1:4" ht="21">
+    <row r="347" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A347" s="8" t="s">
         <v>324</v>
       </c>
@@ -6504,7 +6504,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="348" spans="1:4" ht="21">
+    <row r="348" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A348" s="8" t="s">
         <v>324</v>
       </c>
@@ -6518,7 +6518,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="349" spans="1:4" ht="21">
+    <row r="349" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A349" s="8" t="s">
         <v>324</v>
       </c>
@@ -6532,7 +6532,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="350" spans="1:4" ht="21">
+    <row r="350" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A350" s="8" t="s">
         <v>324</v>
       </c>
@@ -6546,7 +6546,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="351" spans="1:4" ht="21">
+    <row r="351" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A351" s="8" t="s">
         <v>324</v>
       </c>
@@ -6560,7 +6560,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="352" spans="1:4" ht="21">
+    <row r="352" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A352" s="8" t="s">
         <v>324</v>
       </c>
@@ -6574,7 +6574,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="353" spans="1:4" ht="21">
+    <row r="353" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A353" s="8" t="s">
         <v>324</v>
       </c>
@@ -6588,15 +6588,15 @@
         <v>328</v>
       </c>
     </row>
-    <row r="354" spans="1:4" ht="21">
+    <row r="354" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="B354" s="7"/>
       <c r="C354" s="4"/>
     </row>
-    <row r="355" spans="1:4" ht="21">
+    <row r="355" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="B355" s="7"/>
       <c r="C355" s="4"/>
     </row>
-    <row r="356" spans="1:4" ht="21">
+    <row r="356" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A356" s="8" t="s">
         <v>343</v>
       </c>
@@ -6610,7 +6610,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="357" spans="1:4" ht="21">
+    <row r="357" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A357" s="8" t="s">
         <v>343</v>
       </c>
@@ -6624,7 +6624,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="358" spans="1:4" ht="21">
+    <row r="358" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A358" s="8" t="s">
         <v>343</v>
       </c>
@@ -6638,7 +6638,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="359" spans="1:4" ht="21">
+    <row r="359" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A359" s="8" t="s">
         <v>343</v>
       </c>
@@ -6652,7 +6652,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="360" spans="1:4" ht="21">
+    <row r="360" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A360" s="8" t="s">
         <v>343</v>
       </c>
@@ -6666,7 +6666,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="361" spans="1:4" ht="21">
+    <row r="361" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A361" s="8" t="s">
         <v>343</v>
       </c>
@@ -6680,7 +6680,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="362" spans="1:4" ht="21">
+    <row r="362" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A362" s="8" t="s">
         <v>343</v>
       </c>
@@ -6694,7 +6694,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="363" spans="1:4" ht="21">
+    <row r="363" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A363" s="8" t="s">
         <v>343</v>
       </c>
@@ -6708,7 +6708,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="364" spans="1:4" ht="21">
+    <row r="364" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A364" s="8" t="s">
         <v>343</v>
       </c>
@@ -6722,7 +6722,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="365" spans="1:4" ht="21">
+    <row r="365" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A365" s="8" t="s">
         <v>343</v>
       </c>
@@ -6736,7 +6736,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="366" spans="1:4" ht="21">
+    <row r="366" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A366" s="8" t="s">
         <v>343</v>
       </c>
@@ -6750,7 +6750,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="367" spans="1:4" ht="21">
+    <row r="367" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A367" s="8" t="s">
         <v>343</v>
       </c>
@@ -6764,7 +6764,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="368" spans="1:4" ht="21">
+    <row r="368" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A368" s="8" t="s">
         <v>343</v>
       </c>
@@ -6778,7 +6778,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="369" spans="1:4" ht="21">
+    <row r="369" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A369" s="8" t="s">
         <v>343</v>
       </c>
@@ -6792,7 +6792,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="370" spans="1:4" ht="21">
+    <row r="370" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A370" s="8" t="s">
         <v>343</v>
       </c>
@@ -6806,7 +6806,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="371" spans="1:4" ht="21">
+    <row r="371" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A371" s="8" t="s">
         <v>343</v>
       </c>
@@ -6820,7 +6820,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="372" spans="1:4" ht="21">
+    <row r="372" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A372" s="8" t="s">
         <v>343</v>
       </c>
@@ -6834,7 +6834,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="373" spans="1:4" ht="21">
+    <row r="373" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A373" s="8" t="s">
         <v>343</v>
       </c>
@@ -6848,7 +6848,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="374" spans="1:4" ht="21">
+    <row r="374" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A374" s="8" t="s">
         <v>343</v>
       </c>
@@ -6862,7 +6862,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="375" spans="1:4" ht="21">
+    <row r="375" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A375" s="8" t="s">
         <v>343</v>
       </c>
@@ -6876,7 +6876,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="376" spans="1:4" ht="21">
+    <row r="376" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A376" s="8" t="s">
         <v>343</v>
       </c>
@@ -6890,7 +6890,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="377" spans="1:4" ht="21">
+    <row r="377" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A377" s="8" t="s">
         <v>343</v>
       </c>
@@ -6904,7 +6904,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="378" spans="1:4" ht="21">
+    <row r="378" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A378" s="8" t="s">
         <v>343</v>
       </c>
@@ -6918,7 +6918,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="379" spans="1:4" ht="21">
+    <row r="379" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A379" s="8" t="s">
         <v>343</v>
       </c>
@@ -6932,7 +6932,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="380" spans="1:4" ht="21">
+    <row r="380" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A380" s="8" t="s">
         <v>343</v>
       </c>
@@ -6946,7 +6946,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="381" spans="1:4" ht="21">
+    <row r="381" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A381" s="8" t="s">
         <v>343</v>
       </c>
@@ -6960,7 +6960,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="382" spans="1:4" ht="21">
+    <row r="382" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A382" s="8" t="s">
         <v>343</v>
       </c>
@@ -6974,7 +6974,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="383" spans="1:4" ht="21">
+    <row r="383" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A383" s="8" t="s">
         <v>343</v>
       </c>
@@ -6988,7 +6988,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="384" spans="1:4" ht="21">
+    <row r="384" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A384" s="8" t="s">
         <v>343</v>
       </c>
@@ -7002,7 +7002,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="385" spans="1:4" ht="21">
+    <row r="385" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A385" s="8" t="s">
         <v>343</v>
       </c>
@@ -7016,7 +7016,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="386" spans="1:4" ht="21">
+    <row r="386" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A386" s="8" t="s">
         <v>343</v>
       </c>
@@ -7030,7 +7030,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="387" spans="1:4" ht="21">
+    <row r="387" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A387" s="8" t="s">
         <v>343</v>
       </c>
@@ -7044,7 +7044,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="388" spans="1:4" ht="21">
+    <row r="388" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A388" s="8" t="s">
         <v>343</v>
       </c>
@@ -7058,7 +7058,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="389" spans="1:4" ht="21">
+    <row r="389" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A389" s="8" t="s">
         <v>343</v>
       </c>
@@ -7072,7 +7072,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="390" spans="1:4" ht="21">
+    <row r="390" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A390" s="8" t="s">
         <v>343</v>
       </c>
@@ -7086,7 +7086,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="391" spans="1:4" ht="21">
+    <row r="391" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A391" s="8" t="s">
         <v>343</v>
       </c>
@@ -7100,7 +7100,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="392" spans="1:4" ht="21">
+    <row r="392" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A392" s="8" t="s">
         <v>343</v>
       </c>
@@ -7114,7 +7114,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="393" spans="1:4" ht="21">
+    <row r="393" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A393" s="8" t="s">
         <v>343</v>
       </c>
@@ -7128,7 +7128,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="394" spans="1:4" ht="21">
+    <row r="394" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A394" s="8" t="s">
         <v>343</v>
       </c>
@@ -7142,7 +7142,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="395" spans="1:4" ht="21">
+    <row r="395" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A395" s="8" t="s">
         <v>343</v>
       </c>
@@ -7156,7 +7156,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="396" spans="1:4" ht="21">
+    <row r="396" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A396" s="8" t="s">
         <v>343</v>
       </c>
@@ -7170,7 +7170,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="397" spans="1:4" ht="21">
+    <row r="397" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A397" s="8" t="s">
         <v>343</v>
       </c>
@@ -7184,7 +7184,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="398" spans="1:4" ht="21">
+    <row r="398" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A398" s="8" t="s">
         <v>343</v>
       </c>
@@ -7198,7 +7198,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="399" spans="1:4" ht="21">
+    <row r="399" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A399" s="8" t="s">
         <v>343</v>
       </c>
@@ -7212,15 +7212,15 @@
         <v>372</v>
       </c>
     </row>
-    <row r="400" spans="1:4" ht="21">
+    <row r="400" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="B400" s="7"/>
       <c r="C400" s="4"/>
     </row>
-    <row r="401" spans="1:4" ht="21">
+    <row r="401" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="B401" s="7"/>
       <c r="C401" s="4"/>
     </row>
-    <row r="402" spans="1:4" ht="21">
+    <row r="402" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A402" s="8" t="s">
         <v>387</v>
       </c>
@@ -7234,7 +7234,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="403" spans="1:4" ht="21">
+    <row r="403" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A403" s="8" t="s">
         <v>387</v>
       </c>
@@ -7248,7 +7248,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="404" spans="1:4" ht="21">
+    <row r="404" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A404" s="8" t="s">
         <v>387</v>
       </c>
@@ -7262,7 +7262,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="405" spans="1:4" ht="21">
+    <row r="405" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A405" s="8" t="s">
         <v>387</v>
       </c>
@@ -7276,7 +7276,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="406" spans="1:4" ht="21">
+    <row r="406" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A406" s="8" t="s">
         <v>387</v>
       </c>
@@ -7290,7 +7290,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="407" spans="1:4" ht="21">
+    <row r="407" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A407" s="8" t="s">
         <v>387</v>
       </c>
@@ -7304,15 +7304,15 @@
         <v>378</v>
       </c>
     </row>
-    <row r="408" spans="1:4" ht="21">
+    <row r="408" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="B408" s="7"/>
       <c r="C408" s="4"/>
     </row>
-    <row r="409" spans="1:4" ht="21">
+    <row r="409" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="B409" s="7"/>
       <c r="C409" s="4"/>
     </row>
-    <row r="410" spans="1:4" ht="21">
+    <row r="410" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A410" s="5" t="s">
         <v>393</v>
       </c>
@@ -7326,7 +7326,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="411" spans="1:4" ht="21">
+    <row r="411" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A411" s="5" t="s">
         <v>393</v>
       </c>
@@ -7340,7 +7340,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="412" spans="1:4" ht="21">
+    <row r="412" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A412" s="5" t="s">
         <v>393</v>
       </c>
@@ -7354,7 +7354,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="413" spans="1:4" ht="21">
+    <row r="413" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A413" s="5" t="s">
         <v>393</v>
       </c>
@@ -7368,7 +7368,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="414" spans="1:4" ht="21">
+    <row r="414" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A414" s="5" t="s">
         <v>393</v>
       </c>
@@ -7382,7 +7382,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="415" spans="1:4" ht="21">
+    <row r="415" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A415" s="5" t="s">
         <v>393</v>
       </c>
@@ -7396,7 +7396,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="416" spans="1:4" ht="21">
+    <row r="416" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A416" s="5" t="s">
         <v>393</v>
       </c>
@@ -7410,7 +7410,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="417" spans="1:4" ht="21">
+    <row r="417" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A417" s="5" t="s">
         <v>393</v>
       </c>
@@ -7424,7 +7424,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="418" spans="1:4" ht="21">
+    <row r="418" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A418" s="5" t="s">
         <v>393</v>
       </c>
@@ -7438,7 +7438,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="419" spans="1:4" ht="21">
+    <row r="419" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A419" s="5" t="s">
         <v>393</v>
       </c>
@@ -7452,7 +7452,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="420" spans="1:4" ht="21">
+    <row r="420" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A420" s="5" t="s">
         <v>393</v>
       </c>
@@ -7466,7 +7466,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="421" spans="1:4" ht="21">
+    <row r="421" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A421" s="5" t="s">
         <v>393</v>
       </c>
@@ -7480,7 +7480,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="422" spans="1:4" ht="21">
+    <row r="422" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A422" s="5" t="s">
         <v>393</v>
       </c>
@@ -7494,7 +7494,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="423" spans="1:4" ht="21">
+    <row r="423" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A423" s="5" t="s">
         <v>393</v>
       </c>
@@ -7508,7 +7508,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="424" spans="1:4" ht="21">
+    <row r="424" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A424" s="5" t="s">
         <v>393</v>
       </c>
@@ -7522,7 +7522,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="425" spans="1:4" ht="21">
+    <row r="425" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A425" s="5" t="s">
         <v>393</v>
       </c>
@@ -7536,7 +7536,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="426" spans="1:4" ht="21">
+    <row r="426" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A426" s="5" t="s">
         <v>393</v>
       </c>
@@ -7550,7 +7550,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="427" spans="1:4" ht="21">
+    <row r="427" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A427" s="5" t="s">
         <v>393</v>
       </c>
@@ -7564,7 +7564,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="428" spans="1:4" ht="21">
+    <row r="428" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A428" s="5" t="s">
         <v>393</v>
       </c>
@@ -7578,7 +7578,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="429" spans="1:4" ht="21">
+    <row r="429" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A429" s="5" t="s">
         <v>393</v>
       </c>
@@ -7592,7 +7592,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="430" spans="1:4" ht="21">
+    <row r="430" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A430" s="5" t="s">
         <v>393</v>
       </c>
@@ -7606,7 +7606,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="431" spans="1:4" ht="21">
+    <row r="431" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A431" s="5" t="s">
         <v>393</v>
       </c>
@@ -7620,7 +7620,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="432" spans="1:4" ht="21">
+    <row r="432" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A432" s="5" t="s">
         <v>393</v>
       </c>
@@ -7634,7 +7634,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="433" spans="1:4" ht="21">
+    <row r="433" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A433" s="5" t="s">
         <v>393</v>
       </c>
@@ -7648,7 +7648,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="434" spans="1:4" ht="21">
+    <row r="434" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A434" s="5" t="s">
         <v>393</v>
       </c>
@@ -7662,7 +7662,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="435" spans="1:4" ht="21">
+    <row r="435" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A435" s="5" t="s">
         <v>393</v>
       </c>
@@ -7676,7 +7676,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="436" spans="1:4" ht="21">
+    <row r="436" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A436" s="5" t="s">
         <v>393</v>
       </c>
@@ -7690,7 +7690,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="437" spans="1:4" ht="21">
+    <row r="437" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A437" s="5" t="s">
         <v>393</v>
       </c>
@@ -7704,7 +7704,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="438" spans="1:4" ht="21">
+    <row r="438" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A438" s="5" t="s">
         <v>393</v>
       </c>
@@ -7718,7 +7718,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="439" spans="1:4" ht="21">
+    <row r="439" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A439" s="5" t="s">
         <v>393</v>
       </c>
@@ -7732,7 +7732,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="440" spans="1:4" ht="21">
+    <row r="440" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A440" s="5" t="s">
         <v>393</v>
       </c>
@@ -7746,7 +7746,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="441" spans="1:4" ht="21">
+    <row r="441" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A441" s="5" t="s">
         <v>393</v>
       </c>
@@ -7760,7 +7760,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="442" spans="1:4" ht="21">
+    <row r="442" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A442" s="5" t="s">
         <v>393</v>
       </c>
@@ -7774,7 +7774,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="443" spans="1:4" ht="21">
+    <row r="443" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A443" s="5" t="s">
         <v>393</v>
       </c>
@@ -7788,7 +7788,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="444" spans="1:4" ht="21">
+    <row r="444" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A444" s="5" t="s">
         <v>393</v>
       </c>
@@ -7802,7 +7802,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="445" spans="1:4" ht="21">
+    <row r="445" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A445" s="5" t="s">
         <v>393</v>
       </c>
@@ -7816,7 +7816,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="446" spans="1:4" ht="21">
+    <row r="446" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A446" s="5" t="s">
         <v>393</v>
       </c>
@@ -7830,7 +7830,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="447" spans="1:4" ht="21">
+    <row r="447" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A447" s="5" t="s">
         <v>393</v>
       </c>
@@ -7844,7 +7844,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="448" spans="1:4" ht="21">
+    <row r="448" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A448" s="5" t="s">
         <v>393</v>
       </c>
@@ -7858,7 +7858,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="449" spans="1:4" ht="21">
+    <row r="449" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A449" s="5" t="s">
         <v>393</v>
       </c>
@@ -7872,7 +7872,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="450" spans="1:4" ht="21">
+    <row r="450" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A450" s="5" t="s">
         <v>393</v>
       </c>
@@ -7886,7 +7886,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="451" spans="1:4" ht="21">
+    <row r="451" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A451" s="5" t="s">
         <v>393</v>
       </c>
@@ -7900,7 +7900,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="452" spans="1:4" ht="21">
+    <row r="452" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A452" s="5" t="s">
         <v>393</v>
       </c>
@@ -7914,7 +7914,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="453" spans="1:4" ht="21">
+    <row r="453" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A453" s="5" t="s">
         <v>393</v>
       </c>
@@ -7928,7 +7928,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="454" spans="1:4" ht="21">
+    <row r="454" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A454" s="5" t="s">
         <v>393</v>
       </c>
@@ -7942,7 +7942,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="455" spans="1:4" ht="21">
+    <row r="455" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A455" s="5" t="s">
         <v>393</v>
       </c>
@@ -7956,7 +7956,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="456" spans="1:4" ht="21">
+    <row r="456" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A456" s="5" t="s">
         <v>393</v>
       </c>
@@ -7970,7 +7970,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="457" spans="1:4" ht="21">
+    <row r="457" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A457" s="5" t="s">
         <v>393</v>
       </c>
@@ -7984,7 +7984,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="458" spans="1:4" ht="21">
+    <row r="458" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A458" s="5" t="s">
         <v>393</v>
       </c>
@@ -7998,7 +7998,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="459" spans="1:4" ht="21">
+    <row r="459" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A459" s="5" t="s">
         <v>393</v>
       </c>
@@ -8012,7 +8012,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="460" spans="1:4" ht="21">
+    <row r="460" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A460" s="5" t="s">
         <v>393</v>
       </c>
@@ -8026,7 +8026,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="461" spans="1:4" ht="21">
+    <row r="461" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A461" s="5" t="s">
         <v>393</v>
       </c>
@@ -8040,7 +8040,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="462" spans="1:4" ht="21">
+    <row r="462" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A462" s="5" t="s">
         <v>393</v>
       </c>
@@ -8054,7 +8054,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="463" spans="1:4" ht="21">
+    <row r="463" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A463" s="5" t="s">
         <v>393</v>
       </c>
@@ -8068,7 +8068,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="464" spans="1:4" ht="21">
+    <row r="464" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A464" s="5" t="s">
         <v>393</v>
       </c>
@@ -8082,7 +8082,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="465" spans="1:4" ht="21">
+    <row r="465" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A465" s="5" t="s">
         <v>393</v>
       </c>
@@ -8096,7 +8096,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="466" spans="1:4" ht="21">
+    <row r="466" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A466" s="5" t="s">
         <v>393</v>
       </c>
@@ -8110,7 +8110,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="467" spans="1:4" ht="21">
+    <row r="467" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A467" s="5" t="s">
         <v>393</v>
       </c>
@@ -8124,7 +8124,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="468" spans="1:4" ht="21">
+    <row r="468" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A468" s="5" t="s">
         <v>393</v>
       </c>
@@ -8138,7 +8138,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="469" spans="1:4" ht="21">
+    <row r="469" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A469" s="5" t="s">
         <v>393</v>
       </c>
@@ -8152,16 +8152,16 @@
         <v>438</v>
       </c>
     </row>
-    <row r="470" spans="1:4" ht="21">
+    <row r="470" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="B470" s="7"/>
       <c r="C470" s="4"/>
     </row>
-    <row r="471" spans="1:4" ht="21">
+    <row r="471" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A471" s="8"/>
       <c r="B471" s="7"/>
       <c r="C471" s="4"/>
     </row>
-    <row r="472" spans="1:4" ht="21">
+    <row r="472" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A472" s="5" t="s">
         <v>453</v>
       </c>
@@ -8175,7 +8175,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="473" spans="1:4" ht="21">
+    <row r="473" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A473" s="5" t="s">
         <v>453</v>
       </c>
@@ -8189,7 +8189,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="474" spans="1:4" ht="21">
+    <row r="474" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A474" s="5" t="s">
         <v>453</v>
       </c>
@@ -8203,7 +8203,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="475" spans="1:4" ht="21">
+    <row r="475" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A475" s="5" t="s">
         <v>453</v>
       </c>
@@ -8217,7 +8217,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="476" spans="1:4" ht="21">
+    <row r="476" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A476" s="5" t="s">
         <v>453</v>
       </c>
@@ -8231,7 +8231,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="477" spans="1:4" ht="21">
+    <row r="477" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A477" s="5" t="s">
         <v>453</v>
       </c>
@@ -8245,7 +8245,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="478" spans="1:4" ht="21">
+    <row r="478" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A478" s="5" t="s">
         <v>453</v>
       </c>
@@ -8259,7 +8259,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="479" spans="1:4" ht="21">
+    <row r="479" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A479" s="5" t="s">
         <v>453</v>
       </c>
@@ -8273,7 +8273,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="480" spans="1:4" ht="21">
+    <row r="480" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A480" s="5" t="s">
         <v>453</v>
       </c>
@@ -8287,7 +8287,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="481" spans="1:4" ht="21">
+    <row r="481" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A481" s="5" t="s">
         <v>453</v>
       </c>

--- a/Problems/Final450/FINAL450.xlsx
+++ b/Problems/Final450/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\vdcodes\Programming\DSA\Problems\Final450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB05B16A-4CE1-4972-A746-073C214C301C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111860F5-6C83-40DD-AAF0-F84A00C3BF62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1888,8 +1888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" topLeftCell="A142" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C273" sqref="C273"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="B290" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G307" sqref="G307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5873,7 +5873,7 @@
       <c r="B301" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="C301" s="12" t="s">
+      <c r="C301" s="11" t="s">
         <v>4</v>
       </c>
       <c r="D301">

--- a/Problems/Final450/FINAL450.xlsx
+++ b/Problems/Final450/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\vdcodes\Programming\DSA\Problems\Final450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111860F5-6C83-40DD-AAF0-F84A00C3BF62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59372F17-88C0-43D1-B9EA-796C471F01D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1432,7 +1432,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1888,28 +1888,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" topLeftCell="B290" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G307" sqref="G307"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="A137" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C156" sqref="C156"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="28.5" customWidth="1"/>
     <col min="2" max="2" width="80.25" customWidth="1"/>
     <col min="3" max="3" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="B2" s="10" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="21">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1920,12 +1920,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="C5" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="21">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
@@ -1939,7 +1939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="21">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="21">
       <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="21">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
@@ -1981,7 +1981,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="21">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="21">
       <c r="A11" s="5" t="s">
         <v>5</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="21">
       <c r="A12" s="5" t="s">
         <v>5</v>
       </c>
@@ -2023,7 +2023,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="21">
       <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="21">
       <c r="A14" s="5" t="s">
         <v>5</v>
       </c>
@@ -2051,7 +2051,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="21">
       <c r="A15" s="5" t="s">
         <v>5</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="21">
       <c r="A16" s="5" t="s">
         <v>5</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="21">
       <c r="A17" s="5" t="s">
         <v>5</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="21">
       <c r="A18" s="5" t="s">
         <v>5</v>
       </c>
@@ -2107,7 +2107,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="21">
       <c r="A19" s="5" t="s">
         <v>5</v>
       </c>
@@ -2121,7 +2121,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="21">
       <c r="A20" s="5" t="s">
         <v>5</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="21">
       <c r="A21" s="5" t="s">
         <v>5</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="21">
       <c r="A22" s="5" t="s">
         <v>5</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="21">
       <c r="A23" s="5" t="s">
         <v>5</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="21">
       <c r="A24" s="5" t="s">
         <v>5</v>
       </c>
@@ -2191,7 +2191,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="21">
       <c r="A25" s="5" t="s">
         <v>5</v>
       </c>
@@ -2205,7 +2205,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="21">
       <c r="A26" s="5" t="s">
         <v>5</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="21">
       <c r="A27" s="5" t="s">
         <v>5</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="21">
       <c r="A28" s="5" t="s">
         <v>5</v>
       </c>
@@ -2247,7 +2247,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="21">
       <c r="A29" s="5" t="s">
         <v>5</v>
       </c>
@@ -2261,7 +2261,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="21">
       <c r="A30" s="5" t="s">
         <v>5</v>
       </c>
@@ -2275,7 +2275,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="21">
       <c r="A31" s="5" t="s">
         <v>5</v>
       </c>
@@ -2289,7 +2289,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="21">
       <c r="A32" s="5" t="s">
         <v>5</v>
       </c>
@@ -2303,7 +2303,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" ht="21">
       <c r="A33" s="5" t="s">
         <v>5</v>
       </c>
@@ -2317,7 +2317,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" ht="21">
       <c r="A34" s="5" t="s">
         <v>5</v>
       </c>
@@ -2331,7 +2331,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" ht="21">
       <c r="A35" s="5" t="s">
         <v>5</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" ht="21">
       <c r="A36" s="5" t="s">
         <v>5</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" ht="21">
       <c r="A37" s="5" t="s">
         <v>5</v>
       </c>
@@ -2373,7 +2373,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" ht="21">
       <c r="A38" s="5" t="s">
         <v>5</v>
       </c>
@@ -2387,7 +2387,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" ht="21">
       <c r="A39" s="5" t="s">
         <v>5</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" ht="21">
       <c r="A40" s="5" t="s">
         <v>5</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" ht="21">
       <c r="A41" s="5" t="s">
         <v>5</v>
       </c>
@@ -2429,16 +2429,16 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" ht="21">
       <c r="B42" s="7"/>
       <c r="C42" s="4"/>
     </row>
-    <row r="43" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" ht="21">
       <c r="A43" s="5"/>
       <c r="B43" s="7"/>
       <c r="C43" s="4"/>
     </row>
-    <row r="44" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" ht="21">
       <c r="A44" s="8" t="s">
         <v>42</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" ht="21">
       <c r="A45" s="8" t="s">
         <v>42</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" ht="21">
       <c r="A46" s="8" t="s">
         <v>42</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" ht="21">
       <c r="A47" s="8" t="s">
         <v>42</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" ht="21">
       <c r="A48" s="8" t="s">
         <v>42</v>
       </c>
@@ -2508,7 +2508,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" ht="21">
       <c r="A49" s="8" t="s">
         <v>42</v>
       </c>
@@ -2522,7 +2522,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" ht="21">
       <c r="A50" s="8" t="s">
         <v>42</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" ht="21">
       <c r="A51" s="8" t="s">
         <v>42</v>
       </c>
@@ -2550,7 +2550,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" ht="21">
       <c r="A52" s="8" t="s">
         <v>42</v>
       </c>
@@ -2564,7 +2564,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" ht="21">
       <c r="A53" s="8" t="s">
         <v>42</v>
       </c>
@@ -2578,12 +2578,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" ht="21">
       <c r="A55" s="5"/>
       <c r="B55" s="7"/>
       <c r="C55" s="4"/>
     </row>
-    <row r="56" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" ht="21">
       <c r="A56" s="5" t="s">
         <v>53</v>
       </c>
@@ -2597,7 +2597,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" ht="21">
       <c r="A57" s="5" t="s">
         <v>53</v>
       </c>
@@ -2611,7 +2611,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" ht="21">
       <c r="A58" s="5" t="s">
         <v>53</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" ht="21">
       <c r="A59" s="5" t="s">
         <v>53</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" ht="21">
       <c r="A60" s="5" t="s">
         <v>53</v>
       </c>
@@ -2653,7 +2653,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" ht="21">
       <c r="A61" s="5" t="s">
         <v>53</v>
       </c>
@@ -2667,7 +2667,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" ht="21">
       <c r="A62" s="5" t="s">
         <v>53</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" ht="21">
       <c r="A63" s="5" t="s">
         <v>53</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" ht="21">
       <c r="A64" s="5" t="s">
         <v>53</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" ht="21">
       <c r="A65" s="5" t="s">
         <v>53</v>
       </c>
@@ -2723,7 +2723,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" ht="21">
       <c r="A66" s="5" t="s">
         <v>53</v>
       </c>
@@ -2737,7 +2737,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" ht="21">
       <c r="A67" s="5" t="s">
         <v>53</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" ht="21">
       <c r="A68" s="5" t="s">
         <v>53</v>
       </c>
@@ -2765,7 +2765,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" ht="21">
       <c r="A69" s="5" t="s">
         <v>53</v>
       </c>
@@ -2779,7 +2779,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" ht="21">
       <c r="A70" s="5" t="s">
         <v>53</v>
       </c>
@@ -2793,7 +2793,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" ht="21">
       <c r="A71" s="5" t="s">
         <v>53</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" ht="21">
       <c r="A72" s="5" t="s">
         <v>53</v>
       </c>
@@ -2821,7 +2821,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" ht="21">
       <c r="A73" s="5" t="s">
         <v>53</v>
       </c>
@@ -2835,7 +2835,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" ht="21">
       <c r="A74" s="5" t="s">
         <v>53</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" ht="21">
       <c r="A75" s="5" t="s">
         <v>53</v>
       </c>
@@ -2863,7 +2863,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" ht="21">
       <c r="A76" s="5" t="s">
         <v>53</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" ht="21">
       <c r="A77" s="5" t="s">
         <v>53</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" ht="21">
       <c r="A78" s="5" t="s">
         <v>53</v>
       </c>
@@ -2905,7 +2905,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" ht="21">
       <c r="A79" s="5" t="s">
         <v>53</v>
       </c>
@@ -2919,7 +2919,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" ht="21">
       <c r="A80" s="5" t="s">
         <v>53</v>
       </c>
@@ -2933,7 +2933,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" ht="21">
       <c r="A81" s="5" t="s">
         <v>53</v>
       </c>
@@ -2947,7 +2947,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" ht="21">
       <c r="A82" s="5" t="s">
         <v>53</v>
       </c>
@@ -2961,7 +2961,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" ht="21">
       <c r="A83" s="5" t="s">
         <v>53</v>
       </c>
@@ -2975,7 +2975,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" ht="21">
       <c r="A84" s="5" t="s">
         <v>53</v>
       </c>
@@ -2989,7 +2989,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" ht="21">
       <c r="A85" s="5" t="s">
         <v>53</v>
       </c>
@@ -3003,7 +3003,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" ht="21">
       <c r="A86" s="5" t="s">
         <v>53</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" ht="21">
       <c r="A87" s="5" t="s">
         <v>53</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" ht="21">
       <c r="A88" s="5" t="s">
         <v>53</v>
       </c>
@@ -3045,7 +3045,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" ht="21">
       <c r="A89" s="5" t="s">
         <v>53</v>
       </c>
@@ -3059,7 +3059,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" ht="21">
       <c r="A90" s="5" t="s">
         <v>53</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" ht="21">
       <c r="A91" s="5" t="s">
         <v>53</v>
       </c>
@@ -3087,7 +3087,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" ht="21">
       <c r="A92" s="5" t="s">
         <v>53</v>
       </c>
@@ -3101,7 +3101,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" ht="21">
       <c r="A93" s="5" t="s">
         <v>53</v>
       </c>
@@ -3115,7 +3115,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" ht="21">
       <c r="A94" s="5" t="s">
         <v>53</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" ht="21">
       <c r="A95" s="5" t="s">
         <v>53</v>
       </c>
@@ -3143,7 +3143,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" ht="21">
       <c r="A96" s="5" t="s">
         <v>53</v>
       </c>
@@ -3157,7 +3157,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" ht="21">
       <c r="A97" s="5" t="s">
         <v>53</v>
       </c>
@@ -3171,7 +3171,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" ht="21">
       <c r="A98" s="5" t="s">
         <v>53</v>
       </c>
@@ -3185,12 +3185,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" ht="21">
       <c r="A100" s="8"/>
       <c r="B100" s="7"/>
       <c r="C100" s="4"/>
     </row>
-    <row r="101" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" ht="21">
       <c r="A101" s="5" t="s">
         <v>97</v>
       </c>
@@ -3204,7 +3204,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" ht="21">
       <c r="A102" s="5" t="s">
         <v>97</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" ht="21">
       <c r="A103" s="5" t="s">
         <v>97</v>
       </c>
@@ -3232,7 +3232,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" ht="21">
       <c r="A104" s="5" t="s">
         <v>97</v>
       </c>
@@ -3246,7 +3246,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" ht="21">
       <c r="A105" s="5" t="s">
         <v>97</v>
       </c>
@@ -3260,7 +3260,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" ht="21">
       <c r="A106" s="5" t="s">
         <v>97</v>
       </c>
@@ -3274,7 +3274,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" ht="21">
       <c r="A107" s="5" t="s">
         <v>97</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" ht="21">
       <c r="A108" s="5" t="s">
         <v>97</v>
       </c>
@@ -3302,7 +3302,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" ht="21">
       <c r="A109" s="5" t="s">
         <v>97</v>
       </c>
@@ -3316,7 +3316,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" ht="21">
       <c r="A110" s="5" t="s">
         <v>97</v>
       </c>
@@ -3330,7 +3330,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" ht="21">
       <c r="A111" s="5" t="s">
         <v>97</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" ht="21">
       <c r="A112" s="5" t="s">
         <v>97</v>
       </c>
@@ -3358,7 +3358,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" ht="21">
       <c r="A113" s="5" t="s">
         <v>97</v>
       </c>
@@ -3372,7 +3372,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" ht="21">
       <c r="A114" s="5" t="s">
         <v>97</v>
       </c>
@@ -3386,7 +3386,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" ht="21">
       <c r="A115" s="5" t="s">
         <v>97</v>
       </c>
@@ -3400,7 +3400,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" ht="21">
       <c r="A116" s="5" t="s">
         <v>97</v>
       </c>
@@ -3414,7 +3414,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" ht="21">
       <c r="A117" s="5" t="s">
         <v>97</v>
       </c>
@@ -3428,7 +3428,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" ht="21">
       <c r="A118" s="5" t="s">
         <v>97</v>
       </c>
@@ -3442,7 +3442,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" ht="21">
       <c r="A119" s="5" t="s">
         <v>97</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" ht="21">
       <c r="A120" s="5" t="s">
         <v>97</v>
       </c>
@@ -3470,7 +3470,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" ht="21">
       <c r="A121" s="5" t="s">
         <v>97</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" ht="21">
       <c r="A122" s="5" t="s">
         <v>97</v>
       </c>
@@ -3498,7 +3498,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" ht="21">
       <c r="A123" s="5" t="s">
         <v>97</v>
       </c>
@@ -3512,7 +3512,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" ht="21">
       <c r="A124" s="5" t="s">
         <v>97</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" ht="21">
       <c r="A125" s="5" t="s">
         <v>97</v>
       </c>
@@ -3540,7 +3540,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" ht="21">
       <c r="A126" s="5" t="s">
         <v>97</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" ht="21">
       <c r="A127" s="5" t="s">
         <v>97</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" ht="21">
       <c r="A128" s="5" t="s">
         <v>97</v>
       </c>
@@ -3582,7 +3582,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" ht="21">
       <c r="A129" s="5" t="s">
         <v>97</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" ht="21">
       <c r="A130" s="5" t="s">
         <v>97</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" ht="21">
       <c r="A131" s="5" t="s">
         <v>97</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" ht="21">
       <c r="A132" s="5" t="s">
         <v>97</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" ht="21">
       <c r="A133" s="5" t="s">
         <v>97</v>
       </c>
@@ -3652,7 +3652,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" ht="21">
       <c r="A134" s="5" t="s">
         <v>97</v>
       </c>
@@ -3666,7 +3666,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" ht="21">
       <c r="A135" s="5" t="s">
         <v>97</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" ht="21">
       <c r="A136" s="5" t="s">
         <v>97</v>
       </c>
@@ -3694,14 +3694,14 @@
         <v>125</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4">
       <c r="C137" s="15"/>
     </row>
-    <row r="138" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" ht="21">
       <c r="B138" s="7"/>
       <c r="C138" s="4"/>
     </row>
-    <row r="139" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" ht="21">
       <c r="A139" s="8" t="s">
         <v>134</v>
       </c>
@@ -3715,7 +3715,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" ht="21">
       <c r="A140" s="8" t="s">
         <v>134</v>
       </c>
@@ -3729,7 +3729,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" ht="21">
       <c r="A141" s="8" t="s">
         <v>134</v>
       </c>
@@ -3743,7 +3743,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" ht="21">
       <c r="A142" s="8" t="s">
         <v>134</v>
       </c>
@@ -3757,7 +3757,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" ht="21">
       <c r="A143" s="8" t="s">
         <v>134</v>
       </c>
@@ -3771,7 +3771,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" ht="21">
       <c r="A144" s="8" t="s">
         <v>134</v>
       </c>
@@ -3785,7 +3785,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" ht="21">
       <c r="A145" s="8" t="s">
         <v>134</v>
       </c>
@@ -3799,7 +3799,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" ht="21">
       <c r="A146" s="8" t="s">
         <v>134</v>
       </c>
@@ -3813,7 +3813,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" ht="21">
       <c r="A147" s="8" t="s">
         <v>134</v>
       </c>
@@ -3827,7 +3827,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" ht="21">
       <c r="A148" s="8" t="s">
         <v>134</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" ht="21">
       <c r="A149" s="8" t="s">
         <v>134</v>
       </c>
@@ -3855,7 +3855,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" ht="21">
       <c r="A150" s="8" t="s">
         <v>134</v>
       </c>
@@ -3869,7 +3869,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" ht="21">
       <c r="A151" s="8" t="s">
         <v>134</v>
       </c>
@@ -3883,7 +3883,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" ht="21">
       <c r="A152" s="8" t="s">
         <v>134</v>
       </c>
@@ -3897,7 +3897,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" ht="21">
       <c r="A153" s="8" t="s">
         <v>134</v>
       </c>
@@ -3911,7 +3911,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" ht="21">
       <c r="A154" s="8" t="s">
         <v>134</v>
       </c>
@@ -3925,7 +3925,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" ht="21">
       <c r="A155" s="8" t="s">
         <v>134</v>
       </c>
@@ -3939,21 +3939,21 @@
         <v>142</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" ht="21">
       <c r="A156" s="8" t="s">
         <v>134</v>
       </c>
       <c r="B156" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="C156" s="12" t="s">
+      <c r="C156" s="11" t="s">
         <v>4</v>
       </c>
       <c r="D156">
         <v>143</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" ht="21">
       <c r="A157" s="8" t="s">
         <v>134</v>
       </c>
@@ -3967,7 +3967,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" ht="21">
       <c r="A158" s="8" t="s">
         <v>134</v>
       </c>
@@ -3981,7 +3981,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" ht="21">
       <c r="A159" s="8" t="s">
         <v>134</v>
       </c>
@@ -3995,7 +3995,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" ht="21">
       <c r="A160" s="8" t="s">
         <v>134</v>
       </c>
@@ -4009,7 +4009,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" ht="21">
       <c r="A161" s="8" t="s">
         <v>134</v>
       </c>
@@ -4023,7 +4023,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" ht="21">
       <c r="A162" s="8" t="s">
         <v>134</v>
       </c>
@@ -4037,7 +4037,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" ht="21">
       <c r="A163" s="8" t="s">
         <v>134</v>
       </c>
@@ -4051,7 +4051,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" ht="21">
       <c r="A164" s="8" t="s">
         <v>134</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" ht="21">
       <c r="A165" s="8" t="s">
         <v>134</v>
       </c>
@@ -4079,7 +4079,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" ht="21">
       <c r="A166" s="8" t="s">
         <v>134</v>
       </c>
@@ -4093,7 +4093,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" ht="21">
       <c r="A167" s="8" t="s">
         <v>134</v>
       </c>
@@ -4107,7 +4107,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" ht="21">
       <c r="A168" s="8" t="s">
         <v>134</v>
       </c>
@@ -4121,7 +4121,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" ht="21">
       <c r="A169" s="8" t="s">
         <v>134</v>
       </c>
@@ -4135,7 +4135,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" ht="21">
       <c r="A170" s="8" t="s">
         <v>134</v>
       </c>
@@ -4149,7 +4149,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" ht="21">
       <c r="A171" s="8" t="s">
         <v>134</v>
       </c>
@@ -4163,7 +4163,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" ht="21">
       <c r="A172" s="8" t="s">
         <v>134</v>
       </c>
@@ -4177,7 +4177,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" ht="21">
       <c r="A173" s="8" t="s">
         <v>134</v>
       </c>
@@ -4191,7 +4191,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" ht="21">
       <c r="A174" s="8" t="s">
         <v>134</v>
       </c>
@@ -4205,11 +4205,11 @@
         <v>161</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" ht="21">
       <c r="B176" s="7"/>
       <c r="C176" s="4"/>
     </row>
-    <row r="177" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" ht="21">
       <c r="A177" s="5" t="s">
         <v>171</v>
       </c>
@@ -4223,7 +4223,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:4" ht="21">
       <c r="A178" s="5" t="s">
         <v>171</v>
       </c>
@@ -4237,7 +4237,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:4" ht="21">
       <c r="A179" s="5" t="s">
         <v>171</v>
       </c>
@@ -4251,7 +4251,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:4" ht="21">
       <c r="A180" s="5" t="s">
         <v>171</v>
       </c>
@@ -4265,7 +4265,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:4" ht="21">
       <c r="A181" s="5" t="s">
         <v>171</v>
       </c>
@@ -4279,7 +4279,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:4" ht="21">
       <c r="A182" s="5" t="s">
         <v>171</v>
       </c>
@@ -4293,7 +4293,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:4" ht="21">
       <c r="A183" s="5" t="s">
         <v>171</v>
       </c>
@@ -4307,7 +4307,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:4" ht="21">
       <c r="A184" s="5" t="s">
         <v>171</v>
       </c>
@@ -4321,7 +4321,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:4" ht="21">
       <c r="A185" s="5" t="s">
         <v>171</v>
       </c>
@@ -4335,7 +4335,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:4" ht="21">
       <c r="A186" s="5" t="s">
         <v>171</v>
       </c>
@@ -4349,7 +4349,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:4" ht="21">
       <c r="A187" s="5" t="s">
         <v>171</v>
       </c>
@@ -4363,7 +4363,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:4" ht="21">
       <c r="A188" s="5" t="s">
         <v>171</v>
       </c>
@@ -4377,7 +4377,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:4" ht="21">
       <c r="A189" s="5" t="s">
         <v>171</v>
       </c>
@@ -4391,7 +4391,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:4" ht="21">
       <c r="A190" s="5" t="s">
         <v>171</v>
       </c>
@@ -4405,7 +4405,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:4" ht="21">
       <c r="A191" s="5" t="s">
         <v>171</v>
       </c>
@@ -4419,7 +4419,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:4" ht="21">
       <c r="A192" s="5" t="s">
         <v>171</v>
       </c>
@@ -4433,7 +4433,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:4" ht="21">
       <c r="A193" s="5" t="s">
         <v>171</v>
       </c>
@@ -4447,7 +4447,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:4" ht="21">
       <c r="A194" s="5" t="s">
         <v>171</v>
       </c>
@@ -4461,7 +4461,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:4" ht="21">
       <c r="A195" s="5" t="s">
         <v>171</v>
       </c>
@@ -4475,7 +4475,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" ht="21">
       <c r="A196" s="5" t="s">
         <v>171</v>
       </c>
@@ -4489,7 +4489,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:4" ht="21">
       <c r="A197" s="5" t="s">
         <v>171</v>
       </c>
@@ -4503,7 +4503,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:4" ht="21">
       <c r="A198" s="5" t="s">
         <v>171</v>
       </c>
@@ -4517,7 +4517,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:4" ht="21">
       <c r="A199" s="5" t="s">
         <v>171</v>
       </c>
@@ -4531,7 +4531,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:4" ht="21">
       <c r="A200" s="5" t="s">
         <v>171</v>
       </c>
@@ -4545,7 +4545,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:4" ht="21">
       <c r="A201" s="5" t="s">
         <v>171</v>
       </c>
@@ -4559,7 +4559,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:4" ht="21">
       <c r="A202" s="5" t="s">
         <v>171</v>
       </c>
@@ -4573,7 +4573,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:4" ht="21">
       <c r="A203" s="5" t="s">
         <v>171</v>
       </c>
@@ -4587,7 +4587,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:4" ht="21">
       <c r="A204" s="5" t="s">
         <v>171</v>
       </c>
@@ -4601,7 +4601,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:4" ht="21">
       <c r="A205" s="5" t="s">
         <v>171</v>
       </c>
@@ -4615,7 +4615,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:4" ht="21">
       <c r="A206" s="5" t="s">
         <v>171</v>
       </c>
@@ -4629,7 +4629,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:4" ht="21">
       <c r="A207" s="5" t="s">
         <v>171</v>
       </c>
@@ -4643,7 +4643,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:4" ht="21">
       <c r="A208" s="5" t="s">
         <v>171</v>
       </c>
@@ -4657,7 +4657,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:4" ht="21">
       <c r="A209" s="5" t="s">
         <v>171</v>
       </c>
@@ -4671,7 +4671,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:4" ht="21">
       <c r="A210" s="5" t="s">
         <v>171</v>
       </c>
@@ -4685,7 +4685,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:4" ht="21">
       <c r="A211" s="5" t="s">
         <v>171</v>
       </c>
@@ -4699,16 +4699,16 @@
         <v>196</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:4" ht="21">
       <c r="A212" s="8"/>
       <c r="B212" s="7"/>
     </row>
-    <row r="213" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:4" ht="21">
       <c r="A213" s="8"/>
       <c r="B213" s="7"/>
       <c r="C213" s="13"/>
     </row>
-    <row r="214" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:4" ht="21">
       <c r="A214" s="5" t="s">
         <v>207</v>
       </c>
@@ -4722,7 +4722,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:4" ht="21">
       <c r="A215" s="5" t="s">
         <v>207</v>
       </c>
@@ -4736,7 +4736,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:4" ht="21">
       <c r="A216" s="5" t="s">
         <v>207</v>
       </c>
@@ -4750,7 +4750,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:4" ht="21">
       <c r="A217" s="5" t="s">
         <v>207</v>
       </c>
@@ -4764,7 +4764,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:4" ht="21">
       <c r="A218" s="5" t="s">
         <v>207</v>
       </c>
@@ -4778,7 +4778,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:4" ht="21">
       <c r="A219" s="5" t="s">
         <v>207</v>
       </c>
@@ -4792,7 +4792,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:4" ht="21">
       <c r="A220" s="5" t="s">
         <v>207</v>
       </c>
@@ -4806,7 +4806,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:4" ht="21">
       <c r="A221" s="5" t="s">
         <v>207</v>
       </c>
@@ -4820,7 +4820,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:4" ht="21">
       <c r="A222" s="5" t="s">
         <v>207</v>
       </c>
@@ -4834,7 +4834,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:4" ht="21">
       <c r="A223" s="5" t="s">
         <v>207</v>
       </c>
@@ -4848,7 +4848,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:4" ht="21">
       <c r="A224" s="5" t="s">
         <v>207</v>
       </c>
@@ -4862,7 +4862,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:4" ht="21">
       <c r="A225" s="5" t="s">
         <v>207</v>
       </c>
@@ -4876,7 +4876,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:4" ht="21">
       <c r="A226" s="5" t="s">
         <v>207</v>
       </c>
@@ -4890,7 +4890,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:4" ht="21">
       <c r="A227" s="5" t="s">
         <v>207</v>
       </c>
@@ -4904,7 +4904,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:4" ht="21">
       <c r="A228" s="5" t="s">
         <v>207</v>
       </c>
@@ -4918,7 +4918,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:4" ht="21">
       <c r="A229" s="5" t="s">
         <v>207</v>
       </c>
@@ -4932,7 +4932,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:4" ht="21">
       <c r="A230" s="5" t="s">
         <v>207</v>
       </c>
@@ -4946,7 +4946,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:4" ht="21">
       <c r="A231" s="5" t="s">
         <v>207</v>
       </c>
@@ -4960,7 +4960,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:4" ht="21">
       <c r="A232" s="5" t="s">
         <v>207</v>
       </c>
@@ -4974,7 +4974,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:4" ht="21">
       <c r="A233" s="5" t="s">
         <v>207</v>
       </c>
@@ -4988,7 +4988,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:4" ht="21">
       <c r="A234" s="5" t="s">
         <v>207</v>
       </c>
@@ -5002,7 +5002,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:4" ht="21">
       <c r="A235" s="5" t="s">
         <v>207</v>
       </c>
@@ -5016,15 +5016,15 @@
         <v>218</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:4" ht="21">
       <c r="B236" s="7"/>
       <c r="C236" s="4"/>
     </row>
-    <row r="237" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:4" ht="21">
       <c r="B237" s="7"/>
       <c r="C237" s="4"/>
     </row>
-    <row r="238" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:4" ht="21">
       <c r="A238" s="5" t="s">
         <v>230</v>
       </c>
@@ -5038,7 +5038,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:4" ht="21">
       <c r="A239" s="5" t="s">
         <v>230</v>
       </c>
@@ -5052,7 +5052,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:4" ht="21">
       <c r="A240" s="5" t="s">
         <v>230</v>
       </c>
@@ -5066,7 +5066,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:4" ht="21">
       <c r="A241" s="5" t="s">
         <v>230</v>
       </c>
@@ -5080,7 +5080,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:4" ht="21">
       <c r="A242" s="5" t="s">
         <v>230</v>
       </c>
@@ -5094,7 +5094,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:4" ht="21">
       <c r="A243" s="5" t="s">
         <v>230</v>
       </c>
@@ -5108,7 +5108,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:4" ht="21">
       <c r="A244" s="5" t="s">
         <v>230</v>
       </c>
@@ -5122,7 +5122,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:4" ht="21">
       <c r="A245" s="5" t="s">
         <v>230</v>
       </c>
@@ -5136,7 +5136,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:4" ht="21">
       <c r="A246" s="5" t="s">
         <v>230</v>
       </c>
@@ -5150,7 +5150,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:4" ht="21">
       <c r="A247" s="5" t="s">
         <v>230</v>
       </c>
@@ -5164,7 +5164,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:4" ht="21">
       <c r="A248" s="5" t="s">
         <v>230</v>
       </c>
@@ -5178,7 +5178,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:4" ht="21">
       <c r="A249" s="5" t="s">
         <v>230</v>
       </c>
@@ -5192,7 +5192,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:4" ht="21">
       <c r="A250" s="5" t="s">
         <v>230</v>
       </c>
@@ -5206,7 +5206,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:4" ht="21">
       <c r="A251" s="5" t="s">
         <v>230</v>
       </c>
@@ -5220,7 +5220,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:4" ht="21">
       <c r="A252" s="5" t="s">
         <v>230</v>
       </c>
@@ -5234,7 +5234,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:4" ht="21">
       <c r="A253" s="5" t="s">
         <v>230</v>
       </c>
@@ -5248,7 +5248,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:4" ht="21">
       <c r="A254" s="5" t="s">
         <v>230</v>
       </c>
@@ -5262,7 +5262,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:4" ht="21">
       <c r="A255" s="5" t="s">
         <v>230</v>
       </c>
@@ -5276,7 +5276,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:4" ht="21">
       <c r="A256" s="5" t="s">
         <v>230</v>
       </c>
@@ -5290,7 +5290,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:4" ht="21">
       <c r="A257" s="5" t="s">
         <v>230</v>
       </c>
@@ -5304,7 +5304,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:4" ht="21">
       <c r="A258" s="5" t="s">
         <v>230</v>
       </c>
@@ -5318,7 +5318,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:4" ht="21">
       <c r="A259" s="5" t="s">
         <v>230</v>
       </c>
@@ -5332,7 +5332,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:4" ht="21">
       <c r="A260" s="5" t="s">
         <v>230</v>
       </c>
@@ -5346,7 +5346,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:4" ht="21">
       <c r="A261" s="5" t="s">
         <v>230</v>
       </c>
@@ -5360,7 +5360,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:4" ht="21">
       <c r="A262" s="5" t="s">
         <v>230</v>
       </c>
@@ -5374,7 +5374,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:4" ht="21">
       <c r="A263" s="5" t="s">
         <v>230</v>
       </c>
@@ -5388,7 +5388,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:4" ht="21">
       <c r="A264" s="5" t="s">
         <v>230</v>
       </c>
@@ -5402,7 +5402,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:4" ht="21">
       <c r="A265" s="5" t="s">
         <v>230</v>
       </c>
@@ -5416,7 +5416,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:4" ht="21">
       <c r="A266" s="5" t="s">
         <v>230</v>
       </c>
@@ -5430,7 +5430,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:4" ht="21">
       <c r="A267" s="5" t="s">
         <v>230</v>
       </c>
@@ -5444,7 +5444,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:4" ht="21">
       <c r="A268" s="5" t="s">
         <v>230</v>
       </c>
@@ -5458,7 +5458,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:4" ht="21">
       <c r="A269" s="5" t="s">
         <v>230</v>
       </c>
@@ -5472,7 +5472,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:4" ht="21">
       <c r="A270" s="5" t="s">
         <v>230</v>
       </c>
@@ -5486,7 +5486,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:4" ht="21">
       <c r="A271" s="5" t="s">
         <v>230</v>
       </c>
@@ -5500,7 +5500,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:4" ht="21">
       <c r="A272" s="5" t="s">
         <v>230</v>
       </c>
@@ -5514,15 +5514,15 @@
         <v>253</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:4" ht="21">
       <c r="B273" s="7"/>
       <c r="C273" s="4"/>
     </row>
-    <row r="274" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:4" ht="21">
       <c r="B274" s="7"/>
       <c r="C274" s="4"/>
     </row>
-    <row r="275" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:4" ht="21">
       <c r="A275" s="5" t="s">
         <v>265</v>
       </c>
@@ -5536,7 +5536,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:4" ht="21">
       <c r="A276" s="5" t="s">
         <v>265</v>
       </c>
@@ -5550,7 +5550,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:4" ht="21">
       <c r="A277" s="5" t="s">
         <v>265</v>
       </c>
@@ -5564,7 +5564,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:4" ht="21">
       <c r="A278" s="5" t="s">
         <v>265</v>
       </c>
@@ -5578,7 +5578,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:4" ht="21">
       <c r="A279" s="5" t="s">
         <v>265</v>
       </c>
@@ -5592,7 +5592,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:4" ht="21">
       <c r="A280" s="5" t="s">
         <v>265</v>
       </c>
@@ -5606,7 +5606,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:4" ht="21">
       <c r="A281" s="5" t="s">
         <v>265</v>
       </c>
@@ -5620,7 +5620,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:4" ht="21">
       <c r="A282" s="5" t="s">
         <v>265</v>
       </c>
@@ -5634,7 +5634,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:4" ht="21">
       <c r="A283" s="5" t="s">
         <v>265</v>
       </c>
@@ -5648,7 +5648,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:4" ht="21">
       <c r="A284" s="5" t="s">
         <v>265</v>
       </c>
@@ -5662,7 +5662,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:4" ht="21">
       <c r="A285" s="5" t="s">
         <v>265</v>
       </c>
@@ -5676,7 +5676,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:4" ht="21">
       <c r="A286" s="5" t="s">
         <v>265</v>
       </c>
@@ -5690,7 +5690,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:4" ht="21">
       <c r="A287" s="5" t="s">
         <v>265</v>
       </c>
@@ -5704,7 +5704,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:4" ht="21">
       <c r="A288" s="5" t="s">
         <v>265</v>
       </c>
@@ -5718,7 +5718,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:4" ht="21">
       <c r="A289" s="5" t="s">
         <v>265</v>
       </c>
@@ -5732,7 +5732,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:4" ht="21">
       <c r="A290" s="5" t="s">
         <v>265</v>
       </c>
@@ -5746,7 +5746,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:4" ht="21">
       <c r="A291" s="5" t="s">
         <v>265</v>
       </c>
@@ -5760,7 +5760,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:4" ht="21">
       <c r="A292" s="5" t="s">
         <v>265</v>
       </c>
@@ -5774,7 +5774,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:4" ht="21">
       <c r="A293" s="5" t="s">
         <v>265</v>
       </c>
@@ -5788,15 +5788,15 @@
         <v>272</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:4" ht="21">
       <c r="B294" s="7"/>
       <c r="C294" s="4"/>
     </row>
-    <row r="295" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:4" ht="21">
       <c r="B295" s="7"/>
       <c r="C295" s="4"/>
     </row>
-    <row r="296" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:4" ht="21">
       <c r="A296" s="5" t="s">
         <v>285</v>
       </c>
@@ -5810,7 +5810,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:4" ht="21">
       <c r="A297" s="5" t="s">
         <v>285</v>
       </c>
@@ -5824,7 +5824,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:4" ht="21">
       <c r="A298" s="5" t="s">
         <v>285</v>
       </c>
@@ -5838,7 +5838,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:4" ht="21">
       <c r="A299" s="5" t="s">
         <v>285</v>
       </c>
@@ -5852,7 +5852,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:4" ht="21">
       <c r="A300" s="5" t="s">
         <v>285</v>
       </c>
@@ -5866,7 +5866,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:4" ht="21">
       <c r="A301" s="5" t="s">
         <v>285</v>
       </c>
@@ -5880,7 +5880,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:4" ht="21">
       <c r="A302" s="5" t="s">
         <v>285</v>
       </c>
@@ -5894,7 +5894,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:4" ht="21">
       <c r="A303" s="5" t="s">
         <v>285</v>
       </c>
@@ -5908,7 +5908,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:4" ht="21">
       <c r="A304" s="5" t="s">
         <v>285</v>
       </c>
@@ -5922,7 +5922,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:4" ht="21">
       <c r="A305" s="5" t="s">
         <v>285</v>
       </c>
@@ -5936,7 +5936,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:4" ht="21">
       <c r="A306" s="5" t="s">
         <v>285</v>
       </c>
@@ -5950,7 +5950,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:4" ht="21">
       <c r="A307" s="5" t="s">
         <v>285</v>
       </c>
@@ -5964,7 +5964,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:4" ht="21">
       <c r="A308" s="5" t="s">
         <v>285</v>
       </c>
@@ -5978,7 +5978,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:4" ht="21">
       <c r="A309" s="5" t="s">
         <v>285</v>
       </c>
@@ -5992,7 +5992,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:4" ht="21">
       <c r="A310" s="5" t="s">
         <v>285</v>
       </c>
@@ -6006,7 +6006,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:4" ht="21">
       <c r="A311" s="5" t="s">
         <v>285</v>
       </c>
@@ -6020,7 +6020,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:4" ht="21">
       <c r="A312" s="5" t="s">
         <v>285</v>
       </c>
@@ -6034,7 +6034,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:4" ht="21">
       <c r="A313" s="5" t="s">
         <v>285</v>
       </c>
@@ -6048,7 +6048,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:4" ht="21">
       <c r="A314" s="5" t="s">
         <v>285</v>
       </c>
@@ -6062,7 +6062,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:4" ht="21">
       <c r="A315" s="5" t="s">
         <v>285</v>
       </c>
@@ -6076,7 +6076,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:4" ht="21">
       <c r="A316" s="5" t="s">
         <v>285</v>
       </c>
@@ -6090,7 +6090,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:4" ht="21">
       <c r="A317" s="5" t="s">
         <v>285</v>
       </c>
@@ -6104,7 +6104,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:4" ht="21">
       <c r="A318" s="5" t="s">
         <v>285</v>
       </c>
@@ -6118,7 +6118,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:4" ht="21">
       <c r="A319" s="5" t="s">
         <v>285</v>
       </c>
@@ -6132,7 +6132,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:4" ht="21">
       <c r="A320" s="5" t="s">
         <v>285</v>
       </c>
@@ -6146,7 +6146,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:4" ht="21">
       <c r="A321" s="5" t="s">
         <v>285</v>
       </c>
@@ -6160,7 +6160,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:4" ht="21">
       <c r="A322" s="5" t="s">
         <v>285</v>
       </c>
@@ -6174,7 +6174,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:4" ht="21">
       <c r="A323" s="5" t="s">
         <v>285</v>
       </c>
@@ -6188,7 +6188,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:4" ht="21">
       <c r="A324" s="5" t="s">
         <v>285</v>
       </c>
@@ -6202,7 +6202,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:4" ht="21">
       <c r="A325" s="5" t="s">
         <v>285</v>
       </c>
@@ -6216,7 +6216,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:4" ht="21">
       <c r="A326" s="5" t="s">
         <v>285</v>
       </c>
@@ -6230,7 +6230,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:4" ht="21">
       <c r="A327" s="5" t="s">
         <v>285</v>
       </c>
@@ -6244,7 +6244,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:4" ht="21">
       <c r="A328" s="5" t="s">
         <v>285</v>
       </c>
@@ -6258,7 +6258,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:4" ht="21">
       <c r="A329" s="5" t="s">
         <v>285</v>
       </c>
@@ -6272,7 +6272,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:4" ht="21">
       <c r="A330" s="5" t="s">
         <v>285</v>
       </c>
@@ -6286,7 +6286,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:4" ht="21">
       <c r="A331" s="5" t="s">
         <v>285</v>
       </c>
@@ -6300,7 +6300,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:4" ht="21">
       <c r="A332" s="5" t="s">
         <v>285</v>
       </c>
@@ -6314,7 +6314,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:4" ht="21">
       <c r="A333" s="5" t="s">
         <v>285</v>
       </c>
@@ -6328,15 +6328,15 @@
         <v>310</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:4" ht="21">
       <c r="B334" s="7"/>
       <c r="C334" s="4"/>
     </row>
-    <row r="335" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:4" ht="21">
       <c r="B335" s="7"/>
       <c r="C335" s="4"/>
     </row>
-    <row r="336" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:4" ht="21">
       <c r="A336" s="8" t="s">
         <v>324</v>
       </c>
@@ -6350,7 +6350,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:4" ht="21">
       <c r="A337" s="8" t="s">
         <v>324</v>
       </c>
@@ -6364,7 +6364,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:4" ht="21">
       <c r="A338" s="8" t="s">
         <v>324</v>
       </c>
@@ -6378,7 +6378,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:4" ht="21">
       <c r="A339" s="8" t="s">
         <v>324</v>
       </c>
@@ -6392,7 +6392,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:4" ht="21">
       <c r="A340" s="8" t="s">
         <v>324</v>
       </c>
@@ -6406,7 +6406,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:4" ht="21">
       <c r="A341" s="8" t="s">
         <v>324</v>
       </c>
@@ -6420,7 +6420,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:4" ht="21">
       <c r="A342" s="8" t="s">
         <v>324</v>
       </c>
@@ -6434,7 +6434,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:4" ht="21">
       <c r="A343" s="8" t="s">
         <v>324</v>
       </c>
@@ -6448,7 +6448,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:4" ht="21">
       <c r="A344" s="8" t="s">
         <v>324</v>
       </c>
@@ -6462,7 +6462,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:4" ht="21">
       <c r="A345" s="8" t="s">
         <v>324</v>
       </c>
@@ -6476,7 +6476,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:4" ht="21">
       <c r="A346" s="8" t="s">
         <v>324</v>
       </c>
@@ -6490,7 +6490,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="347" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:4" ht="21">
       <c r="A347" s="8" t="s">
         <v>324</v>
       </c>
@@ -6504,7 +6504,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="348" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:4" ht="21">
       <c r="A348" s="8" t="s">
         <v>324</v>
       </c>
@@ -6518,7 +6518,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="349" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:4" ht="21">
       <c r="A349" s="8" t="s">
         <v>324</v>
       </c>
@@ -6532,7 +6532,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="350" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:4" ht="21">
       <c r="A350" s="8" t="s">
         <v>324</v>
       </c>
@@ -6546,7 +6546,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="351" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:4" ht="21">
       <c r="A351" s="8" t="s">
         <v>324</v>
       </c>
@@ -6560,7 +6560,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="352" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:4" ht="21">
       <c r="A352" s="8" t="s">
         <v>324</v>
       </c>
@@ -6574,7 +6574,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="353" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:4" ht="21">
       <c r="A353" s="8" t="s">
         <v>324</v>
       </c>
@@ -6588,15 +6588,15 @@
         <v>328</v>
       </c>
     </row>
-    <row r="354" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:4" ht="21">
       <c r="B354" s="7"/>
       <c r="C354" s="4"/>
     </row>
-    <row r="355" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:4" ht="21">
       <c r="B355" s="7"/>
       <c r="C355" s="4"/>
     </row>
-    <row r="356" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:4" ht="21">
       <c r="A356" s="8" t="s">
         <v>343</v>
       </c>
@@ -6610,7 +6610,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="357" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:4" ht="21">
       <c r="A357" s="8" t="s">
         <v>343</v>
       </c>
@@ -6624,7 +6624,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="358" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:4" ht="21">
       <c r="A358" s="8" t="s">
         <v>343</v>
       </c>
@@ -6638,7 +6638,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="359" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:4" ht="21">
       <c r="A359" s="8" t="s">
         <v>343</v>
       </c>
@@ -6652,7 +6652,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="360" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:4" ht="21">
       <c r="A360" s="8" t="s">
         <v>343</v>
       </c>
@@ -6666,7 +6666,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="361" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:4" ht="21">
       <c r="A361" s="8" t="s">
         <v>343</v>
       </c>
@@ -6680,7 +6680,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="362" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:4" ht="21">
       <c r="A362" s="8" t="s">
         <v>343</v>
       </c>
@@ -6694,7 +6694,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="363" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:4" ht="21">
       <c r="A363" s="8" t="s">
         <v>343</v>
       </c>
@@ -6708,7 +6708,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="364" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:4" ht="21">
       <c r="A364" s="8" t="s">
         <v>343</v>
       </c>
@@ -6722,7 +6722,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="365" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:4" ht="21">
       <c r="A365" s="8" t="s">
         <v>343</v>
       </c>
@@ -6736,7 +6736,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="366" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:4" ht="21">
       <c r="A366" s="8" t="s">
         <v>343</v>
       </c>
@@ -6750,7 +6750,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="367" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:4" ht="21">
       <c r="A367" s="8" t="s">
         <v>343</v>
       </c>
@@ -6764,7 +6764,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="368" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:4" ht="21">
       <c r="A368" s="8" t="s">
         <v>343</v>
       </c>
@@ -6778,7 +6778,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="369" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:4" ht="21">
       <c r="A369" s="8" t="s">
         <v>343</v>
       </c>
@@ -6792,7 +6792,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="370" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:4" ht="21">
       <c r="A370" s="8" t="s">
         <v>343</v>
       </c>
@@ -6806,7 +6806,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="371" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:4" ht="21">
       <c r="A371" s="8" t="s">
         <v>343</v>
       </c>
@@ -6820,7 +6820,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="372" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:4" ht="21">
       <c r="A372" s="8" t="s">
         <v>343</v>
       </c>
@@ -6834,7 +6834,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="373" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:4" ht="21">
       <c r="A373" s="8" t="s">
         <v>343</v>
       </c>
@@ -6848,7 +6848,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="374" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:4" ht="21">
       <c r="A374" s="8" t="s">
         <v>343</v>
       </c>
@@ -6862,7 +6862,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="375" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:4" ht="21">
       <c r="A375" s="8" t="s">
         <v>343</v>
       </c>
@@ -6876,7 +6876,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="376" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:4" ht="21">
       <c r="A376" s="8" t="s">
         <v>343</v>
       </c>
@@ -6890,7 +6890,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="377" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:4" ht="21">
       <c r="A377" s="8" t="s">
         <v>343</v>
       </c>
@@ -6904,7 +6904,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="378" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:4" ht="21">
       <c r="A378" s="8" t="s">
         <v>343</v>
       </c>
@@ -6918,7 +6918,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="379" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:4" ht="21">
       <c r="A379" s="8" t="s">
         <v>343</v>
       </c>
@@ -6932,7 +6932,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="380" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:4" ht="21">
       <c r="A380" s="8" t="s">
         <v>343</v>
       </c>
@@ -6946,7 +6946,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="381" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:4" ht="21">
       <c r="A381" s="8" t="s">
         <v>343</v>
       </c>
@@ -6960,7 +6960,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="382" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:4" ht="21">
       <c r="A382" s="8" t="s">
         <v>343</v>
       </c>
@@ -6974,7 +6974,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="383" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:4" ht="21">
       <c r="A383" s="8" t="s">
         <v>343</v>
       </c>
@@ -6988,7 +6988,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="384" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:4" ht="21">
       <c r="A384" s="8" t="s">
         <v>343</v>
       </c>
@@ -7002,7 +7002,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="385" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:4" ht="21">
       <c r="A385" s="8" t="s">
         <v>343</v>
       </c>
@@ -7016,7 +7016,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="386" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:4" ht="21">
       <c r="A386" s="8" t="s">
         <v>343</v>
       </c>
@@ -7030,7 +7030,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="387" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:4" ht="21">
       <c r="A387" s="8" t="s">
         <v>343</v>
       </c>
@@ -7044,7 +7044,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="388" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:4" ht="21">
       <c r="A388" s="8" t="s">
         <v>343</v>
       </c>
@@ -7058,7 +7058,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="389" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:4" ht="21">
       <c r="A389" s="8" t="s">
         <v>343</v>
       </c>
@@ -7072,7 +7072,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="390" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:4" ht="21">
       <c r="A390" s="8" t="s">
         <v>343</v>
       </c>
@@ -7086,7 +7086,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="391" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:4" ht="21">
       <c r="A391" s="8" t="s">
         <v>343</v>
       </c>
@@ -7100,7 +7100,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="392" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:4" ht="21">
       <c r="A392" s="8" t="s">
         <v>343</v>
       </c>
@@ -7114,7 +7114,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="393" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:4" ht="21">
       <c r="A393" s="8" t="s">
         <v>343</v>
       </c>
@@ -7128,7 +7128,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="394" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:4" ht="21">
       <c r="A394" s="8" t="s">
         <v>343</v>
       </c>
@@ -7142,7 +7142,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="395" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:4" ht="21">
       <c r="A395" s="8" t="s">
         <v>343</v>
       </c>
@@ -7156,7 +7156,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="396" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:4" ht="21">
       <c r="A396" s="8" t="s">
         <v>343</v>
       </c>
@@ -7170,7 +7170,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="397" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:4" ht="21">
       <c r="A397" s="8" t="s">
         <v>343</v>
       </c>
@@ -7184,7 +7184,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="398" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:4" ht="21">
       <c r="A398" s="8" t="s">
         <v>343</v>
       </c>
@@ -7198,7 +7198,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="399" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:4" ht="21">
       <c r="A399" s="8" t="s">
         <v>343</v>
       </c>
@@ -7212,15 +7212,15 @@
         <v>372</v>
       </c>
     </row>
-    <row r="400" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:4" ht="21">
       <c r="B400" s="7"/>
       <c r="C400" s="4"/>
     </row>
-    <row r="401" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:4" ht="21">
       <c r="B401" s="7"/>
       <c r="C401" s="4"/>
     </row>
-    <row r="402" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:4" ht="21">
       <c r="A402" s="8" t="s">
         <v>387</v>
       </c>
@@ -7234,7 +7234,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="403" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:4" ht="21">
       <c r="A403" s="8" t="s">
         <v>387</v>
       </c>
@@ -7248,7 +7248,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="404" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:4" ht="21">
       <c r="A404" s="8" t="s">
         <v>387</v>
       </c>
@@ -7262,7 +7262,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="405" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:4" ht="21">
       <c r="A405" s="8" t="s">
         <v>387</v>
       </c>
@@ -7276,7 +7276,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="406" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:4" ht="21">
       <c r="A406" s="8" t="s">
         <v>387</v>
       </c>
@@ -7290,7 +7290,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="407" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:4" ht="21">
       <c r="A407" s="8" t="s">
         <v>387</v>
       </c>
@@ -7304,15 +7304,15 @@
         <v>378</v>
       </c>
     </row>
-    <row r="408" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:4" ht="21">
       <c r="B408" s="7"/>
       <c r="C408" s="4"/>
     </row>
-    <row r="409" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:4" ht="21">
       <c r="B409" s="7"/>
       <c r="C409" s="4"/>
     </row>
-    <row r="410" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:4" ht="21">
       <c r="A410" s="5" t="s">
         <v>393</v>
       </c>
@@ -7326,7 +7326,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="411" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:4" ht="21">
       <c r="A411" s="5" t="s">
         <v>393</v>
       </c>
@@ -7340,7 +7340,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="412" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:4" ht="21">
       <c r="A412" s="5" t="s">
         <v>393</v>
       </c>
@@ -7354,7 +7354,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="413" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:4" ht="21">
       <c r="A413" s="5" t="s">
         <v>393</v>
       </c>
@@ -7368,7 +7368,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="414" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:4" ht="21">
       <c r="A414" s="5" t="s">
         <v>393</v>
       </c>
@@ -7382,7 +7382,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="415" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:4" ht="21">
       <c r="A415" s="5" t="s">
         <v>393</v>
       </c>
@@ -7396,7 +7396,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="416" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:4" ht="21">
       <c r="A416" s="5" t="s">
         <v>393</v>
       </c>
@@ -7410,7 +7410,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="417" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:4" ht="21">
       <c r="A417" s="5" t="s">
         <v>393</v>
       </c>
@@ -7424,7 +7424,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="418" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:4" ht="21">
       <c r="A418" s="5" t="s">
         <v>393</v>
       </c>
@@ -7438,7 +7438,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="419" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:4" ht="21">
       <c r="A419" s="5" t="s">
         <v>393</v>
       </c>
@@ -7452,7 +7452,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="420" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:4" ht="21">
       <c r="A420" s="5" t="s">
         <v>393</v>
       </c>
@@ -7466,7 +7466,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="421" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:4" ht="21">
       <c r="A421" s="5" t="s">
         <v>393</v>
       </c>
@@ -7480,7 +7480,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="422" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:4" ht="21">
       <c r="A422" s="5" t="s">
         <v>393</v>
       </c>
@@ -7494,7 +7494,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="423" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:4" ht="21">
       <c r="A423" s="5" t="s">
         <v>393</v>
       </c>
@@ -7508,7 +7508,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="424" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:4" ht="21">
       <c r="A424" s="5" t="s">
         <v>393</v>
       </c>
@@ -7522,7 +7522,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="425" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:4" ht="21">
       <c r="A425" s="5" t="s">
         <v>393</v>
       </c>
@@ -7536,7 +7536,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="426" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:4" ht="21">
       <c r="A426" s="5" t="s">
         <v>393</v>
       </c>
@@ -7550,7 +7550,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="427" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:4" ht="21">
       <c r="A427" s="5" t="s">
         <v>393</v>
       </c>
@@ -7564,7 +7564,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="428" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:4" ht="21">
       <c r="A428" s="5" t="s">
         <v>393</v>
       </c>
@@ -7578,7 +7578,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="429" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:4" ht="21">
       <c r="A429" s="5" t="s">
         <v>393</v>
       </c>
@@ -7592,7 +7592,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="430" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:4" ht="21">
       <c r="A430" s="5" t="s">
         <v>393</v>
       </c>
@@ -7606,7 +7606,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="431" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:4" ht="21">
       <c r="A431" s="5" t="s">
         <v>393</v>
       </c>
@@ -7620,7 +7620,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="432" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:4" ht="21">
       <c r="A432" s="5" t="s">
         <v>393</v>
       </c>
@@ -7634,7 +7634,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="433" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:4" ht="21">
       <c r="A433" s="5" t="s">
         <v>393</v>
       </c>
@@ -7648,7 +7648,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="434" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:4" ht="21">
       <c r="A434" s="5" t="s">
         <v>393</v>
       </c>
@@ -7662,7 +7662,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="435" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:4" ht="21">
       <c r="A435" s="5" t="s">
         <v>393</v>
       </c>
@@ -7676,7 +7676,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="436" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:4" ht="21">
       <c r="A436" s="5" t="s">
         <v>393</v>
       </c>
@@ -7690,7 +7690,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="437" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:4" ht="21">
       <c r="A437" s="5" t="s">
         <v>393</v>
       </c>
@@ -7704,7 +7704,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="438" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:4" ht="21">
       <c r="A438" s="5" t="s">
         <v>393</v>
       </c>
@@ -7718,7 +7718,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="439" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:4" ht="21">
       <c r="A439" s="5" t="s">
         <v>393</v>
       </c>
@@ -7732,7 +7732,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="440" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:4" ht="21">
       <c r="A440" s="5" t="s">
         <v>393</v>
       </c>
@@ -7746,7 +7746,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="441" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:4" ht="21">
       <c r="A441" s="5" t="s">
         <v>393</v>
       </c>
@@ -7760,7 +7760,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="442" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:4" ht="21">
       <c r="A442" s="5" t="s">
         <v>393</v>
       </c>
@@ -7774,7 +7774,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="443" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:4" ht="21">
       <c r="A443" s="5" t="s">
         <v>393</v>
       </c>
@@ -7788,7 +7788,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="444" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:4" ht="21">
       <c r="A444" s="5" t="s">
         <v>393</v>
       </c>
@@ -7802,7 +7802,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="445" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:4" ht="21">
       <c r="A445" s="5" t="s">
         <v>393</v>
       </c>
@@ -7816,7 +7816,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="446" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:4" ht="21">
       <c r="A446" s="5" t="s">
         <v>393</v>
       </c>
@@ -7830,7 +7830,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="447" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:4" ht="21">
       <c r="A447" s="5" t="s">
         <v>393</v>
       </c>
@@ -7844,7 +7844,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="448" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:4" ht="21">
       <c r="A448" s="5" t="s">
         <v>393</v>
       </c>
@@ -7858,7 +7858,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="449" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:4" ht="21">
       <c r="A449" s="5" t="s">
         <v>393</v>
       </c>
@@ -7872,7 +7872,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="450" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:4" ht="21">
       <c r="A450" s="5" t="s">
         <v>393</v>
       </c>
@@ -7886,7 +7886,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="451" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:4" ht="21">
       <c r="A451" s="5" t="s">
         <v>393</v>
       </c>
@@ -7900,7 +7900,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="452" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:4" ht="21">
       <c r="A452" s="5" t="s">
         <v>393</v>
       </c>
@@ -7914,7 +7914,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="453" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:4" ht="21">
       <c r="A453" s="5" t="s">
         <v>393</v>
       </c>
@@ -7928,7 +7928,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="454" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:4" ht="21">
       <c r="A454" s="5" t="s">
         <v>393</v>
       </c>
@@ -7942,7 +7942,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="455" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:4" ht="21">
       <c r="A455" s="5" t="s">
         <v>393</v>
       </c>
@@ -7956,7 +7956,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="456" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:4" ht="21">
       <c r="A456" s="5" t="s">
         <v>393</v>
       </c>
@@ -7970,7 +7970,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="457" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:4" ht="21">
       <c r="A457" s="5" t="s">
         <v>393</v>
       </c>
@@ -7984,7 +7984,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="458" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:4" ht="21">
       <c r="A458" s="5" t="s">
         <v>393</v>
       </c>
@@ -7998,7 +7998,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="459" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:4" ht="21">
       <c r="A459" s="5" t="s">
         <v>393</v>
       </c>
@@ -8012,7 +8012,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="460" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:4" ht="21">
       <c r="A460" s="5" t="s">
         <v>393</v>
       </c>
@@ -8026,7 +8026,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="461" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:4" ht="21">
       <c r="A461" s="5" t="s">
         <v>393</v>
       </c>
@@ -8040,7 +8040,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="462" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:4" ht="21">
       <c r="A462" s="5" t="s">
         <v>393</v>
       </c>
@@ -8054,7 +8054,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="463" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:4" ht="21">
       <c r="A463" s="5" t="s">
         <v>393</v>
       </c>
@@ -8068,7 +8068,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="464" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:4" ht="21">
       <c r="A464" s="5" t="s">
         <v>393</v>
       </c>
@@ -8082,7 +8082,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="465" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:4" ht="21">
       <c r="A465" s="5" t="s">
         <v>393</v>
       </c>
@@ -8096,7 +8096,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="466" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:4" ht="21">
       <c r="A466" s="5" t="s">
         <v>393</v>
       </c>
@@ -8110,7 +8110,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="467" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:4" ht="21">
       <c r="A467" s="5" t="s">
         <v>393</v>
       </c>
@@ -8124,7 +8124,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="468" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:4" ht="21">
       <c r="A468" s="5" t="s">
         <v>393</v>
       </c>
@@ -8138,7 +8138,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="469" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:4" ht="21">
       <c r="A469" s="5" t="s">
         <v>393</v>
       </c>
@@ -8152,16 +8152,16 @@
         <v>438</v>
       </c>
     </row>
-    <row r="470" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:4" ht="21">
       <c r="B470" s="7"/>
       <c r="C470" s="4"/>
     </row>
-    <row r="471" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:4" ht="21">
       <c r="A471" s="8"/>
       <c r="B471" s="7"/>
       <c r="C471" s="4"/>
     </row>
-    <row r="472" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:4" ht="21">
       <c r="A472" s="5" t="s">
         <v>453</v>
       </c>
@@ -8175,7 +8175,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="473" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:4" ht="21">
       <c r="A473" s="5" t="s">
         <v>453</v>
       </c>
@@ -8189,7 +8189,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="474" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:4" ht="21">
       <c r="A474" s="5" t="s">
         <v>453</v>
       </c>
@@ -8203,7 +8203,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="475" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:4" ht="21">
       <c r="A475" s="5" t="s">
         <v>453</v>
       </c>
@@ -8217,7 +8217,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="476" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:4" ht="21">
       <c r="A476" s="5" t="s">
         <v>453</v>
       </c>
@@ -8231,7 +8231,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="477" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:4" ht="21">
       <c r="A477" s="5" t="s">
         <v>453</v>
       </c>
@@ -8245,7 +8245,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="478" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:4" ht="21">
       <c r="A478" s="5" t="s">
         <v>453</v>
       </c>
@@ -8259,7 +8259,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="479" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:4" ht="21">
       <c r="A479" s="5" t="s">
         <v>453</v>
       </c>
@@ -8273,7 +8273,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="480" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:4" ht="21">
       <c r="A480" s="5" t="s">
         <v>453</v>
       </c>
@@ -8287,7 +8287,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="481" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:4" ht="21">
       <c r="A481" s="5" t="s">
         <v>453</v>
       </c>

--- a/Problems/Final450/FINAL450.xlsx
+++ b/Problems/Final450/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\vdcodes\Programming\DSA\Problems\Final450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59372F17-88C0-43D1-B9EA-796C471F01D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1703F19-CB5C-4552-B2EA-E386E8030CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1888,8 +1888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" topLeftCell="A137" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C156" sqref="C156"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="A280" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C289" sqref="C289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
